--- a/data files/CV mass data.xlsx
+++ b/data files/CV mass data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alishamsaley/Documents/GitHub/CV_growth/data files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F004FF3F-530C-364E-BFD6-9793DE347D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1078D0E-352A-CA4D-AD2A-E493EB4D94BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="500" windowWidth="34200" windowHeight="23500" xr2:uid="{EA9A21FE-119E-F149-BA48-D742B1177482}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{EA9A21FE-119E-F149-BA48-D742B1177482}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -481,8 +481,8 @@
   <dimension ref="A1:O633"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A586" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R599" sqref="R599"/>
+      <pane ySplit="1" topLeftCell="A601" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R626" sqref="R626"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13234,7 +13234,7 @@
         <v>2.9606999999999957</v>
       </c>
       <c r="O273">
-        <f t="shared" ref="O259:O322" si="24">N273/M273*100</f>
+        <f t="shared" ref="O273:O321" si="24">N273/M273*100</f>
         <v>1.1849070528123464</v>
       </c>
     </row>
@@ -18033,10 +18033,6 @@
         <f t="shared" si="28"/>
         <v>310.72299999999996</v>
       </c>
-      <c r="O377">
-        <f t="shared" si="29"/>
-        <v>100</v>
-      </c>
     </row>
     <row r="378" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A378">
@@ -18076,10 +18072,6 @@
         <f t="shared" si="28"/>
         <v>477.03460000000001</v>
       </c>
-      <c r="O378">
-        <f t="shared" si="29"/>
-        <v>100</v>
-      </c>
     </row>
     <row r="379" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A379">
@@ -18119,10 +18111,6 @@
         <f t="shared" si="28"/>
         <v>416.05419999999998</v>
       </c>
-      <c r="O379">
-        <f t="shared" si="29"/>
-        <v>100</v>
-      </c>
     </row>
     <row r="380" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A380">
@@ -18162,10 +18150,6 @@
         <f t="shared" si="28"/>
         <v>431.92959999999999</v>
       </c>
-      <c r="O380">
-        <f t="shared" si="29"/>
-        <v>100</v>
-      </c>
     </row>
     <row r="381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A381">
@@ -18205,10 +18189,6 @@
         <f t="shared" si="28"/>
         <v>577.97339999999997</v>
       </c>
-      <c r="O381">
-        <f t="shared" si="29"/>
-        <v>100</v>
-      </c>
     </row>
     <row r="382" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A382">
@@ -18248,10 +18228,6 @@
         <f t="shared" si="28"/>
         <v>340.637</v>
       </c>
-      <c r="O382">
-        <f t="shared" si="29"/>
-        <v>100</v>
-      </c>
     </row>
     <row r="383" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A383">
@@ -18291,10 +18267,6 @@
         <f t="shared" si="28"/>
         <v>191.523</v>
       </c>
-      <c r="O383">
-        <f t="shared" si="29"/>
-        <v>100</v>
-      </c>
     </row>
     <row r="384" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A384">
@@ -18334,12 +18306,8 @@
         <f t="shared" si="28"/>
         <v>846.25880000000006</v>
       </c>
-      <c r="O384">
-        <f t="shared" si="29"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="385" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>384</v>
       </c>
@@ -18377,12 +18345,8 @@
         <f t="shared" si="28"/>
         <v>340.38940000000002</v>
       </c>
-      <c r="O385">
-        <f t="shared" si="29"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="386" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>385</v>
       </c>
@@ -18420,12 +18384,8 @@
         <f t="shared" si="28"/>
         <v>327.77359999999999</v>
       </c>
-      <c r="O386">
-        <f t="shared" si="29"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="387" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>386</v>
       </c>
@@ -18463,12 +18423,8 @@
         <f t="shared" ref="N387:N450" si="33">G387-J387-L387</f>
         <v>579.96230000000003</v>
       </c>
-      <c r="O387">
-        <f t="shared" ref="O387:O450" si="34">N387/M387*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="388" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>387</v>
       </c>
@@ -18506,12 +18462,8 @@
         <f t="shared" si="33"/>
         <v>291.28319999999997</v>
       </c>
-      <c r="O388">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="389" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>388</v>
       </c>
@@ -18549,12 +18501,8 @@
         <f t="shared" si="33"/>
         <v>809.21010000000001</v>
       </c>
-      <c r="O389">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="390" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>389</v>
       </c>
@@ -18592,12 +18540,8 @@
         <f t="shared" si="33"/>
         <v>315.41270000000003</v>
       </c>
-      <c r="O390">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="391" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>390</v>
       </c>
@@ -18635,12 +18579,8 @@
         <f t="shared" si="33"/>
         <v>246.20699999999999</v>
       </c>
-      <c r="O391">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="392" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>391</v>
       </c>
@@ -18678,12 +18618,8 @@
         <f t="shared" si="33"/>
         <v>346.76580000000001</v>
       </c>
-      <c r="O392">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="393" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>392</v>
       </c>
@@ -18721,12 +18657,8 @@
         <f t="shared" si="33"/>
         <v>658.93970000000002</v>
       </c>
-      <c r="O393">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="394" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>393</v>
       </c>
@@ -18764,12 +18696,8 @@
         <f t="shared" si="33"/>
         <v>301.07400000000001</v>
       </c>
-      <c r="O394">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="395" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>394</v>
       </c>
@@ -18807,12 +18735,8 @@
         <f t="shared" si="33"/>
         <v>230.2509</v>
       </c>
-      <c r="O395">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="396" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>395</v>
       </c>
@@ -18850,12 +18774,8 @@
         <f t="shared" si="33"/>
         <v>327.17230000000001</v>
       </c>
-      <c r="O396">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="397" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>396</v>
       </c>
@@ -18893,12 +18813,8 @@
         <f t="shared" si="33"/>
         <v>573.61609999999996</v>
       </c>
-      <c r="O397">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="398" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>397</v>
       </c>
@@ -18936,12 +18852,8 @@
         <f t="shared" si="33"/>
         <v>348.72320000000002</v>
       </c>
-      <c r="O398">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="399" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>398</v>
       </c>
@@ -18979,12 +18891,8 @@
         <f t="shared" si="33"/>
         <v>428.11279999999999</v>
       </c>
-      <c r="O399">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="400" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>399</v>
       </c>
@@ -19022,12 +18930,8 @@
         <f t="shared" si="33"/>
         <v>270.53149999999999</v>
       </c>
-      <c r="O400">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="401" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>400</v>
       </c>
@@ -19065,12 +18969,8 @@
         <f t="shared" si="33"/>
         <v>224.01780000000002</v>
       </c>
-      <c r="O401">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="402" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>401</v>
       </c>
@@ -19108,12 +19008,8 @@
         <f t="shared" si="33"/>
         <v>292.82979999999998</v>
       </c>
-      <c r="O402">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="403" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>402</v>
       </c>
@@ -19151,12 +19047,8 @@
         <f t="shared" si="33"/>
         <v>648.29129999999998</v>
       </c>
-      <c r="O403">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="404" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>403</v>
       </c>
@@ -19194,12 +19086,8 @@
         <f t="shared" si="33"/>
         <v>258.03499999999997</v>
       </c>
-      <c r="O404">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="405" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>404</v>
       </c>
@@ -19237,12 +19125,8 @@
         <f t="shared" si="33"/>
         <v>418.2242</v>
       </c>
-      <c r="O405">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="406" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>405</v>
       </c>
@@ -19284,12 +19168,8 @@
         <f t="shared" si="33"/>
         <v>73.617400000000004</v>
       </c>
-      <c r="O406">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="407" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>406</v>
       </c>
@@ -19327,12 +19207,8 @@
         <f t="shared" si="33"/>
         <v>324.34120000000001</v>
       </c>
-      <c r="O407">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="408" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>407</v>
       </c>
@@ -19370,12 +19246,8 @@
         <f t="shared" si="33"/>
         <v>806.28379999999993</v>
       </c>
-      <c r="O408">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="409" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>408</v>
       </c>
@@ -19413,12 +19285,8 @@
         <f t="shared" si="33"/>
         <v>280.31569999999999</v>
       </c>
-      <c r="O409">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="410" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>409</v>
       </c>
@@ -19456,12 +19324,8 @@
         <f t="shared" si="33"/>
         <v>245.28379999999999</v>
       </c>
-      <c r="O410">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="411" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>410</v>
       </c>
@@ -19499,12 +19363,8 @@
         <f t="shared" si="33"/>
         <v>324.40640000000002</v>
       </c>
-      <c r="O411">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="412" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>411</v>
       </c>
@@ -19542,12 +19402,8 @@
         <f t="shared" si="33"/>
         <v>273.21350000000001</v>
       </c>
-      <c r="O412">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="413" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>412</v>
       </c>
@@ -19585,12 +19441,8 @@
         <f t="shared" si="33"/>
         <v>692.24889999999994</v>
       </c>
-      <c r="O413">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="414" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>413</v>
       </c>
@@ -19628,12 +19480,8 @@
         <f t="shared" si="33"/>
         <v>383.2364</v>
       </c>
-      <c r="O414">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="415" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>414</v>
       </c>
@@ -19671,12 +19519,8 @@
         <f t="shared" si="33"/>
         <v>272.89380000000006</v>
       </c>
-      <c r="O415">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="416" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>415</v>
       </c>
@@ -19714,12 +19558,8 @@
         <f t="shared" si="33"/>
         <v>366.2373</v>
       </c>
-      <c r="O416">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="417" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>416</v>
       </c>
@@ -19757,12 +19597,8 @@
         <f t="shared" si="33"/>
         <v>280.33</v>
       </c>
-      <c r="O417">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="418" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>417</v>
       </c>
@@ -19800,12 +19636,8 @@
         <f t="shared" si="33"/>
         <v>470.54700000000003</v>
       </c>
-      <c r="O418">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="419" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>418</v>
       </c>
@@ -19843,12 +19675,8 @@
         <f t="shared" si="33"/>
         <v>498.37959999999998</v>
       </c>
-      <c r="O419">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="420" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>419</v>
       </c>
@@ -19886,12 +19714,8 @@
         <f t="shared" si="33"/>
         <v>234.66469999999998</v>
       </c>
-      <c r="O420">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="421" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>420</v>
       </c>
@@ -19929,12 +19753,8 @@
         <f t="shared" si="33"/>
         <v>447.58009999999996</v>
       </c>
-      <c r="O421">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="422" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>421</v>
       </c>
@@ -19972,12 +19792,8 @@
         <f t="shared" si="33"/>
         <v>502.31189999999998</v>
       </c>
-      <c r="O422">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="423" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>422</v>
       </c>
@@ -20015,12 +19831,8 @@
         <f t="shared" si="33"/>
         <v>366.90120000000002</v>
       </c>
-      <c r="O423">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="424" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>423</v>
       </c>
@@ -20058,12 +19870,8 @@
         <f t="shared" si="33"/>
         <v>444.2937</v>
       </c>
-      <c r="O424">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="425" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>424</v>
       </c>
@@ -20101,12 +19909,8 @@
         <f t="shared" si="33"/>
         <v>444.08359999999999</v>
       </c>
-      <c r="O425">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="426" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>425</v>
       </c>
@@ -20144,12 +19948,8 @@
         <f t="shared" si="33"/>
         <v>423.73230000000001</v>
       </c>
-      <c r="O426">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="427" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>426</v>
       </c>
@@ -20187,12 +19987,8 @@
         <f t="shared" si="33"/>
         <v>294.0829</v>
       </c>
-      <c r="O427">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="428" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>427</v>
       </c>
@@ -20230,12 +20026,8 @@
         <f t="shared" si="33"/>
         <v>579.23400000000004</v>
       </c>
-      <c r="O428">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="429" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>428</v>
       </c>
@@ -20273,12 +20065,8 @@
         <f t="shared" si="33"/>
         <v>236.22469999999998</v>
       </c>
-      <c r="O429">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="430" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>429</v>
       </c>
@@ -20316,12 +20104,8 @@
         <f t="shared" si="33"/>
         <v>420.55899999999997</v>
       </c>
-      <c r="O430">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="431" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>430</v>
       </c>
@@ -20359,12 +20143,8 @@
         <f t="shared" si="33"/>
         <v>257.90980000000002</v>
       </c>
-      <c r="O431">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="432" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>431</v>
       </c>
@@ -20402,12 +20182,8 @@
         <f t="shared" si="33"/>
         <v>226.42089999999999</v>
       </c>
-      <c r="O432">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="433" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>432</v>
       </c>
@@ -20445,12 +20221,8 @@
         <f t="shared" si="33"/>
         <v>511.17240000000004</v>
       </c>
-      <c r="O433">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="434" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>433</v>
       </c>
@@ -20488,12 +20260,8 @@
         <f t="shared" si="33"/>
         <v>281.43859999999995</v>
       </c>
-      <c r="O434">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="435" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>434</v>
       </c>
@@ -20531,17 +20299,13 @@
         <f t="shared" si="33"/>
         <v>300.60949999999997</v>
       </c>
-      <c r="O435">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="436" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>435</v>
       </c>
       <c r="B436">
-        <f t="shared" ref="B436:B499" si="35">B387+1</f>
+        <f t="shared" ref="B436:B499" si="34">B387+1</f>
         <v>9</v>
       </c>
       <c r="C436">
@@ -20574,17 +20338,13 @@
         <f t="shared" si="33"/>
         <v>450.51589999999999</v>
       </c>
-      <c r="O436">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="437" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>436</v>
       </c>
       <c r="B437">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>9</v>
       </c>
       <c r="C437">
@@ -20617,17 +20377,13 @@
         <f t="shared" si="33"/>
         <v>669.04049999999995</v>
       </c>
-      <c r="O437">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="438" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>437</v>
       </c>
       <c r="B438">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>9</v>
       </c>
       <c r="C438">
@@ -20664,17 +20420,13 @@
         <f t="shared" si="33"/>
         <v>224.5341</v>
       </c>
-      <c r="O438">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="439" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>438</v>
       </c>
       <c r="B439">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>9</v>
       </c>
       <c r="C439">
@@ -20707,17 +20459,13 @@
         <f t="shared" si="33"/>
         <v>357.3922</v>
       </c>
-      <c r="O439">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="440" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>439</v>
       </c>
       <c r="B440">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>9</v>
       </c>
       <c r="C440">
@@ -20750,17 +20498,13 @@
         <f t="shared" si="33"/>
         <v>424.31569999999999</v>
       </c>
-      <c r="O440">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="441" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>440</v>
       </c>
       <c r="B441">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>9</v>
       </c>
       <c r="C441">
@@ -20793,17 +20537,13 @@
         <f t="shared" si="33"/>
         <v>1001.3651</v>
       </c>
-      <c r="O441">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="442" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>441</v>
       </c>
       <c r="B442">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>9</v>
       </c>
       <c r="C442">
@@ -20836,17 +20576,13 @@
         <f t="shared" si="33"/>
         <v>451.60200000000003</v>
       </c>
-      <c r="O442">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="443" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>442</v>
       </c>
       <c r="B443">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="C443">
@@ -20879,17 +20615,13 @@
         <f t="shared" si="33"/>
         <v>301.452</v>
       </c>
-      <c r="O443">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="444" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>443</v>
       </c>
       <c r="B444">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="C444">
@@ -20922,17 +20654,13 @@
         <f t="shared" si="33"/>
         <v>358.72159999999997</v>
       </c>
-      <c r="O444">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="445" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>444</v>
       </c>
       <c r="B445">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="C445">
@@ -20965,17 +20693,13 @@
         <f t="shared" si="33"/>
         <v>361.12430000000001</v>
       </c>
-      <c r="O445">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="446" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>445</v>
       </c>
       <c r="B446">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="C446">
@@ -21008,17 +20732,13 @@
         <f t="shared" si="33"/>
         <v>917.97190000000001</v>
       </c>
-      <c r="O446">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="447" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>446</v>
       </c>
       <c r="B447">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="C447">
@@ -21051,17 +20771,13 @@
         <f t="shared" si="33"/>
         <v>323.18860000000001</v>
       </c>
-      <c r="O447">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="448" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>447</v>
       </c>
       <c r="B448">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="C448">
@@ -21094,17 +20810,13 @@
         <f t="shared" si="33"/>
         <v>406.27799999999996</v>
       </c>
-      <c r="O448">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="449" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>448</v>
       </c>
       <c r="B449">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="C449">
@@ -21137,17 +20849,13 @@
         <f t="shared" si="33"/>
         <v>194.4802</v>
       </c>
-      <c r="O449">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="450" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>449</v>
       </c>
       <c r="B450">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="C450">
@@ -21180,17 +20888,13 @@
         <f t="shared" si="33"/>
         <v>891.322</v>
       </c>
-      <c r="O450">
-        <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="451" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>450</v>
       </c>
       <c r="B451">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="C451">
@@ -21212,28 +20916,24 @@
         <v>67.783199999999994</v>
       </c>
       <c r="L451">
-        <f t="shared" ref="L451:L514" si="36">H451-F451</f>
+        <f t="shared" ref="L451:L514" si="35">H451-F451</f>
         <v>6.0086999999999904</v>
       </c>
       <c r="M451">
-        <f t="shared" ref="M451:M514" si="37">G451-L451</f>
+        <f t="shared" ref="M451:M514" si="36">G451-L451</f>
         <v>445.45890000000003</v>
       </c>
       <c r="N451">
-        <f t="shared" ref="N451:N514" si="38">G451-J451-L451</f>
+        <f t="shared" ref="N451:N514" si="37">G451-J451-L451</f>
         <v>445.45890000000003</v>
       </c>
-      <c r="O451">
-        <f t="shared" ref="O451:O514" si="39">N451/M451*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="452" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>451</v>
       </c>
       <c r="B452">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="C452">
@@ -21255,28 +20955,24 @@
         <v>76.370400000000004</v>
       </c>
       <c r="L452">
+        <f t="shared" si="35"/>
+        <v>7.7505000000000024</v>
+      </c>
+      <c r="M452">
         <f t="shared" si="36"/>
-        <v>7.7505000000000024</v>
-      </c>
-      <c r="M452">
+        <v>535.51760000000002</v>
+      </c>
+      <c r="N452">
         <f t="shared" si="37"/>
         <v>535.51760000000002</v>
       </c>
-      <c r="N452">
-        <f t="shared" si="38"/>
-        <v>535.51760000000002</v>
-      </c>
-      <c r="O452">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="453" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>452</v>
       </c>
       <c r="B453">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="C453">
@@ -21298,28 +20994,24 @@
         <v>68.247600000000006</v>
       </c>
       <c r="L453">
+        <f t="shared" si="35"/>
+        <v>4.6692000000000036</v>
+      </c>
+      <c r="M453">
         <f t="shared" si="36"/>
-        <v>4.6692000000000036</v>
-      </c>
-      <c r="M453">
+        <v>332.43700000000001</v>
+      </c>
+      <c r="N453">
         <f t="shared" si="37"/>
         <v>332.43700000000001</v>
       </c>
-      <c r="N453">
-        <f t="shared" si="38"/>
-        <v>332.43700000000001</v>
-      </c>
-      <c r="O453">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="454" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>453</v>
       </c>
       <c r="B454">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="C454">
@@ -21341,28 +21033,24 @@
         <v>71.476799999999997</v>
       </c>
       <c r="L454">
+        <f t="shared" si="35"/>
+        <v>5.8547999999999973</v>
+      </c>
+      <c r="M454">
         <f t="shared" si="36"/>
-        <v>5.8547999999999973</v>
-      </c>
-      <c r="M454">
+        <v>408.49459999999999</v>
+      </c>
+      <c r="N454">
         <f t="shared" si="37"/>
         <v>408.49459999999999</v>
       </c>
-      <c r="N454">
-        <f t="shared" si="38"/>
-        <v>408.49459999999999</v>
-      </c>
-      <c r="O454">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="455" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>454</v>
       </c>
       <c r="B455">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="C455">
@@ -21384,28 +21072,24 @@
         <v>59.716000000000001</v>
       </c>
       <c r="L455">
+        <f t="shared" si="35"/>
+        <v>3.5998000000000019</v>
+      </c>
+      <c r="M455">
         <f t="shared" si="36"/>
-        <v>3.5998000000000019</v>
-      </c>
-      <c r="M455">
+        <v>308.75979999999998</v>
+      </c>
+      <c r="N455">
         <f t="shared" si="37"/>
         <v>308.75979999999998</v>
       </c>
-      <c r="N455">
-        <f t="shared" si="38"/>
-        <v>308.75979999999998</v>
-      </c>
-      <c r="O455">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="456" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>455</v>
       </c>
       <c r="B456">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="C456">
@@ -21427,28 +21111,24 @@
         <v>63.8887</v>
       </c>
       <c r="L456">
+        <f t="shared" si="35"/>
+        <v>7.817300000000003</v>
+      </c>
+      <c r="M456">
         <f t="shared" si="36"/>
-        <v>7.817300000000003</v>
-      </c>
-      <c r="M456">
+        <v>563.13069999999993</v>
+      </c>
+      <c r="N456">
         <f t="shared" si="37"/>
         <v>563.13069999999993</v>
       </c>
-      <c r="N456">
-        <f t="shared" si="38"/>
-        <v>563.13069999999993</v>
-      </c>
-      <c r="O456">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="457" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>456</v>
       </c>
       <c r="B457">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="C457">
@@ -21470,28 +21150,24 @@
         <v>82.724400000000003</v>
       </c>
       <c r="L457">
+        <f t="shared" si="35"/>
+        <v>7.2139999999999986</v>
+      </c>
+      <c r="M457">
         <f t="shared" si="36"/>
-        <v>7.2139999999999986</v>
-      </c>
-      <c r="M457">
+        <v>423.33949999999999</v>
+      </c>
+      <c r="N457">
         <f t="shared" si="37"/>
         <v>423.33949999999999</v>
       </c>
-      <c r="N457">
-        <f t="shared" si="38"/>
-        <v>423.33949999999999</v>
-      </c>
-      <c r="O457">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="458" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>457</v>
       </c>
       <c r="B458">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="C458">
@@ -21513,28 +21189,24 @@
         <v>61.341799999999999</v>
       </c>
       <c r="L458">
+        <f t="shared" si="35"/>
+        <v>6.4074000000000026</v>
+      </c>
+      <c r="M458">
         <f t="shared" si="36"/>
-        <v>6.4074000000000026</v>
-      </c>
-      <c r="M458">
+        <v>459.41590000000002</v>
+      </c>
+      <c r="N458">
         <f t="shared" si="37"/>
         <v>459.41590000000002</v>
       </c>
-      <c r="N458">
-        <f t="shared" si="38"/>
-        <v>459.41590000000002</v>
-      </c>
-      <c r="O458">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="459" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>458</v>
       </c>
       <c r="B459">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="C459">
@@ -21556,28 +21228,24 @@
         <v>75.5578</v>
       </c>
       <c r="L459">
+        <f t="shared" si="35"/>
+        <v>4.4654000000000025</v>
+      </c>
+      <c r="M459">
         <f t="shared" si="36"/>
-        <v>4.4654000000000025</v>
-      </c>
-      <c r="M459">
+        <v>274.64890000000003</v>
+      </c>
+      <c r="N459">
         <f t="shared" si="37"/>
         <v>274.64890000000003</v>
       </c>
-      <c r="N459">
-        <f t="shared" si="38"/>
-        <v>274.64890000000003</v>
-      </c>
-      <c r="O459">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="460" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>459</v>
       </c>
       <c r="B460">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="C460">
@@ -21603,28 +21271,24 @@
         <v>13</v>
       </c>
       <c r="L460">
+        <f t="shared" si="35"/>
+        <v>2.7799999999999159E-2</v>
+      </c>
+      <c r="M460">
         <f t="shared" si="36"/>
-        <v>2.7799999999999159E-2</v>
-      </c>
-      <c r="M460">
+        <v>61.228200000000001</v>
+      </c>
+      <c r="N460">
         <f t="shared" si="37"/>
         <v>61.228200000000001</v>
       </c>
-      <c r="N460">
-        <f t="shared" si="38"/>
-        <v>61.228200000000001</v>
-      </c>
-      <c r="O460">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="461" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>460</v>
       </c>
       <c r="B461">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="C461">
@@ -21646,28 +21310,24 @@
         <v>82.018100000000004</v>
       </c>
       <c r="L461">
+        <f t="shared" si="35"/>
+        <v>3.4577000000000027</v>
+      </c>
+      <c r="M461">
         <f t="shared" si="36"/>
-        <v>3.4577000000000027</v>
-      </c>
-      <c r="M461">
+        <v>292.32569999999998</v>
+      </c>
+      <c r="N461">
         <f t="shared" si="37"/>
         <v>292.32569999999998</v>
       </c>
-      <c r="N461">
-        <f t="shared" si="38"/>
-        <v>292.32569999999998</v>
-      </c>
-      <c r="O461">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="462" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>461</v>
       </c>
       <c r="B462">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="C462">
@@ -21689,28 +21349,24 @@
         <v>79.599699999999999</v>
       </c>
       <c r="L462">
+        <f t="shared" si="35"/>
+        <v>17.8352</v>
+      </c>
+      <c r="M462">
         <f t="shared" si="36"/>
-        <v>17.8352</v>
-      </c>
-      <c r="M462">
+        <v>1071.4010000000001</v>
+      </c>
+      <c r="N462">
         <f t="shared" si="37"/>
         <v>1071.4010000000001</v>
       </c>
-      <c r="N462">
-        <f t="shared" si="38"/>
-        <v>1071.4010000000001</v>
-      </c>
-      <c r="O462">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="463" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>462</v>
       </c>
       <c r="B463">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="C463">
@@ -21736,28 +21392,24 @@
         <v>21</v>
       </c>
       <c r="L463">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="M463">
         <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="M463">
+        <v>254.828</v>
+      </c>
+      <c r="N463">
         <f t="shared" si="37"/>
         <v>254.828</v>
       </c>
-      <c r="N463">
-        <f t="shared" si="38"/>
-        <v>254.828</v>
-      </c>
-      <c r="O463">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="464" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>463</v>
       </c>
       <c r="B464">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="C464">
@@ -21779,28 +21431,24 @@
         <v>64.202600000000004</v>
       </c>
       <c r="L464">
+        <f t="shared" si="35"/>
+        <v>2.573200000000007</v>
+      </c>
+      <c r="M464">
         <f t="shared" si="36"/>
-        <v>2.573200000000007</v>
-      </c>
-      <c r="M464">
+        <v>234.04899999999998</v>
+      </c>
+      <c r="N464">
         <f t="shared" si="37"/>
         <v>234.04899999999998</v>
       </c>
-      <c r="N464">
-        <f t="shared" si="38"/>
-        <v>234.04899999999998</v>
-      </c>
-      <c r="O464">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="465" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>464</v>
       </c>
       <c r="B465">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="C465">
@@ -21826,28 +21474,24 @@
         <v>21</v>
       </c>
       <c r="L465">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="M465">
         <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="M465">
+        <v>294.39109999999999</v>
+      </c>
+      <c r="N465">
         <f t="shared" si="37"/>
         <v>294.39109999999999</v>
       </c>
-      <c r="N465">
-        <f t="shared" si="38"/>
-        <v>294.39109999999999</v>
-      </c>
-      <c r="O465">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="466" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>465</v>
       </c>
       <c r="B466">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="C466">
@@ -21869,28 +21513,24 @@
         <v>80.801100000000005</v>
       </c>
       <c r="L466">
+        <f t="shared" si="35"/>
+        <v>7.5443000000000069</v>
+      </c>
+      <c r="M466">
         <f t="shared" si="36"/>
-        <v>7.5443000000000069</v>
-      </c>
-      <c r="M466">
+        <v>426.62059999999997</v>
+      </c>
+      <c r="N466">
         <f t="shared" si="37"/>
         <v>426.62059999999997</v>
       </c>
-      <c r="N466">
-        <f t="shared" si="38"/>
-        <v>426.62059999999997</v>
-      </c>
-      <c r="O466">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="467" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>466</v>
       </c>
       <c r="B467">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="C467">
@@ -21912,28 +21552,24 @@
         <v>91.136099999999999</v>
       </c>
       <c r="L467">
+        <f t="shared" si="35"/>
+        <v>7.1120999999999981</v>
+      </c>
+      <c r="M467">
         <f t="shared" si="36"/>
-        <v>7.1120999999999981</v>
-      </c>
-      <c r="M467">
+        <v>449.20310000000001</v>
+      </c>
+      <c r="N467">
         <f t="shared" si="37"/>
         <v>449.20310000000001</v>
       </c>
-      <c r="N467">
-        <f t="shared" si="38"/>
-        <v>449.20310000000001</v>
-      </c>
-      <c r="O467">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="468" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>467</v>
       </c>
       <c r="B468">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="C468">
@@ -21955,28 +21591,24 @@
         <v>61.497799999999998</v>
       </c>
       <c r="L468">
+        <f t="shared" si="35"/>
+        <v>6.1400000000000006</v>
+      </c>
+      <c r="M468">
         <f t="shared" si="36"/>
-        <v>6.1400000000000006</v>
-      </c>
-      <c r="M468">
+        <v>364.13839999999999</v>
+      </c>
+      <c r="N468">
         <f t="shared" si="37"/>
         <v>364.13839999999999</v>
       </c>
-      <c r="N468">
-        <f t="shared" si="38"/>
-        <v>364.13839999999999</v>
-      </c>
-      <c r="O468">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="469" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>468</v>
       </c>
       <c r="B469">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="C469">
@@ -21998,28 +21630,24 @@
         <v>67.494900000000001</v>
       </c>
       <c r="L469">
+        <f t="shared" si="35"/>
+        <v>5.9335000000000022</v>
+      </c>
+      <c r="M469">
         <f t="shared" si="36"/>
-        <v>5.9335000000000022</v>
-      </c>
-      <c r="M469">
+        <v>369.0564</v>
+      </c>
+      <c r="N469">
         <f t="shared" si="37"/>
         <v>369.0564</v>
       </c>
-      <c r="N469">
-        <f t="shared" si="38"/>
-        <v>369.0564</v>
-      </c>
-      <c r="O469">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="470" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>469</v>
       </c>
       <c r="B470">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="C470">
@@ -22041,28 +21669,24 @@
         <v>80.309200000000004</v>
       </c>
       <c r="L470">
+        <f t="shared" si="35"/>
+        <v>7.6700000000000017</v>
+      </c>
+      <c r="M470">
         <f t="shared" si="36"/>
-        <v>7.6700000000000017</v>
-      </c>
-      <c r="M470">
+        <v>515.59739999999999</v>
+      </c>
+      <c r="N470">
         <f t="shared" si="37"/>
         <v>515.59739999999999</v>
       </c>
-      <c r="N470">
-        <f t="shared" si="38"/>
-        <v>515.59739999999999</v>
-      </c>
-      <c r="O470">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="471" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>470</v>
       </c>
       <c r="B471">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="C471">
@@ -22084,28 +21708,24 @@
         <v>78.294799999999995</v>
       </c>
       <c r="L471">
+        <f t="shared" si="35"/>
+        <v>3.1287999999999982</v>
+      </c>
+      <c r="M471">
         <f t="shared" si="36"/>
-        <v>3.1287999999999982</v>
-      </c>
-      <c r="M471">
+        <v>303.82249999999999</v>
+      </c>
+      <c r="N471">
         <f t="shared" si="37"/>
         <v>303.82249999999999</v>
       </c>
-      <c r="N471">
-        <f t="shared" si="38"/>
-        <v>303.82249999999999</v>
-      </c>
-      <c r="O471">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="472" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>471</v>
       </c>
       <c r="B472">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="C472">
@@ -22127,28 +21747,24 @@
         <v>77.196299999999994</v>
       </c>
       <c r="L472">
+        <f t="shared" si="35"/>
+        <v>12.319999999999993</v>
+      </c>
+      <c r="M472">
         <f t="shared" si="36"/>
-        <v>12.319999999999993</v>
-      </c>
-      <c r="M472">
+        <v>967.32079999999996</v>
+      </c>
+      <c r="N472">
         <f t="shared" si="37"/>
         <v>967.32079999999996</v>
       </c>
-      <c r="N472">
-        <f t="shared" si="38"/>
-        <v>967.32079999999996</v>
-      </c>
-      <c r="O472">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="473" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>472</v>
       </c>
       <c r="B473">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="C473">
@@ -22174,28 +21790,24 @@
         <v>13</v>
       </c>
       <c r="L473">
+        <f t="shared" si="35"/>
+        <v>3.9299999999997226E-2</v>
+      </c>
+      <c r="M473">
         <f t="shared" si="36"/>
-        <v>3.9299999999997226E-2</v>
-      </c>
-      <c r="M473">
+        <v>68.613399999999999</v>
+      </c>
+      <c r="N473">
         <f t="shared" si="37"/>
         <v>68.613399999999999</v>
       </c>
-      <c r="N473">
-        <f t="shared" si="38"/>
-        <v>68.613399999999999</v>
-      </c>
-      <c r="O473">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="474" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>473</v>
       </c>
       <c r="B474">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="C474">
@@ -22217,28 +21829,24 @@
         <v>71.451800000000006</v>
       </c>
       <c r="L474">
+        <f t="shared" si="35"/>
+        <v>6.3923000000000059</v>
+      </c>
+      <c r="M474">
         <f t="shared" si="36"/>
-        <v>6.3923000000000059</v>
-      </c>
-      <c r="M474">
+        <v>452.33860000000004</v>
+      </c>
+      <c r="N474">
         <f t="shared" si="37"/>
         <v>452.33860000000004</v>
       </c>
-      <c r="N474">
-        <f t="shared" si="38"/>
-        <v>452.33860000000004</v>
-      </c>
-      <c r="O474">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="475" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>474</v>
       </c>
       <c r="B475">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="C475">
@@ -22260,28 +21868,24 @@
         <v>84.089699999999993</v>
       </c>
       <c r="L475">
+        <f t="shared" si="35"/>
+        <v>3.7553999999999945</v>
+      </c>
+      <c r="M475">
         <f t="shared" si="36"/>
-        <v>3.7553999999999945</v>
-      </c>
-      <c r="M475">
+        <v>296.45679999999999</v>
+      </c>
+      <c r="N475">
         <f t="shared" si="37"/>
         <v>296.45679999999999</v>
       </c>
-      <c r="N475">
-        <f t="shared" si="38"/>
-        <v>296.45679999999999</v>
-      </c>
-      <c r="O475">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="476" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>475</v>
       </c>
       <c r="B476">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="C476">
@@ -22303,28 +21907,24 @@
         <v>73.914500000000004</v>
       </c>
       <c r="L476">
+        <f t="shared" si="35"/>
+        <v>3.515900000000002</v>
+      </c>
+      <c r="M476">
         <f t="shared" si="36"/>
-        <v>3.515900000000002</v>
-      </c>
-      <c r="M476">
+        <v>224.24360000000001</v>
+      </c>
+      <c r="N476">
         <f t="shared" si="37"/>
         <v>224.24360000000001</v>
       </c>
-      <c r="N476">
-        <f t="shared" si="38"/>
-        <v>224.24360000000001</v>
-      </c>
-      <c r="O476">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="477" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>476</v>
       </c>
       <c r="B477">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="C477">
@@ -22346,28 +21946,24 @@
         <v>78.477900000000005</v>
       </c>
       <c r="L477">
+        <f t="shared" si="35"/>
+        <v>10.965699999999998</v>
+      </c>
+      <c r="M477">
         <f t="shared" si="36"/>
-        <v>10.965699999999998</v>
-      </c>
-      <c r="M477">
+        <v>561.50940000000003</v>
+      </c>
+      <c r="N477">
         <f t="shared" si="37"/>
         <v>561.50940000000003</v>
       </c>
-      <c r="N477">
-        <f t="shared" si="38"/>
-        <v>561.50940000000003</v>
-      </c>
-      <c r="O477">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="478" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>477</v>
       </c>
       <c r="B478">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="C478">
@@ -22389,28 +21985,24 @@
         <v>91.201300000000003</v>
       </c>
       <c r="L478">
+        <f t="shared" si="35"/>
+        <v>6.5088000000000079</v>
+      </c>
+      <c r="M478">
         <f t="shared" si="36"/>
-        <v>6.5088000000000079</v>
-      </c>
-      <c r="M478">
+        <v>461.81399999999996</v>
+      </c>
+      <c r="N478">
         <f t="shared" si="37"/>
         <v>461.81399999999996</v>
       </c>
-      <c r="N478">
-        <f t="shared" si="38"/>
-        <v>461.81399999999996</v>
-      </c>
-      <c r="O478">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="479" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>478</v>
       </c>
       <c r="B479">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="C479">
@@ -22432,28 +22024,24 @@
         <v>66.861199999999997</v>
       </c>
       <c r="L479">
+        <f t="shared" si="35"/>
+        <v>6.9212999999999951</v>
+      </c>
+      <c r="M479">
         <f t="shared" si="36"/>
-        <v>6.9212999999999951</v>
-      </c>
-      <c r="M479">
+        <v>473.49130000000002</v>
+      </c>
+      <c r="N479">
         <f t="shared" si="37"/>
         <v>473.49130000000002</v>
       </c>
-      <c r="N479">
-        <f t="shared" si="38"/>
-        <v>473.49130000000002</v>
-      </c>
-      <c r="O479">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="480" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>479</v>
       </c>
       <c r="B480">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="C480">
@@ -22479,28 +22067,24 @@
         <v>21</v>
       </c>
       <c r="L480">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="M480">
         <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="M480">
+        <v>178.00229999999999</v>
+      </c>
+      <c r="N480">
         <f t="shared" si="37"/>
         <v>178.00229999999999</v>
       </c>
-      <c r="N480">
-        <f t="shared" si="38"/>
-        <v>178.00229999999999</v>
-      </c>
-      <c r="O480">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="481" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>480</v>
       </c>
       <c r="B481">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="C481">
@@ -22522,28 +22106,24 @@
         <v>69.213200000000001</v>
       </c>
       <c r="L481">
+        <f t="shared" si="35"/>
+        <v>9.3725000000000023</v>
+      </c>
+      <c r="M481">
         <f t="shared" si="36"/>
-        <v>9.3725000000000023</v>
-      </c>
-      <c r="M481">
+        <v>604.22039999999993</v>
+      </c>
+      <c r="N481">
         <f t="shared" si="37"/>
         <v>604.22039999999993</v>
       </c>
-      <c r="N481">
-        <f t="shared" si="38"/>
-        <v>604.22039999999993</v>
-      </c>
-      <c r="O481">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="482" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>481</v>
       </c>
       <c r="B482">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="C482">
@@ -22565,28 +22145,24 @@
         <v>58.320399999999999</v>
       </c>
       <c r="L482">
+        <f t="shared" si="35"/>
+        <v>3.6916999999999973</v>
+      </c>
+      <c r="M482">
         <f t="shared" si="36"/>
-        <v>3.6916999999999973</v>
-      </c>
-      <c r="M482">
+        <v>300.64679999999998</v>
+      </c>
+      <c r="N482">
         <f t="shared" si="37"/>
         <v>300.64679999999998</v>
       </c>
-      <c r="N482">
-        <f t="shared" si="38"/>
-        <v>300.64679999999998</v>
-      </c>
-      <c r="O482">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="483" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>482</v>
       </c>
       <c r="B483">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="C483">
@@ -22608,28 +22184,24 @@
         <v>96.763999999999996</v>
       </c>
       <c r="L483">
+        <f t="shared" si="35"/>
+        <v>16.468099999999993</v>
+      </c>
+      <c r="M483">
         <f t="shared" si="36"/>
-        <v>16.468099999999993</v>
-      </c>
-      <c r="M483">
+        <v>1006.3788</v>
+      </c>
+      <c r="N483">
         <f t="shared" si="37"/>
         <v>1006.3788</v>
       </c>
-      <c r="N483">
-        <f t="shared" si="38"/>
-        <v>1006.3788</v>
-      </c>
-      <c r="O483">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="484" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>483</v>
       </c>
       <c r="B484">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="C484">
@@ -22651,28 +22223,24 @@
         <v>44.521799999999999</v>
       </c>
       <c r="L484">
+        <f t="shared" si="35"/>
+        <v>1.6129999999999995</v>
+      </c>
+      <c r="M484">
         <f t="shared" si="36"/>
-        <v>1.6129999999999995</v>
-      </c>
-      <c r="M484">
+        <v>192.42269999999999</v>
+      </c>
+      <c r="N484">
         <f t="shared" si="37"/>
         <v>192.42269999999999</v>
       </c>
-      <c r="N484">
-        <f t="shared" si="38"/>
-        <v>192.42269999999999</v>
-      </c>
-      <c r="O484">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="485" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>484</v>
       </c>
       <c r="B485">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="C485">
@@ -22694,28 +22262,24 @@
         <v>77.601600000000005</v>
       </c>
       <c r="L485">
+        <f t="shared" si="35"/>
+        <v>6.0802000000000049</v>
+      </c>
+      <c r="M485">
         <f t="shared" si="36"/>
-        <v>6.0802000000000049</v>
-      </c>
-      <c r="M485">
+        <v>378.85090000000002</v>
+      </c>
+      <c r="N485">
         <f t="shared" si="37"/>
         <v>378.85090000000002</v>
       </c>
-      <c r="N485">
-        <f t="shared" si="38"/>
-        <v>378.85090000000002</v>
-      </c>
-      <c r="O485">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="486" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>485</v>
       </c>
       <c r="B486">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="C486">
@@ -22737,28 +22301,24 @@
         <v>59.864800000000002</v>
       </c>
       <c r="L486">
+        <f t="shared" si="35"/>
+        <v>5.2187000000000054</v>
+      </c>
+      <c r="M486">
         <f t="shared" si="36"/>
-        <v>5.2187000000000054</v>
-      </c>
-      <c r="M486">
+        <v>364.0736</v>
+      </c>
+      <c r="N486">
         <f t="shared" si="37"/>
         <v>364.0736</v>
       </c>
-      <c r="N486">
-        <f t="shared" si="38"/>
-        <v>364.0736</v>
-      </c>
-      <c r="O486">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="487" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>486</v>
       </c>
       <c r="B487">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="C487">
@@ -22780,28 +22340,24 @@
         <v>66.031199999999998</v>
       </c>
       <c r="L487">
+        <f t="shared" si="35"/>
+        <v>4.4688999999999979</v>
+      </c>
+      <c r="M487">
         <f t="shared" si="36"/>
-        <v>4.4688999999999979</v>
-      </c>
-      <c r="M487">
+        <v>396.721</v>
+      </c>
+      <c r="N487">
         <f t="shared" si="37"/>
         <v>396.721</v>
       </c>
-      <c r="N487">
-        <f t="shared" si="38"/>
-        <v>396.721</v>
-      </c>
-      <c r="O487">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="488" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>487</v>
       </c>
       <c r="B488">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="C488">
@@ -22823,28 +22379,24 @@
         <v>66.114699999999999</v>
       </c>
       <c r="L488">
+        <f t="shared" si="35"/>
+        <v>5.6773999999999987</v>
+      </c>
+      <c r="M488">
         <f t="shared" si="36"/>
-        <v>5.6773999999999987</v>
-      </c>
-      <c r="M488">
+        <v>347.94600000000003</v>
+      </c>
+      <c r="N488">
         <f t="shared" si="37"/>
         <v>347.94600000000003</v>
       </c>
-      <c r="N488">
-        <f t="shared" si="38"/>
-        <v>347.94600000000003</v>
-      </c>
-      <c r="O488">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="489" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>488</v>
       </c>
       <c r="B489">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="C489">
@@ -22866,28 +22418,24 @@
         <v>58.6066</v>
       </c>
       <c r="L489">
+        <f t="shared" si="35"/>
+        <v>6.8768999999999991</v>
+      </c>
+      <c r="M489">
         <f t="shared" si="36"/>
-        <v>6.8768999999999991</v>
-      </c>
-      <c r="M489">
+        <v>477.87490000000003</v>
+      </c>
+      <c r="N489">
         <f t="shared" si="37"/>
         <v>477.87490000000003</v>
       </c>
-      <c r="N489">
-        <f t="shared" si="38"/>
-        <v>477.87490000000003</v>
-      </c>
-      <c r="O489">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="490" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>489</v>
       </c>
       <c r="B490">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="C490">
@@ -22913,28 +22461,24 @@
         <v>21</v>
       </c>
       <c r="L490">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="M490">
         <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="M490">
+        <v>243.3357</v>
+      </c>
+      <c r="N490">
         <f t="shared" si="37"/>
         <v>243.3357</v>
       </c>
-      <c r="N490">
-        <f t="shared" si="38"/>
-        <v>243.3357</v>
-      </c>
-      <c r="O490">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="491" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>490</v>
       </c>
       <c r="B491">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="C491">
@@ -22956,28 +22500,24 @@
         <v>83.190899999999999</v>
       </c>
       <c r="L491">
+        <f t="shared" si="35"/>
+        <v>10.361400000000003</v>
+      </c>
+      <c r="M491">
         <f t="shared" si="36"/>
-        <v>10.361400000000003</v>
-      </c>
-      <c r="M491">
+        <v>648.81020000000001</v>
+      </c>
+      <c r="N491">
         <f t="shared" si="37"/>
         <v>648.81020000000001</v>
       </c>
-      <c r="N491">
-        <f t="shared" si="38"/>
-        <v>648.81020000000001</v>
-      </c>
-      <c r="O491">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="492" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>491</v>
       </c>
       <c r="B492">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>11</v>
       </c>
       <c r="C492">
@@ -22999,28 +22539,24 @@
         <v>73.641400000000004</v>
       </c>
       <c r="L492">
+        <f t="shared" si="35"/>
+        <v>6.9686999999999983</v>
+      </c>
+      <c r="M492">
         <f t="shared" si="36"/>
-        <v>6.9686999999999983</v>
-      </c>
-      <c r="M492">
+        <v>406.81799999999998</v>
+      </c>
+      <c r="N492">
         <f t="shared" si="37"/>
         <v>406.81799999999998</v>
       </c>
-      <c r="N492">
-        <f t="shared" si="38"/>
-        <v>406.81799999999998</v>
-      </c>
-      <c r="O492">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="493" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>492</v>
       </c>
       <c r="B493">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>11</v>
       </c>
       <c r="C493">
@@ -23042,28 +22578,24 @@
         <v>65.773600000000002</v>
       </c>
       <c r="L493">
+        <f t="shared" si="35"/>
+        <v>6.7445000000000022</v>
+      </c>
+      <c r="M493">
         <f t="shared" si="36"/>
-        <v>6.7445000000000022</v>
-      </c>
-      <c r="M493">
+        <v>366.89729999999997</v>
+      </c>
+      <c r="N493">
         <f t="shared" si="37"/>
         <v>366.89729999999997</v>
       </c>
-      <c r="N493">
-        <f t="shared" si="38"/>
-        <v>366.89729999999997</v>
-      </c>
-      <c r="O493">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="494" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>493</v>
       </c>
       <c r="B494">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>11</v>
       </c>
       <c r="C494">
@@ -23085,28 +22617,24 @@
         <v>74.857100000000003</v>
       </c>
       <c r="L494">
+        <f t="shared" si="35"/>
+        <v>8.2874000000000052</v>
+      </c>
+      <c r="M494">
         <f t="shared" si="36"/>
-        <v>8.2874000000000052</v>
-      </c>
-      <c r="M494">
+        <v>512.2607999999999</v>
+      </c>
+      <c r="N494">
         <f t="shared" si="37"/>
         <v>512.2607999999999</v>
       </c>
-      <c r="N494">
-        <f t="shared" si="38"/>
-        <v>512.2607999999999</v>
-      </c>
-      <c r="O494">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="495" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>494</v>
       </c>
       <c r="B495">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>11</v>
       </c>
       <c r="C495">
@@ -23128,28 +22656,24 @@
         <v>67.2804</v>
       </c>
       <c r="L495">
+        <f t="shared" si="35"/>
+        <v>7.4849000000000032</v>
+      </c>
+      <c r="M495">
         <f t="shared" si="36"/>
-        <v>7.4849000000000032</v>
-      </c>
-      <c r="M495">
+        <v>338.85820000000001</v>
+      </c>
+      <c r="N495">
         <f t="shared" si="37"/>
         <v>338.85820000000001</v>
       </c>
-      <c r="N495">
-        <f t="shared" si="38"/>
-        <v>338.85820000000001</v>
-      </c>
-      <c r="O495">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="496" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>495</v>
       </c>
       <c r="B496">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>11</v>
       </c>
       <c r="C496">
@@ -23171,28 +22695,24 @@
         <v>73.428600000000003</v>
       </c>
       <c r="L496">
+        <f t="shared" si="35"/>
+        <v>3.2712000000000074</v>
+      </c>
+      <c r="M496">
         <f t="shared" si="36"/>
-        <v>3.2712000000000074</v>
-      </c>
-      <c r="M496">
+        <v>273.56939999999997</v>
+      </c>
+      <c r="N496">
         <f t="shared" si="37"/>
         <v>273.56939999999997</v>
       </c>
-      <c r="N496">
-        <f t="shared" si="38"/>
-        <v>273.56939999999997</v>
-      </c>
-      <c r="O496">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="497" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>496</v>
       </c>
       <c r="B497">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>11</v>
       </c>
       <c r="C497">
@@ -23214,28 +22734,24 @@
         <v>78.127099999999999</v>
       </c>
       <c r="L497">
+        <f t="shared" si="35"/>
+        <v>9.7330000000000041</v>
+      </c>
+      <c r="M497">
         <f t="shared" si="36"/>
-        <v>9.7330000000000041</v>
-      </c>
-      <c r="M497">
+        <v>521.52070000000003</v>
+      </c>
+      <c r="N497">
         <f t="shared" si="37"/>
         <v>521.52070000000003</v>
       </c>
-      <c r="N497">
-        <f t="shared" si="38"/>
-        <v>521.52070000000003</v>
-      </c>
-      <c r="O497">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="498" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>497</v>
       </c>
       <c r="B498">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>11</v>
       </c>
       <c r="C498">
@@ -23257,28 +22773,24 @@
         <v>54.339199999999998</v>
       </c>
       <c r="L498">
+        <f t="shared" si="35"/>
+        <v>4.1546999999999983</v>
+      </c>
+      <c r="M498">
         <f t="shared" si="36"/>
-        <v>4.1546999999999983</v>
-      </c>
-      <c r="M498">
+        <v>237.8477</v>
+      </c>
+      <c r="N498">
         <f t="shared" si="37"/>
         <v>237.8477</v>
       </c>
-      <c r="N498">
-        <f t="shared" si="38"/>
-        <v>237.8477</v>
-      </c>
-      <c r="O498">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="499" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>498</v>
       </c>
       <c r="B499">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>11</v>
       </c>
       <c r="C499">
@@ -23300,28 +22812,24 @@
         <v>60.198900000000002</v>
       </c>
       <c r="L499">
+        <f t="shared" si="35"/>
+        <v>3.0020999999999987</v>
+      </c>
+      <c r="M499">
         <f t="shared" si="36"/>
-        <v>3.0020999999999987</v>
-      </c>
-      <c r="M499">
+        <v>192.37490000000003</v>
+      </c>
+      <c r="N499">
         <f t="shared" si="37"/>
         <v>192.37490000000003</v>
       </c>
-      <c r="N499">
-        <f t="shared" si="38"/>
-        <v>192.37490000000003</v>
-      </c>
-      <c r="O499">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="500" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>499</v>
       </c>
       <c r="B500">
-        <f t="shared" ref="B500:B563" si="40">B451+1</f>
+        <f t="shared" ref="B500:B563" si="38">B451+1</f>
         <v>11</v>
       </c>
       <c r="C500">
@@ -23343,28 +22851,24 @@
         <v>70.120099999999994</v>
       </c>
       <c r="L500">
+        <f t="shared" si="35"/>
+        <v>4.3972999999999871</v>
+      </c>
+      <c r="M500">
         <f t="shared" si="36"/>
-        <v>4.3972999999999871</v>
-      </c>
-      <c r="M500">
+        <v>265.45580000000001</v>
+      </c>
+      <c r="N500">
         <f t="shared" si="37"/>
         <v>265.45580000000001</v>
       </c>
-      <c r="N500">
-        <f t="shared" si="38"/>
-        <v>265.45580000000001</v>
-      </c>
-      <c r="O500">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="501" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>500</v>
       </c>
       <c r="B501">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="C501">
@@ -23386,28 +22890,24 @@
         <v>76.4238</v>
       </c>
       <c r="L501">
+        <f t="shared" si="35"/>
+        <v>2.5168000000000035</v>
+      </c>
+      <c r="M501">
         <f t="shared" si="36"/>
-        <v>2.5168000000000035</v>
-      </c>
-      <c r="M501">
+        <v>203.4203</v>
+      </c>
+      <c r="N501">
         <f t="shared" si="37"/>
         <v>203.4203</v>
       </c>
-      <c r="N501">
-        <f t="shared" si="38"/>
-        <v>203.4203</v>
-      </c>
-      <c r="O501">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="502" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>501</v>
       </c>
       <c r="B502">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="C502">
@@ -23429,28 +22929,24 @@
         <v>67.647000000000006</v>
       </c>
       <c r="L502">
+        <f t="shared" si="35"/>
+        <v>6.3963000000000036</v>
+      </c>
+      <c r="M502">
         <f t="shared" si="36"/>
-        <v>6.3963000000000036</v>
-      </c>
-      <c r="M502">
+        <v>425.58859999999999</v>
+      </c>
+      <c r="N502">
         <f t="shared" si="37"/>
         <v>425.58859999999999</v>
       </c>
-      <c r="N502">
-        <f t="shared" si="38"/>
-        <v>425.58859999999999</v>
-      </c>
-      <c r="O502">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="503" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>502</v>
       </c>
       <c r="B503">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="C503">
@@ -23472,28 +22968,24 @@
         <v>71.865499999999997</v>
       </c>
       <c r="L503">
+        <f t="shared" si="35"/>
+        <v>6.1813999999999965</v>
+      </c>
+      <c r="M503">
         <f t="shared" si="36"/>
-        <v>6.1813999999999965</v>
-      </c>
-      <c r="M503">
+        <v>331.85020000000003</v>
+      </c>
+      <c r="N503">
         <f t="shared" si="37"/>
         <v>331.85020000000003</v>
       </c>
-      <c r="N503">
-        <f t="shared" si="38"/>
-        <v>331.85020000000003</v>
-      </c>
-      <c r="O503">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="504" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>503</v>
       </c>
       <c r="B504">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="C504">
@@ -23515,28 +23007,24 @@
         <v>77.308800000000005</v>
       </c>
       <c r="L504">
+        <f t="shared" si="35"/>
+        <v>4.9421999999999997</v>
+      </c>
+      <c r="M504">
         <f t="shared" si="36"/>
-        <v>4.9421999999999997</v>
-      </c>
-      <c r="M504">
+        <v>330.02010000000001</v>
+      </c>
+      <c r="N504">
         <f t="shared" si="37"/>
         <v>330.02010000000001</v>
       </c>
-      <c r="N504">
-        <f t="shared" si="38"/>
-        <v>330.02010000000001</v>
-      </c>
-      <c r="O504">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="505" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>504</v>
       </c>
       <c r="B505">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="C505">
@@ -23558,28 +23046,24 @@
         <v>64.447500000000005</v>
       </c>
       <c r="L505">
+        <f t="shared" si="35"/>
+        <v>6.5487000000000037</v>
+      </c>
+      <c r="M505">
         <f t="shared" si="36"/>
-        <v>6.5487000000000037</v>
-      </c>
-      <c r="M505">
+        <v>411.3039</v>
+      </c>
+      <c r="N505">
         <f t="shared" si="37"/>
         <v>411.3039</v>
       </c>
-      <c r="N505">
-        <f t="shared" si="38"/>
-        <v>411.3039</v>
-      </c>
-      <c r="O505">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="506" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>505</v>
       </c>
       <c r="B506">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="C506">
@@ -23601,28 +23085,24 @@
         <v>64.151600000000002</v>
       </c>
       <c r="L506">
+        <f t="shared" si="35"/>
+        <v>12.279499999999999</v>
+      </c>
+      <c r="M506">
         <f t="shared" si="36"/>
-        <v>12.279499999999999</v>
-      </c>
-      <c r="M506">
+        <v>646.07990000000007</v>
+      </c>
+      <c r="N506">
         <f t="shared" si="37"/>
         <v>646.07990000000007</v>
       </c>
-      <c r="N506">
-        <f t="shared" si="38"/>
-        <v>646.07990000000007</v>
-      </c>
-      <c r="O506">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="507" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>506</v>
       </c>
       <c r="B507">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="C507">
@@ -23644,28 +23124,24 @@
         <v>56.107900000000001</v>
       </c>
       <c r="L507">
+        <f t="shared" si="35"/>
+        <v>2.3930000000000007</v>
+      </c>
+      <c r="M507">
         <f t="shared" si="36"/>
-        <v>2.3930000000000007</v>
-      </c>
-      <c r="M507">
+        <v>200.31979999999999</v>
+      </c>
+      <c r="N507">
         <f t="shared" si="37"/>
         <v>200.31979999999999</v>
       </c>
-      <c r="N507">
-        <f t="shared" si="38"/>
-        <v>200.31979999999999</v>
-      </c>
-      <c r="O507">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="508" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="508" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>507</v>
       </c>
       <c r="B508">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="C508">
@@ -23687,28 +23163,24 @@
         <v>61.873100000000001</v>
       </c>
       <c r="L508">
+        <f t="shared" si="35"/>
+        <v>3.8537999999999997</v>
+      </c>
+      <c r="M508">
         <f t="shared" si="36"/>
-        <v>3.8537999999999997</v>
-      </c>
-      <c r="M508">
+        <v>231.1232</v>
+      </c>
+      <c r="N508">
         <f t="shared" si="37"/>
         <v>231.1232</v>
       </c>
-      <c r="N508">
-        <f t="shared" si="38"/>
-        <v>231.1232</v>
-      </c>
-      <c r="O508">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="509" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="509" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>508</v>
       </c>
       <c r="B509">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="C509">
@@ -23730,28 +23202,24 @@
         <v>55.753999999999998</v>
       </c>
       <c r="L509">
+        <f t="shared" si="35"/>
+        <v>3.6051000000000002</v>
+      </c>
+      <c r="M509">
         <f t="shared" si="36"/>
-        <v>3.6051000000000002</v>
-      </c>
-      <c r="M509">
+        <v>256.4033</v>
+      </c>
+      <c r="N509">
         <f t="shared" si="37"/>
         <v>256.4033</v>
       </c>
-      <c r="N509">
-        <f t="shared" si="38"/>
-        <v>256.4033</v>
-      </c>
-      <c r="O509">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="510" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="510" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>509</v>
       </c>
       <c r="B510">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="C510">
@@ -23773,28 +23241,24 @@
         <v>76.942899999999995</v>
       </c>
       <c r="L510">
+        <f t="shared" si="35"/>
+        <v>16.087599999999995</v>
+      </c>
+      <c r="M510">
         <f t="shared" si="36"/>
-        <v>16.087599999999995</v>
-      </c>
-      <c r="M510">
+        <v>998.46890000000008</v>
+      </c>
+      <c r="N510">
         <f t="shared" si="37"/>
         <v>998.46890000000008</v>
       </c>
-      <c r="N510">
-        <f t="shared" si="38"/>
-        <v>998.46890000000008</v>
-      </c>
-      <c r="O510">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="511" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="511" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>510</v>
       </c>
       <c r="B511">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="C511">
@@ -23816,28 +23280,24 @@
         <v>53.165500000000002</v>
       </c>
       <c r="L511">
+        <f t="shared" si="35"/>
+        <v>2.6875</v>
+      </c>
+      <c r="M511">
         <f t="shared" si="36"/>
-        <v>2.6875</v>
-      </c>
-      <c r="M511">
+        <v>206.05500000000001</v>
+      </c>
+      <c r="N511">
         <f t="shared" si="37"/>
         <v>206.05500000000001</v>
       </c>
-      <c r="N511">
-        <f t="shared" si="38"/>
-        <v>206.05500000000001</v>
-      </c>
-      <c r="O511">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="512" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="512" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>511</v>
       </c>
       <c r="B512">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="C512">
@@ -23859,28 +23319,24 @@
         <v>71.9161</v>
       </c>
       <c r="L512">
+        <f t="shared" si="35"/>
+        <v>5.7741999999999933</v>
+      </c>
+      <c r="M512">
         <f t="shared" si="36"/>
-        <v>5.7741999999999933</v>
-      </c>
-      <c r="M512">
+        <v>410.44240000000002</v>
+      </c>
+      <c r="N512">
         <f t="shared" si="37"/>
         <v>410.44240000000002</v>
       </c>
-      <c r="N512">
-        <f t="shared" si="38"/>
-        <v>410.44240000000002</v>
-      </c>
-      <c r="O512">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="513" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="513" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>512</v>
       </c>
       <c r="B513">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="C513">
@@ -23902,28 +23358,24 @@
         <v>63.326599999999999</v>
       </c>
       <c r="L513">
+        <f t="shared" si="35"/>
+        <v>4.1783000000000001</v>
+      </c>
+      <c r="M513">
         <f t="shared" si="36"/>
-        <v>4.1783000000000001</v>
-      </c>
-      <c r="M513">
+        <v>265.07560000000001</v>
+      </c>
+      <c r="N513">
         <f t="shared" si="37"/>
         <v>265.07560000000001</v>
       </c>
-      <c r="N513">
-        <f t="shared" si="38"/>
-        <v>265.07560000000001</v>
-      </c>
-      <c r="O513">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="514" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="514" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>513</v>
       </c>
       <c r="B514">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="C514">
@@ -23945,28 +23397,24 @@
         <v>82.368600000000001</v>
       </c>
       <c r="L514">
+        <f t="shared" si="35"/>
+        <v>1.8663999999999987</v>
+      </c>
+      <c r="M514">
         <f t="shared" si="36"/>
-        <v>1.8663999999999987</v>
-      </c>
-      <c r="M514">
+        <v>199.80940000000001</v>
+      </c>
+      <c r="N514">
         <f t="shared" si="37"/>
         <v>199.80940000000001</v>
       </c>
-      <c r="N514">
-        <f t="shared" si="38"/>
-        <v>199.80940000000001</v>
-      </c>
-      <c r="O514">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="515" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="515" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>514</v>
       </c>
       <c r="B515">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="C515">
@@ -23992,28 +23440,24 @@
         <v>13</v>
       </c>
       <c r="L515">
-        <f t="shared" ref="L515:L578" si="41">H515-F515</f>
+        <f t="shared" ref="L515:L578" si="39">H515-F515</f>
         <v>6.5799999999995862E-2</v>
       </c>
       <c r="M515">
-        <f t="shared" ref="M515:M578" si="42">G515-L515</f>
+        <f t="shared" ref="M515:M578" si="40">G515-L515</f>
         <v>54.779000000000003</v>
       </c>
       <c r="N515">
-        <f t="shared" ref="N515:N535" si="43">G515-J515-L515</f>
+        <f t="shared" ref="N515:N535" si="41">G515-J515-L515</f>
         <v>54.779000000000003</v>
       </c>
-      <c r="O515">
-        <f t="shared" ref="O515:O578" si="44">N515/M515*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="516" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>515</v>
       </c>
       <c r="B516">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="C516">
@@ -24035,28 +23479,24 @@
         <v>73.3245</v>
       </c>
       <c r="L516">
+        <f t="shared" si="39"/>
+        <v>5.1822999999999979</v>
+      </c>
+      <c r="M516">
+        <f t="shared" si="40"/>
+        <v>336.63839999999999</v>
+      </c>
+      <c r="N516">
         <f t="shared" si="41"/>
-        <v>5.1822999999999979</v>
-      </c>
-      <c r="M516">
-        <f t="shared" si="42"/>
         <v>336.63839999999999</v>
       </c>
-      <c r="N516">
-        <f t="shared" si="43"/>
-        <v>336.63839999999999</v>
-      </c>
-      <c r="O516">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="517" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="517" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>516</v>
       </c>
       <c r="B517">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="C517">
@@ -24078,28 +23518,24 @@
         <v>79.283900000000003</v>
       </c>
       <c r="L517">
+        <f t="shared" si="39"/>
+        <v>4.1597000000000008</v>
+      </c>
+      <c r="M517">
+        <f t="shared" si="40"/>
+        <v>376.8021</v>
+      </c>
+      <c r="N517">
         <f t="shared" si="41"/>
-        <v>4.1597000000000008</v>
-      </c>
-      <c r="M517">
-        <f t="shared" si="42"/>
         <v>376.8021</v>
       </c>
-      <c r="N517">
-        <f t="shared" si="43"/>
-        <v>376.8021</v>
-      </c>
-      <c r="O517">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="518" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="518" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>517</v>
       </c>
       <c r="B518">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="C518">
@@ -24121,28 +23557,24 @@
         <v>90.437100000000001</v>
       </c>
       <c r="L518">
+        <f t="shared" si="39"/>
+        <v>9.9968000000000075</v>
+      </c>
+      <c r="M518">
+        <f t="shared" si="40"/>
+        <v>526.0009</v>
+      </c>
+      <c r="N518">
         <f t="shared" si="41"/>
-        <v>9.9968000000000075</v>
-      </c>
-      <c r="M518">
-        <f t="shared" si="42"/>
         <v>526.0009</v>
       </c>
-      <c r="N518">
-        <f t="shared" si="43"/>
-        <v>526.0009</v>
-      </c>
-      <c r="O518">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="519" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="519" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>518</v>
       </c>
       <c r="B519">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="C519">
@@ -24164,28 +23596,24 @@
         <v>76.596900000000005</v>
       </c>
       <c r="L519">
+        <f t="shared" si="39"/>
+        <v>3.4176000000000073</v>
+      </c>
+      <c r="M519">
+        <f t="shared" si="40"/>
+        <v>269.75580000000002</v>
+      </c>
+      <c r="N519">
         <f t="shared" si="41"/>
-        <v>3.4176000000000073</v>
-      </c>
-      <c r="M519">
-        <f t="shared" si="42"/>
         <v>269.75580000000002</v>
       </c>
-      <c r="N519">
-        <f t="shared" si="43"/>
-        <v>269.75580000000002</v>
-      </c>
-      <c r="O519">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="520" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="520" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>519</v>
       </c>
       <c r="B520">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="C520">
@@ -24207,28 +23635,24 @@
         <v>75.951999999999998</v>
       </c>
       <c r="L520">
+        <f t="shared" si="39"/>
+        <v>6.1550000000000011</v>
+      </c>
+      <c r="M520">
+        <f t="shared" si="40"/>
+        <v>360.73479999999995</v>
+      </c>
+      <c r="N520">
         <f t="shared" si="41"/>
-        <v>6.1550000000000011</v>
-      </c>
-      <c r="M520">
-        <f t="shared" si="42"/>
         <v>360.73479999999995</v>
       </c>
-      <c r="N520">
-        <f t="shared" si="43"/>
-        <v>360.73479999999995</v>
-      </c>
-      <c r="O520">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="521" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="521" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>520</v>
       </c>
       <c r="B521">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="C521">
@@ -24250,28 +23674,24 @@
         <v>64.6066</v>
       </c>
       <c r="L521">
+        <f t="shared" si="39"/>
+        <v>7.2914999999999992</v>
+      </c>
+      <c r="M521">
+        <f t="shared" si="40"/>
+        <v>453.10740000000004</v>
+      </c>
+      <c r="N521">
         <f t="shared" si="41"/>
-        <v>7.2914999999999992</v>
-      </c>
-      <c r="M521">
-        <f t="shared" si="42"/>
         <v>453.10740000000004</v>
       </c>
-      <c r="N521">
-        <f t="shared" si="43"/>
-        <v>453.10740000000004</v>
-      </c>
-      <c r="O521">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="522" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="522" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>521</v>
       </c>
       <c r="B522">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="C522">
@@ -24293,28 +23713,24 @@
         <v>66.521000000000001</v>
       </c>
       <c r="L522">
+        <f t="shared" si="39"/>
+        <v>6.9266000000000005</v>
+      </c>
+      <c r="M522">
+        <f t="shared" si="40"/>
+        <v>342.50169999999997</v>
+      </c>
+      <c r="N522">
         <f t="shared" si="41"/>
-        <v>6.9266000000000005</v>
-      </c>
-      <c r="M522">
-        <f t="shared" si="42"/>
         <v>342.50169999999997</v>
       </c>
-      <c r="N522">
-        <f t="shared" si="43"/>
-        <v>342.50169999999997</v>
-      </c>
-      <c r="O522">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="523" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="523" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>522</v>
       </c>
       <c r="B523">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="C523">
@@ -24336,28 +23752,24 @@
         <v>64.409599999999998</v>
       </c>
       <c r="L523">
+        <f t="shared" si="39"/>
+        <v>4.717099999999995</v>
+      </c>
+      <c r="M523">
+        <f t="shared" si="40"/>
+        <v>376.15859999999998</v>
+      </c>
+      <c r="N523">
         <f t="shared" si="41"/>
-        <v>4.717099999999995</v>
-      </c>
-      <c r="M523">
-        <f t="shared" si="42"/>
         <v>376.15859999999998</v>
       </c>
-      <c r="N523">
-        <f t="shared" si="43"/>
-        <v>376.15859999999998</v>
-      </c>
-      <c r="O523">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="524" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="524" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>523</v>
       </c>
       <c r="B524">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="C524">
@@ -24379,28 +23791,24 @@
         <v>65.167199999999994</v>
       </c>
       <c r="L524">
+        <f t="shared" si="39"/>
+        <v>6.6341999999999928</v>
+      </c>
+      <c r="M524">
+        <f t="shared" si="40"/>
+        <v>285.2432</v>
+      </c>
+      <c r="N524">
         <f t="shared" si="41"/>
-        <v>6.6341999999999928</v>
-      </c>
-      <c r="M524">
-        <f t="shared" si="42"/>
         <v>285.2432</v>
       </c>
-      <c r="N524">
-        <f t="shared" si="43"/>
-        <v>285.2432</v>
-      </c>
-      <c r="O524">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="525" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="525" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>524</v>
       </c>
       <c r="B525">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="C525">
@@ -24422,28 +23830,24 @@
         <v>61.549100000000003</v>
       </c>
       <c r="L525">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>4.1949000000000041</v>
       </c>
       <c r="M525">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>243.38310000000001</v>
       </c>
       <c r="N525">
         <f>G525-J525-L525</f>
         <v>243.38310000000001</v>
       </c>
-      <c r="O525">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="526" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="526" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>525</v>
       </c>
       <c r="B526">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="C526">
@@ -24465,28 +23869,24 @@
         <v>72.060199999999995</v>
       </c>
       <c r="L526">
+        <f t="shared" si="39"/>
+        <v>8.8445999999999927</v>
+      </c>
+      <c r="M526">
+        <f t="shared" si="40"/>
+        <v>582.69470000000001</v>
+      </c>
+      <c r="N526">
         <f t="shared" si="41"/>
-        <v>8.8445999999999927</v>
-      </c>
-      <c r="M526">
-        <f t="shared" si="42"/>
         <v>582.69470000000001</v>
       </c>
-      <c r="N526">
-        <f t="shared" si="43"/>
-        <v>582.69470000000001</v>
-      </c>
-      <c r="O526">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="527" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="527" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>526</v>
       </c>
       <c r="B527">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="C527">
@@ -24508,28 +23908,24 @@
         <v>73.977900000000005</v>
       </c>
       <c r="L527">
+        <f t="shared" si="39"/>
+        <v>11.267600000000009</v>
+      </c>
+      <c r="M527">
+        <f t="shared" si="40"/>
+        <v>625.93639999999994</v>
+      </c>
+      <c r="N527">
         <f t="shared" si="41"/>
-        <v>11.267600000000009</v>
-      </c>
-      <c r="M527">
-        <f t="shared" si="42"/>
         <v>625.93639999999994</v>
       </c>
-      <c r="N527">
-        <f t="shared" si="43"/>
-        <v>625.93639999999994</v>
-      </c>
-      <c r="O527">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="528" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="528" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>527</v>
       </c>
       <c r="B528">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="C528">
@@ -24551,28 +23947,24 @@
         <v>53.209499999999998</v>
       </c>
       <c r="L528">
+        <f t="shared" si="39"/>
+        <v>4.8031000000000006</v>
+      </c>
+      <c r="M528">
+        <f t="shared" si="40"/>
+        <v>266.76089999999999</v>
+      </c>
+      <c r="N528">
         <f t="shared" si="41"/>
-        <v>4.8031000000000006</v>
-      </c>
-      <c r="M528">
-        <f t="shared" si="42"/>
         <v>266.76089999999999</v>
       </c>
-      <c r="N528">
-        <f t="shared" si="43"/>
-        <v>266.76089999999999</v>
-      </c>
-      <c r="O528">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="529" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="529" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>528</v>
       </c>
       <c r="B529">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="C529">
@@ -24594,28 +23986,24 @@
         <v>69.993300000000005</v>
       </c>
       <c r="L529">
+        <f t="shared" si="39"/>
+        <v>3.9284999999999997</v>
+      </c>
+      <c r="M529">
+        <f t="shared" si="40"/>
+        <v>285.30990000000003</v>
+      </c>
+      <c r="N529">
         <f t="shared" si="41"/>
-        <v>3.9284999999999997</v>
-      </c>
-      <c r="M529">
-        <f t="shared" si="42"/>
         <v>285.30990000000003</v>
       </c>
-      <c r="N529">
-        <f t="shared" si="43"/>
-        <v>285.30990000000003</v>
-      </c>
-      <c r="O529">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="530" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="530" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>529</v>
       </c>
       <c r="B530">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="C530">
@@ -24637,28 +24025,24 @@
         <v>56.312199999999997</v>
       </c>
       <c r="L530">
+        <f t="shared" si="39"/>
+        <v>4.4196999999999989</v>
+      </c>
+      <c r="M530">
+        <f t="shared" si="40"/>
+        <v>239.9015</v>
+      </c>
+      <c r="N530">
         <f t="shared" si="41"/>
-        <v>4.4196999999999989</v>
-      </c>
-      <c r="M530">
-        <f t="shared" si="42"/>
         <v>239.9015</v>
       </c>
-      <c r="N530">
-        <f t="shared" si="43"/>
-        <v>239.9015</v>
-      </c>
-      <c r="O530">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="531" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="531" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>530</v>
       </c>
       <c r="B531">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="C531">
@@ -24684,28 +24068,24 @@
         <v>21</v>
       </c>
       <c r="L531">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="M531">
+        <f t="shared" si="40"/>
+        <v>182.012</v>
+      </c>
+      <c r="N531">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="M531">
-        <f t="shared" si="42"/>
         <v>182.012</v>
       </c>
-      <c r="N531">
-        <f t="shared" si="43"/>
-        <v>182.012</v>
-      </c>
-      <c r="O531">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="532" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="532" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>531</v>
       </c>
       <c r="B532">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="C532">
@@ -24727,28 +24107,24 @@
         <v>57.447099999999999</v>
       </c>
       <c r="L532">
+        <f t="shared" si="39"/>
+        <v>4.9095999999999975</v>
+      </c>
+      <c r="M532">
+        <f t="shared" si="40"/>
+        <v>354.00110000000001</v>
+      </c>
+      <c r="N532">
         <f t="shared" si="41"/>
-        <v>4.9095999999999975</v>
-      </c>
-      <c r="M532">
-        <f t="shared" si="42"/>
         <v>354.00110000000001</v>
       </c>
-      <c r="N532">
-        <f t="shared" si="43"/>
-        <v>354.00110000000001</v>
-      </c>
-      <c r="O532">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="533" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="533" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>532</v>
       </c>
       <c r="B533">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="C533">
@@ -24770,28 +24146,24 @@
         <v>65.195099999999996</v>
       </c>
       <c r="L533">
+        <f t="shared" si="39"/>
+        <v>6.5597999999999956</v>
+      </c>
+      <c r="M533">
+        <f t="shared" si="40"/>
+        <v>386.03489999999999</v>
+      </c>
+      <c r="N533">
         <f t="shared" si="41"/>
-        <v>6.5597999999999956</v>
-      </c>
-      <c r="M533">
-        <f t="shared" si="42"/>
         <v>386.03489999999999</v>
       </c>
-      <c r="N533">
-        <f t="shared" si="43"/>
-        <v>386.03489999999999</v>
-      </c>
-      <c r="O533">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="534" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="534" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>533</v>
       </c>
       <c r="B534">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="C534">
@@ -24813,28 +24185,24 @@
         <v>53.970100000000002</v>
       </c>
       <c r="L534">
+        <f t="shared" si="39"/>
+        <v>3.1373999999999995</v>
+      </c>
+      <c r="M534">
+        <f t="shared" si="40"/>
+        <v>195.16699999999997</v>
+      </c>
+      <c r="N534">
         <f t="shared" si="41"/>
-        <v>3.1373999999999995</v>
-      </c>
-      <c r="M534">
-        <f t="shared" si="42"/>
         <v>195.16699999999997</v>
       </c>
-      <c r="N534">
-        <f t="shared" si="43"/>
-        <v>195.16699999999997</v>
-      </c>
-      <c r="O534">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="535" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="535" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>534</v>
       </c>
       <c r="B535">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="C535">
@@ -24856,28 +24224,24 @@
         <v>71.361099999999993</v>
       </c>
       <c r="L535">
+        <f t="shared" si="39"/>
+        <v>6.0505999999999887</v>
+      </c>
+      <c r="M535">
+        <f t="shared" si="40"/>
+        <v>372.2405</v>
+      </c>
+      <c r="N535">
         <f t="shared" si="41"/>
-        <v>6.0505999999999887</v>
-      </c>
-      <c r="M535">
-        <f t="shared" si="42"/>
         <v>372.2405</v>
       </c>
-      <c r="N535">
-        <f t="shared" si="43"/>
-        <v>372.2405</v>
-      </c>
-      <c r="O535">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="536" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="536" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>535</v>
       </c>
       <c r="B536">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="C536">
@@ -24899,28 +24263,24 @@
         <v>52.423299999999998</v>
       </c>
       <c r="L536">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>3.1808999999999941</v>
       </c>
       <c r="M536">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>188.7869</v>
       </c>
       <c r="N536">
-        <f t="shared" ref="N515:N578" si="45">G536-J536-L536</f>
+        <f t="shared" ref="N536:N578" si="42">G536-J536-L536</f>
         <v>188.7869</v>
       </c>
-      <c r="O536">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="537" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="537" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>536</v>
       </c>
       <c r="B537">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="C537">
@@ -24942,28 +24302,24 @@
         <v>71.997500000000002</v>
       </c>
       <c r="L537">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>10.023700000000005</v>
       </c>
       <c r="M537">
+        <f t="shared" si="40"/>
+        <v>727.63420000000008</v>
+      </c>
+      <c r="N537">
         <f t="shared" si="42"/>
         <v>727.63420000000008</v>
       </c>
-      <c r="N537">
-        <f t="shared" si="45"/>
-        <v>727.63420000000008</v>
-      </c>
-      <c r="O537">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="538" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="538" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>537</v>
       </c>
       <c r="B538">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="C538">
@@ -24989,28 +24345,24 @@
         <v>13</v>
       </c>
       <c r="L538">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>0.30420000000000158</v>
       </c>
       <c r="M538">
+        <f t="shared" si="40"/>
+        <v>57.5976</v>
+      </c>
+      <c r="N538">
         <f t="shared" si="42"/>
         <v>57.5976</v>
       </c>
-      <c r="N538">
-        <f t="shared" si="45"/>
-        <v>57.5976</v>
-      </c>
-      <c r="O538">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="539" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="539" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>538</v>
       </c>
       <c r="B539">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="C539">
@@ -25032,28 +24384,24 @@
         <v>70.830699999999993</v>
       </c>
       <c r="L539">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>9.6613999999999933</v>
       </c>
       <c r="M539">
+        <f t="shared" si="40"/>
+        <v>598.59469999999999</v>
+      </c>
+      <c r="N539">
         <f t="shared" si="42"/>
         <v>598.59469999999999</v>
       </c>
-      <c r="N539">
-        <f t="shared" si="45"/>
-        <v>598.59469999999999</v>
-      </c>
-      <c r="O539">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="540" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="540" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>539</v>
       </c>
       <c r="B540">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="C540">
@@ -25075,28 +24423,24 @@
         <v>70.320400000000006</v>
       </c>
       <c r="L540">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>1.8365000000000009</v>
       </c>
       <c r="M540">
+        <f t="shared" si="40"/>
+        <v>195.23580000000001</v>
+      </c>
+      <c r="N540">
         <f t="shared" si="42"/>
         <v>195.23580000000001</v>
       </c>
-      <c r="N540">
-        <f t="shared" si="45"/>
-        <v>195.23580000000001</v>
-      </c>
-      <c r="O540">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="541" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="541" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>540</v>
       </c>
       <c r="B541">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>12</v>
       </c>
       <c r="C541">
@@ -25118,28 +24462,24 @@
         <v>76.1477</v>
       </c>
       <c r="L541">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>13.773600000000002</v>
       </c>
       <c r="M541">
+        <f t="shared" si="40"/>
+        <v>700.20320000000004</v>
+      </c>
+      <c r="N541">
         <f t="shared" si="42"/>
         <v>700.20320000000004</v>
       </c>
-      <c r="N541">
-        <f t="shared" si="45"/>
-        <v>700.20320000000004</v>
-      </c>
-      <c r="O541">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="542" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="542" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>541</v>
       </c>
       <c r="B542">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>12</v>
       </c>
       <c r="C542">
@@ -25165,28 +24505,24 @@
         <v>13</v>
       </c>
       <c r="L542">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>2.3099999999999454E-2</v>
       </c>
       <c r="M542">
+        <f t="shared" si="40"/>
+        <v>57.939700000000002</v>
+      </c>
+      <c r="N542">
         <f t="shared" si="42"/>
         <v>57.939700000000002</v>
       </c>
-      <c r="N542">
-        <f t="shared" si="45"/>
-        <v>57.939700000000002</v>
-      </c>
-      <c r="O542">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="543" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="543" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>542</v>
       </c>
       <c r="B543">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>12</v>
       </c>
       <c r="C543">
@@ -25208,28 +24544,24 @@
         <v>65.548900000000003</v>
       </c>
       <c r="L543">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>3.064700000000002</v>
       </c>
       <c r="M543">
+        <f t="shared" si="40"/>
+        <v>225.73539999999997</v>
+      </c>
+      <c r="N543">
         <f t="shared" si="42"/>
         <v>225.73539999999997</v>
       </c>
-      <c r="N543">
-        <f t="shared" si="45"/>
-        <v>225.73539999999997</v>
-      </c>
-      <c r="O543">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="544" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="544" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>543</v>
       </c>
       <c r="B544">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>12</v>
       </c>
       <c r="C544">
@@ -25251,28 +24583,24 @@
         <v>57.593899999999998</v>
       </c>
       <c r="L544">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>2.0202999999999989</v>
       </c>
       <c r="M544">
+        <f t="shared" si="40"/>
+        <v>166.16720000000001</v>
+      </c>
+      <c r="N544">
         <f t="shared" si="42"/>
         <v>166.16720000000001</v>
       </c>
-      <c r="N544">
-        <f t="shared" si="45"/>
-        <v>166.16720000000001</v>
-      </c>
-      <c r="O544">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="545" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="545" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>544</v>
       </c>
       <c r="B545">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>12</v>
       </c>
       <c r="C545">
@@ -25294,28 +24622,24 @@
         <v>60.003</v>
       </c>
       <c r="L545">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>3.7475000000000023</v>
       </c>
       <c r="M545">
+        <f t="shared" si="40"/>
+        <v>239.95509999999999</v>
+      </c>
+      <c r="N545">
         <f t="shared" si="42"/>
         <v>239.95509999999999</v>
       </c>
-      <c r="N545">
-        <f t="shared" si="45"/>
-        <v>239.95509999999999</v>
-      </c>
-      <c r="O545">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="546" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="546" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>545</v>
       </c>
       <c r="B546">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>12</v>
       </c>
       <c r="C546">
@@ -25337,28 +24661,24 @@
         <v>73.049599999999998</v>
       </c>
       <c r="L546">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>1.7288999999999959</v>
       </c>
       <c r="M546">
+        <f t="shared" si="40"/>
+        <v>203.08949999999999</v>
+      </c>
+      <c r="N546">
         <f t="shared" si="42"/>
         <v>203.08949999999999</v>
       </c>
-      <c r="N546">
-        <f t="shared" si="45"/>
-        <v>203.08949999999999</v>
-      </c>
-      <c r="O546">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="547" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="547" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>546</v>
       </c>
       <c r="B547">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>12</v>
       </c>
       <c r="C547">
@@ -25380,28 +24700,24 @@
         <v>63.540100000000002</v>
       </c>
       <c r="L547">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>6.4639000000000024</v>
       </c>
       <c r="M547">
+        <f t="shared" si="40"/>
+        <v>440.56489999999997</v>
+      </c>
+      <c r="N547">
         <f t="shared" si="42"/>
         <v>440.56489999999997</v>
       </c>
-      <c r="N547">
-        <f t="shared" si="45"/>
-        <v>440.56489999999997</v>
-      </c>
-      <c r="O547">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="548" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="548" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>547</v>
       </c>
       <c r="B548">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>12</v>
       </c>
       <c r="C548">
@@ -25423,28 +24739,24 @@
         <v>53.264200000000002</v>
       </c>
       <c r="L548">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>2.8185000000000002</v>
       </c>
       <c r="M548">
+        <f t="shared" si="40"/>
+        <v>212.76310000000001</v>
+      </c>
+      <c r="N548">
         <f t="shared" si="42"/>
         <v>212.76310000000001</v>
       </c>
-      <c r="N548">
-        <f t="shared" si="45"/>
-        <v>212.76310000000001</v>
-      </c>
-      <c r="O548">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="549" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="549" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>548</v>
       </c>
       <c r="B549">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>12</v>
       </c>
       <c r="C549">
@@ -25466,28 +24778,24 @@
         <v>68.781899999999993</v>
       </c>
       <c r="L549">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>7.5428999999999959</v>
       </c>
       <c r="M549">
+        <f t="shared" si="40"/>
+        <v>415.83140000000003</v>
+      </c>
+      <c r="N549">
         <f t="shared" si="42"/>
         <v>415.83140000000003</v>
       </c>
-      <c r="N549">
-        <f t="shared" si="45"/>
-        <v>415.83140000000003</v>
-      </c>
-      <c r="O549">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="550" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="550" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>549</v>
       </c>
       <c r="B550">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>12</v>
       </c>
       <c r="C550">
@@ -25509,28 +24817,24 @@
         <v>69.161299999999997</v>
       </c>
       <c r="L550">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>5.4849999999999994</v>
       </c>
       <c r="M550">
+        <f t="shared" si="40"/>
+        <v>408.08510000000001</v>
+      </c>
+      <c r="N550">
         <f t="shared" si="42"/>
         <v>408.08510000000001</v>
       </c>
-      <c r="N550">
-        <f t="shared" si="45"/>
-        <v>408.08510000000001</v>
-      </c>
-      <c r="O550">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="551" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="551" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>550</v>
       </c>
       <c r="B551">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>12</v>
       </c>
       <c r="C551">
@@ -25552,28 +24856,24 @@
         <v>66.957400000000007</v>
       </c>
       <c r="L551">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>5.4697000000000102</v>
       </c>
       <c r="M551">
+        <f t="shared" si="40"/>
+        <v>310.95519999999999</v>
+      </c>
+      <c r="N551">
         <f t="shared" si="42"/>
         <v>310.95519999999999</v>
       </c>
-      <c r="N551">
-        <f t="shared" si="45"/>
-        <v>310.95519999999999</v>
-      </c>
-      <c r="O551">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="552" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="552" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>551</v>
       </c>
       <c r="B552">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>12</v>
       </c>
       <c r="C552">
@@ -25595,28 +24895,24 @@
         <v>58.8093</v>
       </c>
       <c r="L552">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>2.6957999999999984</v>
       </c>
       <c r="M552">
+        <f t="shared" si="40"/>
+        <v>197.80970000000002</v>
+      </c>
+      <c r="N552">
         <f t="shared" si="42"/>
         <v>197.80970000000002</v>
       </c>
-      <c r="N552">
-        <f t="shared" si="45"/>
-        <v>197.80970000000002</v>
-      </c>
-      <c r="O552">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="553" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="553" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>552</v>
       </c>
       <c r="B553">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>12</v>
       </c>
       <c r="C553">
@@ -25638,28 +24934,24 @@
         <v>69.497100000000003</v>
       </c>
       <c r="L553">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>6.9487000000000023</v>
       </c>
       <c r="M553">
+        <f t="shared" si="40"/>
+        <v>440.30610000000001</v>
+      </c>
+      <c r="N553">
         <f t="shared" si="42"/>
         <v>440.30610000000001</v>
       </c>
-      <c r="N553">
-        <f t="shared" si="45"/>
-        <v>440.30610000000001</v>
-      </c>
-      <c r="O553">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="554" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="554" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>553</v>
       </c>
       <c r="B554">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>12</v>
       </c>
       <c r="C554">
@@ -25681,28 +24973,24 @@
         <v>64.678899999999999</v>
       </c>
       <c r="L554">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>10.053599999999996</v>
       </c>
       <c r="M554">
+        <f t="shared" si="40"/>
+        <v>635.12440000000004</v>
+      </c>
+      <c r="N554">
         <f t="shared" si="42"/>
         <v>635.12440000000004</v>
       </c>
-      <c r="N554">
-        <f t="shared" si="45"/>
-        <v>635.12440000000004</v>
-      </c>
-      <c r="O554">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="555" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="555" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>554</v>
       </c>
       <c r="B555">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>12</v>
       </c>
       <c r="C555">
@@ -25724,28 +25012,24 @@
         <v>84.569900000000004</v>
       </c>
       <c r="L555">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>6.9031999999999982</v>
       </c>
       <c r="M555">
+        <f t="shared" si="40"/>
+        <v>378.16179999999997</v>
+      </c>
+      <c r="N555">
         <f t="shared" si="42"/>
         <v>378.16179999999997</v>
       </c>
-      <c r="N555">
-        <f t="shared" si="45"/>
-        <v>378.16179999999997</v>
-      </c>
-      <c r="O555">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="556" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="556" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>555</v>
       </c>
       <c r="B556">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>12</v>
       </c>
       <c r="C556">
@@ -25767,28 +25051,24 @@
         <v>59.616300000000003</v>
       </c>
       <c r="L556">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>2.6229000000000013</v>
       </c>
       <c r="M556">
+        <f t="shared" si="40"/>
+        <v>183.1773</v>
+      </c>
+      <c r="N556">
         <f t="shared" si="42"/>
         <v>183.1773</v>
       </c>
-      <c r="N556">
-        <f t="shared" si="45"/>
-        <v>183.1773</v>
-      </c>
-      <c r="O556">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="557" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="557" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>556</v>
       </c>
       <c r="B557">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>12</v>
       </c>
       <c r="C557">
@@ -25810,28 +25090,24 @@
         <v>70.125500000000002</v>
       </c>
       <c r="L557">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>4.1364999999999981</v>
       </c>
       <c r="M557">
+        <f t="shared" si="40"/>
+        <v>356.68770000000001</v>
+      </c>
+      <c r="N557">
         <f t="shared" si="42"/>
         <v>356.68770000000001</v>
       </c>
-      <c r="N557">
-        <f t="shared" si="45"/>
-        <v>356.68770000000001</v>
-      </c>
-      <c r="O557">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="558" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="558" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>557</v>
       </c>
       <c r="B558">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>12</v>
       </c>
       <c r="C558">
@@ -25853,28 +25129,24 @@
         <v>64.877099999999999</v>
       </c>
       <c r="L558">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>2.1665999999999954</v>
       </c>
       <c r="M558">
+        <f t="shared" si="40"/>
+        <v>173.50670000000002</v>
+      </c>
+      <c r="N558">
         <f t="shared" si="42"/>
         <v>173.50670000000002</v>
       </c>
-      <c r="N558">
-        <f t="shared" si="45"/>
-        <v>173.50670000000002</v>
-      </c>
-      <c r="O558">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="559" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="559" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>558</v>
       </c>
       <c r="B559">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>12</v>
       </c>
       <c r="C559">
@@ -25896,28 +25168,24 @@
         <v>92.298900000000003</v>
       </c>
       <c r="L559">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>22.640100000000004</v>
       </c>
       <c r="M559">
+        <f t="shared" si="40"/>
+        <v>1134.4091999999998</v>
+      </c>
+      <c r="N559">
         <f t="shared" si="42"/>
         <v>1134.4091999999998</v>
       </c>
-      <c r="N559">
-        <f t="shared" si="45"/>
-        <v>1134.4091999999998</v>
-      </c>
-      <c r="O559">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="560" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="560" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>559</v>
       </c>
       <c r="B560">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>12</v>
       </c>
       <c r="C560">
@@ -25939,28 +25207,24 @@
         <v>67.415000000000006</v>
       </c>
       <c r="L560">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>3.686000000000007</v>
       </c>
       <c r="M560">
+        <f t="shared" si="40"/>
+        <v>241.2176</v>
+      </c>
+      <c r="N560">
         <f t="shared" si="42"/>
         <v>241.2176</v>
       </c>
-      <c r="N560">
-        <f t="shared" si="45"/>
-        <v>241.2176</v>
-      </c>
-      <c r="O560">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="561" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="561" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>560</v>
       </c>
       <c r="B561">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>12</v>
       </c>
       <c r="C561">
@@ -25982,28 +25246,24 @@
         <v>62.3827</v>
       </c>
       <c r="L561">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>3.4243000000000023</v>
       </c>
       <c r="M561">
+        <f t="shared" si="40"/>
+        <v>294.56489999999997</v>
+      </c>
+      <c r="N561">
         <f t="shared" si="42"/>
         <v>294.56489999999997</v>
       </c>
-      <c r="N561">
-        <f t="shared" si="45"/>
-        <v>294.56489999999997</v>
-      </c>
-      <c r="O561">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="562" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="562" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>561</v>
       </c>
       <c r="B562">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>12</v>
       </c>
       <c r="C562">
@@ -26029,28 +25289,24 @@
         <v>13</v>
       </c>
       <c r="L562">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>-1.3999999999995794E-2</v>
       </c>
       <c r="M562">
+        <f t="shared" si="40"/>
+        <v>45.885599999999997</v>
+      </c>
+      <c r="N562">
         <f t="shared" si="42"/>
         <v>45.885599999999997</v>
       </c>
-      <c r="N562">
-        <f t="shared" si="45"/>
-        <v>45.885599999999997</v>
-      </c>
-      <c r="O562">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="563" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="563" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>562</v>
       </c>
       <c r="B563">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>12</v>
       </c>
       <c r="C563">
@@ -26072,28 +25328,24 @@
         <v>59.487200000000001</v>
       </c>
       <c r="L563">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>6.556200000000004</v>
       </c>
       <c r="M563">
+        <f t="shared" si="40"/>
+        <v>378.70820000000003</v>
+      </c>
+      <c r="N563">
         <f t="shared" si="42"/>
         <v>378.70820000000003</v>
       </c>
-      <c r="N563">
-        <f t="shared" si="45"/>
-        <v>378.70820000000003</v>
-      </c>
-      <c r="O563">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="564" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="564" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>563</v>
       </c>
       <c r="B564">
-        <f t="shared" ref="B564:B589" si="46">B515+1</f>
+        <f t="shared" ref="B564:B589" si="43">B515+1</f>
         <v>12</v>
       </c>
       <c r="C564">
@@ -26115,28 +25367,24 @@
         <v>63.341900000000003</v>
       </c>
       <c r="L564">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>8.9618000000000038</v>
       </c>
       <c r="M564">
+        <f t="shared" si="40"/>
+        <v>498.65720000000005</v>
+      </c>
+      <c r="N564">
         <f t="shared" si="42"/>
         <v>498.65720000000005</v>
       </c>
-      <c r="N564">
-        <f t="shared" si="45"/>
-        <v>498.65720000000005</v>
-      </c>
-      <c r="O564">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="565" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="565" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>564</v>
       </c>
       <c r="B565">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>12</v>
       </c>
       <c r="C565">
@@ -26162,28 +25410,24 @@
         <v>13</v>
       </c>
       <c r="L565">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>4.6999999999997044E-2</v>
       </c>
       <c r="M565">
+        <f t="shared" si="40"/>
+        <v>73.227699999999999</v>
+      </c>
+      <c r="N565">
         <f t="shared" si="42"/>
         <v>73.227699999999999</v>
       </c>
-      <c r="N565">
-        <f t="shared" si="45"/>
-        <v>73.227699999999999</v>
-      </c>
-      <c r="O565">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="566" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="566" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>565</v>
       </c>
       <c r="B566">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>12</v>
       </c>
       <c r="C566">
@@ -26205,28 +25449,24 @@
         <v>62.934199999999997</v>
       </c>
       <c r="L566">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>2.0980999999999952</v>
       </c>
       <c r="M566">
+        <f t="shared" si="40"/>
+        <v>220.53410000000002</v>
+      </c>
+      <c r="N566">
         <f t="shared" si="42"/>
         <v>220.53410000000002</v>
       </c>
-      <c r="N566">
-        <f t="shared" si="45"/>
-        <v>220.53410000000002</v>
-      </c>
-      <c r="O566">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="567" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="567" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>566</v>
       </c>
       <c r="B567">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>12</v>
       </c>
       <c r="C567">
@@ -26252,28 +25492,24 @@
         <v>13</v>
       </c>
       <c r="L567">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>-2.2400000000004638E-2</v>
       </c>
       <c r="M567">
+        <f t="shared" si="40"/>
+        <v>54.395800000000001</v>
+      </c>
+      <c r="N567">
         <f t="shared" si="42"/>
         <v>54.395800000000001</v>
       </c>
-      <c r="N567">
-        <f t="shared" si="45"/>
-        <v>54.395800000000001</v>
-      </c>
-      <c r="O567">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="568" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="568" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>567</v>
       </c>
       <c r="B568">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>12</v>
       </c>
       <c r="C568">
@@ -26295,28 +25531,24 @@
         <v>69.092500000000001</v>
       </c>
       <c r="L568">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>10.721000000000004</v>
       </c>
       <c r="M568">
+        <f t="shared" si="40"/>
+        <v>617.20050000000003</v>
+      </c>
+      <c r="N568">
         <f t="shared" si="42"/>
         <v>617.20050000000003</v>
       </c>
-      <c r="N568">
-        <f t="shared" si="45"/>
-        <v>617.20050000000003</v>
-      </c>
-      <c r="O568">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="569" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="569" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>568</v>
       </c>
       <c r="B569">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>12</v>
       </c>
       <c r="C569">
@@ -26338,28 +25570,24 @@
         <v>90.882400000000004</v>
       </c>
       <c r="L569">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>10.294700000000006</v>
       </c>
       <c r="M569">
+        <f t="shared" si="40"/>
+        <v>540.10730000000001</v>
+      </c>
+      <c r="N569">
         <f t="shared" si="42"/>
         <v>540.10730000000001</v>
       </c>
-      <c r="N569">
-        <f t="shared" si="45"/>
-        <v>540.10730000000001</v>
-      </c>
-      <c r="O569">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="570" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="570" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>569</v>
       </c>
       <c r="B570">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>12</v>
       </c>
       <c r="C570">
@@ -26381,28 +25609,24 @@
         <v>50.308300000000003</v>
       </c>
       <c r="L570">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>2.5200000000000031</v>
       </c>
       <c r="M570">
+        <f t="shared" si="40"/>
+        <v>155.84949999999998</v>
+      </c>
+      <c r="N570">
         <f t="shared" si="42"/>
         <v>155.84949999999998</v>
       </c>
-      <c r="N570">
-        <f t="shared" si="45"/>
-        <v>155.84949999999998</v>
-      </c>
-      <c r="O570">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="571" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="571" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>570</v>
       </c>
       <c r="B571">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>12</v>
       </c>
       <c r="C571">
@@ -26428,28 +25652,24 @@
         <v>13</v>
       </c>
       <c r="L571">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>-4.7600000000002751E-2</v>
       </c>
       <c r="M571">
+        <f t="shared" si="40"/>
+        <v>55.519100000000002</v>
+      </c>
+      <c r="N571">
         <f t="shared" si="42"/>
         <v>55.519100000000002</v>
       </c>
-      <c r="N571">
-        <f t="shared" si="45"/>
-        <v>55.519100000000002</v>
-      </c>
-      <c r="O571">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="572" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="572" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>571</v>
       </c>
       <c r="B572">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>12</v>
       </c>
       <c r="C572">
@@ -26471,28 +25691,24 @@
         <v>77.959199999999996</v>
       </c>
       <c r="L572">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>10.5946</v>
       </c>
       <c r="M572">
+        <f t="shared" si="40"/>
+        <v>482.3519</v>
+      </c>
+      <c r="N572">
         <f t="shared" si="42"/>
         <v>482.3519</v>
       </c>
-      <c r="N572">
-        <f t="shared" si="45"/>
-        <v>482.3519</v>
-      </c>
-      <c r="O572">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="573" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="573" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>572</v>
       </c>
       <c r="B573">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>12</v>
       </c>
       <c r="C573">
@@ -26514,28 +25730,24 @@
         <v>84.165999999999997</v>
       </c>
       <c r="L573">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>16.637500000000003</v>
       </c>
       <c r="M573">
+        <f t="shared" si="40"/>
+        <v>930.17499999999995</v>
+      </c>
+      <c r="N573">
         <f t="shared" si="42"/>
         <v>930.17499999999995</v>
       </c>
-      <c r="N573">
-        <f t="shared" si="45"/>
-        <v>930.17499999999995</v>
-      </c>
-      <c r="O573">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="574" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="574" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>573</v>
       </c>
       <c r="B574">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>12</v>
       </c>
       <c r="C574">
@@ -26557,28 +25769,24 @@
         <v>71.300200000000004</v>
       </c>
       <c r="L574">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>4.7147000000000077</v>
       </c>
       <c r="M574">
+        <f t="shared" si="40"/>
+        <v>273.84140000000002</v>
+      </c>
+      <c r="N574">
         <f t="shared" si="42"/>
         <v>273.84140000000002</v>
       </c>
-      <c r="N574">
-        <f t="shared" si="45"/>
-        <v>273.84140000000002</v>
-      </c>
-      <c r="O574">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="575" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="575" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>574</v>
       </c>
       <c r="B575">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>12</v>
       </c>
       <c r="C575">
@@ -26600,28 +25808,24 @@
         <v>72.791399999999996</v>
       </c>
       <c r="L575">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>4.2717999999999989</v>
       </c>
       <c r="M575">
+        <f t="shared" si="40"/>
+        <v>295.88210000000004</v>
+      </c>
+      <c r="N575">
         <f t="shared" si="42"/>
         <v>295.88210000000004</v>
       </c>
-      <c r="N575">
-        <f t="shared" si="45"/>
-        <v>295.88210000000004</v>
-      </c>
-      <c r="O575">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="576" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="576" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>575</v>
       </c>
       <c r="B576">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>12</v>
       </c>
       <c r="C576">
@@ -26643,28 +25847,24 @@
         <v>69.661699999999996</v>
       </c>
       <c r="L576">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>6.0626999999999995</v>
       </c>
       <c r="M576">
+        <f t="shared" si="40"/>
+        <v>341.51369999999997</v>
+      </c>
+      <c r="N576">
         <f t="shared" si="42"/>
         <v>341.51369999999997</v>
       </c>
-      <c r="N576">
-        <f t="shared" si="45"/>
-        <v>341.51369999999997</v>
-      </c>
-      <c r="O576">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="577" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="577" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>576</v>
       </c>
       <c r="B577">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>12</v>
       </c>
       <c r="C577">
@@ -26686,28 +25886,24 @@
         <v>68.078599999999994</v>
       </c>
       <c r="L577">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>8.780699999999996</v>
       </c>
       <c r="M577">
+        <f t="shared" si="40"/>
+        <v>551.6671</v>
+      </c>
+      <c r="N577">
         <f t="shared" si="42"/>
         <v>551.6671</v>
       </c>
-      <c r="N577">
-        <f t="shared" si="45"/>
-        <v>551.6671</v>
-      </c>
-      <c r="O577">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="578" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="578" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>577</v>
       </c>
       <c r="B578">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>12</v>
       </c>
       <c r="C578">
@@ -26733,28 +25929,24 @@
         <v>13</v>
       </c>
       <c r="L578">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>-1.470000000000482E-2</v>
       </c>
       <c r="M578">
+        <f t="shared" si="40"/>
+        <v>62.584000000000003</v>
+      </c>
+      <c r="N578">
         <f t="shared" si="42"/>
         <v>62.584000000000003</v>
       </c>
-      <c r="N578">
-        <f t="shared" si="45"/>
-        <v>62.584000000000003</v>
-      </c>
-      <c r="O578">
-        <f t="shared" si="44"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="579" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="579" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>578</v>
       </c>
       <c r="B579">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>12</v>
       </c>
       <c r="C579">
@@ -26776,28 +25968,24 @@
         <v>72.465500000000006</v>
       </c>
       <c r="L579">
-        <f t="shared" ref="L579:L633" si="47">H579-F579</f>
+        <f t="shared" ref="L579:L633" si="44">H579-F579</f>
         <v>1.962299999999999</v>
       </c>
       <c r="M579">
-        <f t="shared" ref="M579:M633" si="48">G579-L579</f>
+        <f t="shared" ref="M579:M633" si="45">G579-L579</f>
         <v>201.7878</v>
       </c>
       <c r="N579">
-        <f t="shared" ref="N579:N633" si="49">G579-J579-L579</f>
+        <f t="shared" ref="N579:N633" si="46">G579-J579-L579</f>
         <v>201.7878</v>
       </c>
-      <c r="O579">
-        <f t="shared" ref="O579:O633" si="50">N579/M579*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="580" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="580" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>579</v>
       </c>
       <c r="B580">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>12</v>
       </c>
       <c r="C580">
@@ -26819,28 +26007,24 @@
         <v>60.330800000000004</v>
       </c>
       <c r="L580">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>5.9766000000000048</v>
       </c>
       <c r="M580">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>359.08879999999999</v>
       </c>
       <c r="N580">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>359.08879999999999</v>
       </c>
-      <c r="O580">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="581" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="581" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>580</v>
       </c>
       <c r="B581">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>12</v>
       </c>
       <c r="C581">
@@ -26862,28 +26046,24 @@
         <v>53.525700000000001</v>
       </c>
       <c r="L581">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>2.0078999999999994</v>
       </c>
       <c r="M581">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>164.90430000000001</v>
       </c>
       <c r="N581">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>164.90430000000001</v>
       </c>
-      <c r="O581">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="582" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="582" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>581</v>
       </c>
       <c r="B582">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>12</v>
       </c>
       <c r="C582">
@@ -26905,28 +26085,24 @@
         <v>86.395700000000005</v>
       </c>
       <c r="L582">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>11.377600000000001</v>
       </c>
       <c r="M582">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>794.14879999999994</v>
       </c>
       <c r="N582">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>794.14879999999994</v>
       </c>
-      <c r="O582">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="583" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="583" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>582</v>
       </c>
       <c r="B583">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>12</v>
       </c>
       <c r="C583">
@@ -26948,28 +26124,24 @@
         <v>59.221899999999998</v>
       </c>
       <c r="L583">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>5.0152000000000001</v>
       </c>
       <c r="M583">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>301.35910000000001</v>
       </c>
       <c r="N583">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>301.35910000000001</v>
       </c>
-      <c r="O583">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="584" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="584" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>583</v>
       </c>
       <c r="B584">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>12</v>
       </c>
       <c r="C584">
@@ -26991,28 +26163,24 @@
         <v>67.648499999999999</v>
       </c>
       <c r="L584">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>3.2578000000000031</v>
       </c>
       <c r="M584">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>220.69409999999999</v>
       </c>
       <c r="N584">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>220.69409999999999</v>
       </c>
-      <c r="O584">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="585" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="585" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>584</v>
       </c>
       <c r="B585">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>12</v>
       </c>
       <c r="C585">
@@ -27034,28 +26202,24 @@
         <v>69.564499999999995</v>
       </c>
       <c r="L585">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>3.4424999999999955</v>
       </c>
       <c r="M585">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>262.0813</v>
       </c>
       <c r="N585">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>262.0813</v>
       </c>
-      <c r="O585">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="586" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="586" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>585</v>
       </c>
       <c r="B586">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>12</v>
       </c>
       <c r="C586">
@@ -27077,28 +26241,24 @@
         <v>80.319599999999994</v>
       </c>
       <c r="L586">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>10.213499999999996</v>
       </c>
       <c r="M586">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>540.79240000000004</v>
       </c>
       <c r="N586">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>540.79240000000004</v>
       </c>
-      <c r="O586">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="587" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="587" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>586</v>
       </c>
       <c r="B587">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>12</v>
       </c>
       <c r="C587">
@@ -27120,28 +26280,24 @@
         <v>81.816400000000002</v>
       </c>
       <c r="L587">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>6.1316000000000059</v>
       </c>
       <c r="M587">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>402.62549999999999</v>
       </c>
       <c r="N587">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>402.62549999999999</v>
       </c>
-      <c r="O587">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="588" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="588" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>587</v>
       </c>
       <c r="B588">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>12</v>
       </c>
       <c r="C588">
@@ -27163,28 +26319,24 @@
         <v>70.1738</v>
       </c>
       <c r="L588">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>7.6696000000000026</v>
       </c>
       <c r="M588">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>582.46489999999994</v>
       </c>
       <c r="N588">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>582.46489999999994</v>
       </c>
-      <c r="O588">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="589" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="589" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>588</v>
       </c>
       <c r="B589">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>12</v>
       </c>
       <c r="C589">
@@ -27206,23 +26358,19 @@
         <v>74.5261</v>
       </c>
       <c r="L589">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>1.765500000000003</v>
       </c>
       <c r="M589">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>207.28049999999999</v>
       </c>
       <c r="N589">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>207.28049999999999</v>
       </c>
-      <c r="O589">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="590" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="590" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>2004</v>
       </c>
@@ -27248,23 +26396,19 @@
         <v>141.62450000000001</v>
       </c>
       <c r="L590">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>2.6059000000000196</v>
       </c>
       <c r="M590">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>255.577</v>
       </c>
       <c r="N590">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>255.577</v>
       </c>
-      <c r="O590">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="591" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="591" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>2006</v>
       </c>
@@ -27290,23 +26434,19 @@
         <v>137.88040000000001</v>
       </c>
       <c r="L591">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>2.3158999999999992</v>
       </c>
       <c r="M591">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>262.67630000000003</v>
       </c>
       <c r="N591">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>262.67630000000003</v>
       </c>
-      <c r="O591">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="592" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="592" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>2008</v>
       </c>
@@ -27332,23 +26472,19 @@
         <v>130.6728</v>
       </c>
       <c r="L592">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>1.7077999999999918</v>
       </c>
       <c r="M592">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>240.07590000000002</v>
       </c>
       <c r="N592">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>240.07590000000002</v>
       </c>
-      <c r="O592">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="593" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="593" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>2011</v>
       </c>
@@ -27374,23 +26510,19 @@
         <v>125.0694</v>
       </c>
       <c r="L593">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>2.192300000000003</v>
       </c>
       <c r="M593">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>237.64260000000002</v>
       </c>
       <c r="N593">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>237.64260000000002</v>
       </c>
-      <c r="O593">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="594" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="594" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>2007</v>
       </c>
@@ -27416,23 +26548,19 @@
         <v>122.9464</v>
       </c>
       <c r="L594">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>2.6881999999999948</v>
       </c>
       <c r="M594">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>236.6103</v>
       </c>
       <c r="N594">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>236.6103</v>
       </c>
-      <c r="O594">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="595" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="595" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>2001</v>
       </c>
@@ -27458,23 +26586,19 @@
         <v>153.2439</v>
       </c>
       <c r="L595">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>2.0705999999999847</v>
       </c>
       <c r="M595">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>274.36490000000003</v>
       </c>
       <c r="N595">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>274.36490000000003</v>
       </c>
-      <c r="O595">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="596" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="596" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>2005</v>
       </c>
@@ -27500,23 +26624,19 @@
         <v>129.78800000000001</v>
       </c>
       <c r="L596">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>3.4069000000000074</v>
       </c>
       <c r="M596">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>287.2921</v>
       </c>
       <c r="N596">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>287.2921</v>
       </c>
-      <c r="O596">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="597" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="597" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>2010</v>
       </c>
@@ -27542,23 +26662,19 @@
         <v>126.81780000000001</v>
       </c>
       <c r="L597">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>1.6315000000000026</v>
       </c>
       <c r="M597">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>243.07440000000003</v>
       </c>
       <c r="N597">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>243.07440000000003</v>
       </c>
-      <c r="O597">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="598" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="598" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>2003</v>
       </c>
@@ -27588,23 +26704,19 @@
         <v>21</v>
       </c>
       <c r="L598">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="M598">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>234.80799999999999</v>
       </c>
       <c r="N598">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>234.80799999999999</v>
       </c>
-      <c r="O598">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="599" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="599" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>2002</v>
       </c>
@@ -27630,23 +26742,19 @@
         <v>125.21850000000001</v>
       </c>
       <c r="L599">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>1.7589000000000112</v>
       </c>
       <c r="M599">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>257.92470000000003</v>
       </c>
       <c r="N599">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>257.92470000000003</v>
       </c>
-      <c r="O599">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="600" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="600" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>2009</v>
       </c>
@@ -27672,23 +26780,19 @@
         <v>113.91370000000001</v>
       </c>
       <c r="L600">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>1.5857000000000028</v>
       </c>
       <c r="M600">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>220.38030000000001</v>
       </c>
       <c r="N600">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>220.38030000000001</v>
       </c>
-      <c r="O600">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="601" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="601" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>2000</v>
       </c>
@@ -27714,23 +26818,19 @@
         <v>125.3182</v>
       </c>
       <c r="L601">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>2.2011000000000109</v>
       </c>
       <c r="M601">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>252.87329999999997</v>
       </c>
       <c r="N601">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>252.87329999999997</v>
       </c>
-      <c r="O601">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="602" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="602" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>1025</v>
       </c>
@@ -27756,23 +26856,19 @@
         <v>102.6896</v>
       </c>
       <c r="L602">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>4.9115000000000038</v>
       </c>
       <c r="M602">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>275.53870000000001</v>
       </c>
       <c r="N602">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>275.53870000000001</v>
       </c>
-      <c r="O602">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="603" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="603" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>1029</v>
       </c>
@@ -27798,23 +26894,19 @@
         <v>128.19820000000001</v>
       </c>
       <c r="L603">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>4.1947000000000116</v>
       </c>
       <c r="M603">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>262.30669999999998</v>
       </c>
       <c r="N603">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>262.30669999999998</v>
       </c>
-      <c r="O603">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="604" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="604" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>1019</v>
       </c>
@@ -27840,23 +26932,19 @@
         <v>109.0622</v>
       </c>
       <c r="L604">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>5.7595000000000027</v>
       </c>
       <c r="M604">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>328.00509999999997</v>
       </c>
       <c r="N604">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>328.00509999999997</v>
       </c>
-      <c r="O604">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="605" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="605" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>1028</v>
       </c>
@@ -27882,23 +26970,19 @@
         <v>114.9449</v>
       </c>
       <c r="L605">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>4.015900000000002</v>
       </c>
       <c r="M605">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>244.33929999999998</v>
       </c>
       <c r="N605">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>244.33929999999998</v>
       </c>
-      <c r="O605">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="606" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="606" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>1006</v>
       </c>
@@ -27924,23 +27008,19 @@
         <v>133.1728</v>
       </c>
       <c r="L606">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>10.192799999999991</v>
       </c>
       <c r="M606">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>508.96710000000002</v>
       </c>
       <c r="N606">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>508.96710000000002</v>
       </c>
-      <c r="O606">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="607" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="607" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A607">
         <v>1003</v>
       </c>
@@ -27966,23 +27046,19 @@
         <v>104.5022</v>
       </c>
       <c r="L607">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>5.7787000000000006</v>
       </c>
       <c r="M607">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>362.40119999999996</v>
       </c>
       <c r="N607">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>362.40119999999996</v>
       </c>
-      <c r="O607">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="608" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="608" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>1022</v>
       </c>
@@ -28008,23 +27084,19 @@
         <v>112.2454</v>
       </c>
       <c r="L608">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>4.4376000000000033</v>
       </c>
       <c r="M608">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>273.20830000000001</v>
       </c>
       <c r="N608">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>273.20830000000001</v>
       </c>
-      <c r="O608">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="609" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="609" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A609">
         <v>1007</v>
       </c>
@@ -28054,23 +27126,19 @@
         <v>21</v>
       </c>
       <c r="L609">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="M609">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>211.2998</v>
       </c>
       <c r="N609">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>211.2998</v>
       </c>
-      <c r="O609">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="610" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="610" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A610">
         <v>1008</v>
       </c>
@@ -28096,23 +27164,19 @@
         <v>120.9132</v>
       </c>
       <c r="L610">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>13.355000000000004</v>
       </c>
       <c r="M610">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>688.03</v>
       </c>
       <c r="N610">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>688.03</v>
       </c>
-      <c r="O610">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="611" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="611" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A611">
         <v>1002</v>
       </c>
@@ -28142,23 +27206,19 @@
         <v>21</v>
       </c>
       <c r="L611">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="M611">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>210.41499999999999</v>
       </c>
       <c r="N611">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>210.41499999999999</v>
       </c>
-      <c r="O611">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="612" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="612" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A612">
         <v>1001</v>
       </c>
@@ -28184,23 +27244,19 @@
         <v>112.3995</v>
       </c>
       <c r="L612">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>6.5002000000000066</v>
       </c>
       <c r="M612">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>407.34370000000001</v>
       </c>
       <c r="N612">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>407.34370000000001</v>
       </c>
-      <c r="O612">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="613" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="613" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A613">
         <v>1005</v>
       </c>
@@ -28226,23 +27282,19 @@
         <v>133.9299</v>
       </c>
       <c r="L613">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>6.2306999999999988</v>
       </c>
       <c r="M613">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>332.47089999999997</v>
       </c>
       <c r="N613">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>332.47089999999997</v>
       </c>
-      <c r="O613">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="614" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="614" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A614">
         <v>1026</v>
       </c>
@@ -28268,23 +27320,19 @@
         <v>131.11850000000001</v>
       </c>
       <c r="L614">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>3.0296000000000163</v>
       </c>
       <c r="M614">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>315.60980000000001</v>
       </c>
       <c r="N614">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>315.60980000000001</v>
       </c>
-      <c r="O614">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="615" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="615" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A615">
         <v>1017</v>
       </c>
@@ -28310,23 +27358,19 @@
         <v>112.67010000000001</v>
       </c>
       <c r="L615">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>0.88900000000001</v>
       </c>
       <c r="M615">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>286.11289999999997</v>
       </c>
       <c r="N615">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>286.11289999999997</v>
       </c>
-      <c r="O615">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="616" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="616" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A616">
         <v>1009</v>
       </c>
@@ -28352,23 +27396,19 @@
         <v>131.83150000000001</v>
       </c>
       <c r="L616">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>3.8025000000000091</v>
       </c>
       <c r="M616">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>239.78489999999999</v>
       </c>
       <c r="N616">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>239.78489999999999</v>
       </c>
-      <c r="O616">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="617" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="617" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A617">
         <v>1024</v>
       </c>
@@ -28394,23 +27434,19 @@
         <v>67.599000000000004</v>
       </c>
       <c r="L617">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>4.6655000000000015</v>
       </c>
       <c r="M617">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>241.3706</v>
       </c>
       <c r="N617">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>241.3706</v>
       </c>
-      <c r="O617">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="618" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="618" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A618">
         <v>1023</v>
       </c>
@@ -28436,23 +27472,19 @@
         <v>75.252200000000002</v>
       </c>
       <c r="L618">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>2.682699999999997</v>
       </c>
       <c r="M618">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>240.85969999999998</v>
       </c>
       <c r="N618">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>240.85969999999998</v>
       </c>
-      <c r="O618">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="619" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="619" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A619">
         <v>1004</v>
       </c>
@@ -28478,23 +27510,19 @@
         <v>73.243799999999993</v>
       </c>
       <c r="L619">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>3.0502999999999929</v>
       </c>
       <c r="M619">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>229.25790000000001</v>
       </c>
       <c r="N619">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>229.25790000000001</v>
       </c>
-      <c r="O619">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="620" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="620" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A620">
         <v>1020</v>
       </c>
@@ -28520,23 +27548,19 @@
         <v>66.162800000000004</v>
       </c>
       <c r="L620">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>3.8560000000000016</v>
       </c>
       <c r="M620">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>233.80029999999999</v>
       </c>
       <c r="N620">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>233.80029999999999</v>
       </c>
-      <c r="O620">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="621" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="621" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A621">
         <v>1027</v>
       </c>
@@ -28562,23 +27586,19 @@
         <v>72.795199999999994</v>
       </c>
       <c r="L621">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>3.9342999999999932</v>
       </c>
       <c r="M621">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>216.42079999999999</v>
       </c>
       <c r="N621">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>216.42079999999999</v>
       </c>
-      <c r="O621">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="622" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="622" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>1011</v>
       </c>
@@ -28604,23 +27624,19 @@
         <v>77.060500000000005</v>
       </c>
       <c r="L622">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>4.0745000000000005</v>
       </c>
       <c r="M622">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>199.61189999999999</v>
       </c>
       <c r="N622">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>199.61189999999999</v>
       </c>
-      <c r="O622">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="623" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="623" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A623">
         <v>1010</v>
       </c>
@@ -28646,23 +27662,19 @@
         <v>68.503</v>
       </c>
       <c r="L623">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>4.170100000000005</v>
       </c>
       <c r="M623">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>214.49720000000002</v>
       </c>
       <c r="N623">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>214.49720000000002</v>
       </c>
-      <c r="O623">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="624" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="624" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A624">
         <v>1000</v>
       </c>
@@ -28688,23 +27700,19 @@
         <v>62.4771</v>
       </c>
       <c r="L624">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>2.8558999999999983</v>
       </c>
       <c r="M624">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>163.85570000000001</v>
       </c>
       <c r="N624">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>163.85570000000001</v>
       </c>
-      <c r="O624">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="625" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="625" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A625">
         <v>1018</v>
       </c>
@@ -28730,23 +27738,19 @@
         <v>73.870199999999997</v>
       </c>
       <c r="L625">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>5.7042000000000002</v>
       </c>
       <c r="M625">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>288.96170000000001</v>
       </c>
       <c r="N625">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>288.96170000000001</v>
       </c>
-      <c r="O625">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="626" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="626" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A626">
         <v>1013</v>
       </c>
@@ -28772,23 +27776,19 @@
         <v>61.061300000000003</v>
       </c>
       <c r="L626">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>3.1269000000000062</v>
       </c>
       <c r="M626">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>267.18430000000001</v>
       </c>
       <c r="N626">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>267.18430000000001</v>
       </c>
-      <c r="O626">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="627" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="627" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A627">
         <v>1012</v>
       </c>
@@ -28814,23 +27814,19 @@
         <v>69.108800000000002</v>
       </c>
       <c r="L627">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>4.9360999999999962</v>
       </c>
       <c r="M627">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>300.75110000000001</v>
       </c>
       <c r="N627">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>300.75110000000001</v>
       </c>
-      <c r="O627">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="628" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="628" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A628">
         <v>1015</v>
       </c>
@@ -28856,23 +27852,19 @@
         <v>114.04259999999999</v>
       </c>
       <c r="L628">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>5.1602999999999923</v>
       </c>
       <c r="M628">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>321.988</v>
       </c>
       <c r="N628">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>321.988</v>
       </c>
-      <c r="O628">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="629" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="629" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>22</v>
       </c>
@@ -28889,23 +27881,19 @@
         <v>57.840899999999998</v>
       </c>
       <c r="L629">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>1.5464999999999947</v>
       </c>
       <c r="M629">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>217.80700000000002</v>
       </c>
       <c r="N629">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>217.80700000000002</v>
       </c>
-      <c r="O629">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="630" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="630" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>23</v>
       </c>
@@ -28922,23 +27910,19 @@
         <v>82.715800000000002</v>
       </c>
       <c r="L630">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>2.1449000000000069</v>
       </c>
       <c r="M630">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>233.4256</v>
       </c>
       <c r="N630">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>233.4256</v>
       </c>
-      <c r="O630">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="631" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="631" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A631">
         <v>1014</v>
       </c>
@@ -28964,23 +27948,19 @@
         <v>109.6957</v>
       </c>
       <c r="L631">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>5.9257000000000062</v>
       </c>
       <c r="M631">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>369.9015</v>
       </c>
       <c r="N631">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>369.9015</v>
       </c>
-      <c r="O631">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="632" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="632" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A632">
         <v>1016</v>
       </c>
@@ -29006,23 +27986,19 @@
         <v>97.219099999999997</v>
       </c>
       <c r="L632">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>7.2162000000000006</v>
       </c>
       <c r="M632">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>324.39269999999999</v>
       </c>
       <c r="N632">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>324.39269999999999</v>
       </c>
-      <c r="O632">
-        <f t="shared" si="50"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="633" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="633" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A633">
         <v>1021</v>
       </c>
@@ -29048,20 +28024,16 @@
         <v>81.745800000000003</v>
       </c>
       <c r="L633">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>4.4128000000000043</v>
       </c>
       <c r="M633">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>305.06490000000002</v>
       </c>
       <c r="N633">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>305.06490000000002</v>
-      </c>
-      <c r="O633">
-        <f t="shared" si="50"/>
-        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/data files/CV mass data.xlsx
+++ b/data files/CV mass data.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20910"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/92261b077c2843b1/Documents/GitHub/CV_growth/data files/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="200" documentId="11_134AF580168FA6BFC239881E0A8AF2A54CC17896" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6D309F1-5D44-4994-9F50-3494B2476F44}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -25,15 +28,17 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="28">
   <si>
     <t>CV_ID</t>
   </si>
@@ -115,11 +120,14 @@
   <si>
     <t>na</t>
   </si>
+  <si>
+    <t>code</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -221,7 +229,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -273,7 +281,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -467,24 +475,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O633"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P633"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A612" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A634" sqref="A634:XFD647"/>
+      <pane ySplit="1" topLeftCell="A607" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P634" sqref="P634"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="60">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,8 +538,11 @@
       <c r="O1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -578,8 +589,11 @@
         <f t="shared" ref="O2:O65" si="3">N2/M2*100</f>
         <v>1.4470525814320025</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -626,8 +640,11 @@
         <f t="shared" si="3"/>
         <v>0.68565684782953784</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -674,8 +691,11 @@
         <f t="shared" si="3"/>
         <v>1.1103227059961451</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -722,8 +742,11 @@
         <f t="shared" si="3"/>
         <v>0.99593121492066394</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -770,8 +793,11 @@
         <f t="shared" si="3"/>
         <v>1.4282546317140603</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -822,8 +848,11 @@
         <f t="shared" si="3"/>
         <v>-0.18703894352811257</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -874,8 +903,11 @@
         <f t="shared" si="3"/>
         <v>2.9746569848670485E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -922,8 +954,11 @@
         <f t="shared" si="3"/>
         <v>1.0468957039156295</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -970,8 +1005,11 @@
         <f t="shared" si="3"/>
         <v>0.84095180276495363</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1018,8 +1056,11 @@
         <f t="shared" si="3"/>
         <v>1.2845837177033332</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1066,8 +1107,11 @@
         <f t="shared" si="3"/>
         <v>1.528093909094087</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1114,8 +1158,11 @@
         <f t="shared" si="3"/>
         <v>1.2681112229924154</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1162,8 +1209,11 @@
         <f t="shared" si="3"/>
         <v>1.3685896224307852</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1210,8 +1260,11 @@
         <f t="shared" si="3"/>
         <v>1.2466527001094165</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1258,8 +1311,11 @@
         <f t="shared" si="3"/>
         <v>1.1557608892033198</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1306,8 +1362,11 @@
         <f t="shared" si="3"/>
         <v>-0.12799142497791582</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1357,8 +1416,11 @@
         <f t="shared" si="3"/>
         <v>0.60477990596189712</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1408,8 +1470,11 @@
         <f t="shared" si="3"/>
         <v>1.0535077661582894</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1456,8 +1521,11 @@
         <f t="shared" si="3"/>
         <v>1.0186670414229138</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1504,8 +1572,11 @@
         <f t="shared" si="3"/>
         <v>1.8908606444598173</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1552,8 +1623,11 @@
         <f t="shared" si="3"/>
         <v>1.1219406636695251</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1600,8 +1674,11 @@
         <f t="shared" si="3"/>
         <v>1.2735127903066745</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1648,8 +1725,11 @@
         <f t="shared" si="3"/>
         <v>1.1754381360061845</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1696,8 +1776,11 @@
         <f t="shared" si="3"/>
         <v>1.0327471627178919</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="P25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1744,8 +1827,11 @@
         <f t="shared" si="3"/>
         <v>1.2470582763243439</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="P26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1792,8 +1878,11 @@
         <f t="shared" si="3"/>
         <v>1.6636196744127509</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="P27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1840,8 +1929,11 @@
         <f t="shared" si="3"/>
         <v>1.6198380857232968</v>
       </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="P28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1888,8 +1980,11 @@
         <f t="shared" si="3"/>
         <v>1.5776756251511328</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="P29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1940,8 +2035,11 @@
         <f t="shared" si="3"/>
         <v>-0.13011636658368564</v>
       </c>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="P30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1988,8 +2086,11 @@
         <f t="shared" si="3"/>
         <v>1.2631226219764091</v>
       </c>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="P31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2036,8 +2137,11 @@
         <f t="shared" si="3"/>
         <v>1.5287608164715794</v>
       </c>
-    </row>
-    <row r="33" spans="1:15">
+      <c r="P32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2084,8 +2188,11 @@
         <f t="shared" si="3"/>
         <v>1.3667932569754273</v>
       </c>
-    </row>
-    <row r="34" spans="1:15">
+      <c r="P33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2132,8 +2239,11 @@
         <f t="shared" si="3"/>
         <v>1.036989272524766</v>
       </c>
-    </row>
-    <row r="35" spans="1:15">
+      <c r="P34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2180,8 +2290,11 @@
         <f t="shared" si="3"/>
         <v>1.4463140060611257</v>
       </c>
-    </row>
-    <row r="36" spans="1:15">
+      <c r="P35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2228,8 +2341,11 @@
         <f t="shared" si="3"/>
         <v>1.5635527697392126</v>
       </c>
-    </row>
-    <row r="37" spans="1:15">
+      <c r="P36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2276,8 +2392,11 @@
         <f t="shared" si="3"/>
         <v>1.132137722537172</v>
       </c>
-    </row>
-    <row r="38" spans="1:15">
+      <c r="P37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2324,8 +2443,11 @@
         <f t="shared" si="3"/>
         <v>1.2154412056947628</v>
       </c>
-    </row>
-    <row r="39" spans="1:15">
+      <c r="P38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2372,8 +2494,11 @@
         <f t="shared" si="3"/>
         <v>1.2255752295993718</v>
       </c>
-    </row>
-    <row r="40" spans="1:15">
+      <c r="P39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2420,8 +2545,11 @@
         <f t="shared" si="3"/>
         <v>1.3686359269074708</v>
       </c>
-    </row>
-    <row r="41" spans="1:15">
+      <c r="P40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2468,8 +2596,11 @@
         <f t="shared" si="3"/>
         <v>1.2324907604202686</v>
       </c>
-    </row>
-    <row r="42" spans="1:15">
+      <c r="P41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2516,8 +2647,11 @@
         <f t="shared" si="3"/>
         <v>1.4708352170979648</v>
       </c>
-    </row>
-    <row r="43" spans="1:15">
+      <c r="P42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2568,8 +2702,11 @@
         <f t="shared" si="3"/>
         <v>3.8133790938826913E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:15">
+      <c r="P43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2616,8 +2753,11 @@
         <f t="shared" si="3"/>
         <v>1.6660346414634455</v>
       </c>
-    </row>
-    <row r="45" spans="1:15">
+      <c r="P44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2664,8 +2804,11 @@
         <f t="shared" si="3"/>
         <v>1.5118553591342125</v>
       </c>
-    </row>
-    <row r="46" spans="1:15">
+      <c r="P45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2712,8 +2855,11 @@
         <f t="shared" si="3"/>
         <v>1.0539830935237962</v>
       </c>
-    </row>
-    <row r="47" spans="1:15">
+      <c r="P46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2760,8 +2906,11 @@
         <f t="shared" si="3"/>
         <v>1.5942217304693591</v>
       </c>
-    </row>
-    <row r="48" spans="1:15">
+      <c r="P47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2808,8 +2957,11 @@
         <f t="shared" si="3"/>
         <v>1.5434281754021089</v>
       </c>
-    </row>
-    <row r="49" spans="1:15">
+      <c r="P48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2856,8 +3008,11 @@
         <f t="shared" si="3"/>
         <v>1.6774700284536199</v>
       </c>
-    </row>
-    <row r="50" spans="1:15">
+      <c r="P49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2904,8 +3059,11 @@
         <f t="shared" si="3"/>
         <v>1.467095255148841</v>
       </c>
-    </row>
-    <row r="51" spans="1:15">
+      <c r="P50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2953,8 +3111,11 @@
         <f t="shared" si="3"/>
         <v>1.2129137109596626</v>
       </c>
-    </row>
-    <row r="52" spans="1:15">
+      <c r="P51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3002,8 +3163,11 @@
         <f t="shared" si="3"/>
         <v>1.1645352345041435</v>
       </c>
-    </row>
-    <row r="53" spans="1:15">
+      <c r="P52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3051,8 +3215,11 @@
         <f t="shared" si="3"/>
         <v>1.4501286598058885</v>
       </c>
-    </row>
-    <row r="54" spans="1:15">
+      <c r="P53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3100,8 +3267,11 @@
         <f t="shared" si="3"/>
         <v>1.0638692922053219</v>
       </c>
-    </row>
-    <row r="55" spans="1:15">
+      <c r="P54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3153,8 +3323,11 @@
         <f t="shared" si="3"/>
         <v>-8.606737963950957E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:15">
+      <c r="P55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3202,8 +3375,11 @@
         <f t="shared" si="3"/>
         <v>0.91013052966427488</v>
       </c>
-    </row>
-    <row r="57" spans="1:15">
+      <c r="P56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3251,8 +3427,11 @@
         <f t="shared" si="3"/>
         <v>1.2269757184143744</v>
       </c>
-    </row>
-    <row r="58" spans="1:15">
+      <c r="P57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3300,8 +3479,11 @@
         <f t="shared" si="3"/>
         <v>1.2922822698911878</v>
       </c>
-    </row>
-    <row r="59" spans="1:15">
+      <c r="P58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3349,8 +3531,11 @@
         <f t="shared" si="3"/>
         <v>1.032308632417595</v>
       </c>
-    </row>
-    <row r="60" spans="1:15">
+      <c r="P59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3398,8 +3583,11 @@
         <f t="shared" si="3"/>
         <v>1.9350170942057838</v>
       </c>
-    </row>
-    <row r="61" spans="1:15">
+      <c r="P60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3447,8 +3635,11 @@
         <f t="shared" si="3"/>
         <v>1.4252928856616811</v>
       </c>
-    </row>
-    <row r="62" spans="1:15">
+      <c r="P61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3493,8 +3684,11 @@
         <f t="shared" si="3"/>
         <v>1.2308969350383008</v>
       </c>
-    </row>
-    <row r="63" spans="1:15">
+      <c r="P62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3539,8 +3733,11 @@
         <f t="shared" si="3"/>
         <v>0.82103467319921375</v>
       </c>
-    </row>
-    <row r="64" spans="1:15">
+      <c r="P63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3585,8 +3782,11 @@
         <f t="shared" si="3"/>
         <v>1.0715245002110363</v>
       </c>
-    </row>
-    <row r="65" spans="1:15">
+      <c r="P64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3631,8 +3831,11 @@
         <f t="shared" si="3"/>
         <v>1.4883383990298904</v>
       </c>
-    </row>
-    <row r="66" spans="1:15">
+      <c r="P65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3677,8 +3880,11 @@
         <f t="shared" ref="O66:O129" si="8">N66/M66*100</f>
         <v>1.4482415061055054</v>
       </c>
-    </row>
-    <row r="67" spans="1:15">
+      <c r="P66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3723,8 +3929,11 @@
         <f t="shared" si="8"/>
         <v>1.199171993513154</v>
       </c>
-    </row>
-    <row r="68" spans="1:15">
+      <c r="P67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3769,8 +3978,11 @@
         <f t="shared" si="8"/>
         <v>1.4162374308715606</v>
       </c>
-    </row>
-    <row r="69" spans="1:15">
+      <c r="P68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3815,8 +4027,11 @@
         <f t="shared" si="8"/>
         <v>1.1863004623388655</v>
       </c>
-    </row>
-    <row r="70" spans="1:15">
+      <c r="P69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3861,8 +4076,11 @@
         <f t="shared" si="8"/>
         <v>1.6111359917077128</v>
       </c>
-    </row>
-    <row r="71" spans="1:15">
+      <c r="P70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3907,8 +4125,11 @@
         <f t="shared" si="8"/>
         <v>1.1217916425926338</v>
       </c>
-    </row>
-    <row r="72" spans="1:15">
+      <c r="P71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3953,8 +4174,11 @@
         <f t="shared" si="8"/>
         <v>1.1962324543179763</v>
       </c>
-    </row>
-    <row r="73" spans="1:15">
+      <c r="P72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3999,8 +4223,11 @@
         <f t="shared" si="8"/>
         <v>1.1866685941122066</v>
       </c>
-    </row>
-    <row r="74" spans="1:15">
+      <c r="P73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4045,8 +4272,11 @@
         <f t="shared" si="8"/>
         <v>1.3134238151808135</v>
       </c>
-    </row>
-    <row r="75" spans="1:15">
+      <c r="P74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4091,8 +4321,11 @@
         <f t="shared" si="8"/>
         <v>1.2046722348287109</v>
       </c>
-    </row>
-    <row r="76" spans="1:15">
+      <c r="P75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4137,8 +4370,11 @@
         <f t="shared" si="8"/>
         <v>1.2708815582013102</v>
       </c>
-    </row>
-    <row r="77" spans="1:15">
+      <c r="P76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4183,8 +4419,11 @@
         <f t="shared" si="8"/>
         <v>1.0714830316114463</v>
       </c>
-    </row>
-    <row r="78" spans="1:15">
+      <c r="P77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4229,8 +4468,11 @@
         <f t="shared" si="8"/>
         <v>1.359905200779213</v>
       </c>
-    </row>
-    <row r="79" spans="1:15">
+      <c r="P78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4279,8 +4521,11 @@
         <f t="shared" si="8"/>
         <v>3.0826479946280232E-2</v>
       </c>
-    </row>
-    <row r="80" spans="1:15">
+      <c r="P79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4325,8 +4570,11 @@
         <f t="shared" si="8"/>
         <v>1.024332275790788</v>
       </c>
-    </row>
-    <row r="81" spans="1:15">
+      <c r="P80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4371,8 +4619,11 @@
         <f t="shared" si="8"/>
         <v>1.0193738228886358</v>
       </c>
-    </row>
-    <row r="82" spans="1:15">
+      <c r="P81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4417,8 +4668,11 @@
         <f t="shared" si="8"/>
         <v>1.0071243408477462</v>
       </c>
-    </row>
-    <row r="83" spans="1:15">
+      <c r="P82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4463,8 +4717,11 @@
         <f t="shared" si="8"/>
         <v>1.4044530988626034</v>
       </c>
-    </row>
-    <row r="84" spans="1:15">
+      <c r="P83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4509,8 +4766,11 @@
         <f t="shared" si="8"/>
         <v>1.1735029378173147</v>
       </c>
-    </row>
-    <row r="85" spans="1:15">
+      <c r="P84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4555,8 +4815,11 @@
         <f t="shared" si="8"/>
         <v>0.88903447054439222</v>
       </c>
-    </row>
-    <row r="86" spans="1:15">
+      <c r="P85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4601,8 +4864,11 @@
         <f t="shared" si="8"/>
         <v>1.3349521411716563</v>
       </c>
-    </row>
-    <row r="87" spans="1:15">
+      <c r="P86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4647,8 +4913,11 @@
         <f t="shared" si="8"/>
         <v>1.3479757289517051</v>
       </c>
-    </row>
-    <row r="88" spans="1:15">
+      <c r="P87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4693,8 +4962,11 @@
         <f t="shared" si="8"/>
         <v>1.2953682519172591</v>
       </c>
-    </row>
-    <row r="89" spans="1:15">
+      <c r="P88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4739,8 +5011,11 @@
         <f t="shared" si="8"/>
         <v>0.78729599595841449</v>
       </c>
-    </row>
-    <row r="90" spans="1:15">
+      <c r="P89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4785,8 +5060,11 @@
         <f t="shared" si="8"/>
         <v>1.7733041381086718</v>
       </c>
-    </row>
-    <row r="91" spans="1:15">
+      <c r="P90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4831,8 +5109,11 @@
         <f t="shared" si="8"/>
         <v>1.0024862427007695</v>
       </c>
-    </row>
-    <row r="92" spans="1:15">
+      <c r="P91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4881,8 +5162,11 @@
         <f t="shared" si="8"/>
         <v>-9.3930130933402717E-2</v>
       </c>
-    </row>
-    <row r="93" spans="1:15">
+      <c r="P92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4927,8 +5211,11 @@
         <f t="shared" si="8"/>
         <v>1.2483468591748783</v>
       </c>
-    </row>
-    <row r="94" spans="1:15">
+      <c r="P93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4973,8 +5260,11 @@
         <f t="shared" si="8"/>
         <v>1.5184097024576952</v>
       </c>
-    </row>
-    <row r="95" spans="1:15">
+      <c r="P94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5019,8 +5309,11 @@
         <f t="shared" si="8"/>
         <v>0.97733685528598435</v>
       </c>
-    </row>
-    <row r="96" spans="1:15">
+      <c r="P95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5065,8 +5358,11 @@
         <f t="shared" si="8"/>
         <v>0.89952391279687283</v>
       </c>
-    </row>
-    <row r="97" spans="1:15">
+      <c r="P96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5111,8 +5407,11 @@
         <f t="shared" si="8"/>
         <v>0.8853376404812624</v>
       </c>
-    </row>
-    <row r="98" spans="1:15">
+      <c r="P97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5157,8 +5456,11 @@
         <f t="shared" si="8"/>
         <v>1.1556641539571817</v>
       </c>
-    </row>
-    <row r="99" spans="1:15">
+      <c r="P98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5203,8 +5505,11 @@
         <f t="shared" si="8"/>
         <v>1.152949697487863</v>
       </c>
-    </row>
-    <row r="100" spans="1:15">
+      <c r="P99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5253,8 +5558,11 @@
         <f t="shared" si="8"/>
         <v>-0.27885574493800053</v>
       </c>
-    </row>
-    <row r="101" spans="1:15">
+      <c r="P100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5299,8 +5607,11 @@
         <f t="shared" si="8"/>
         <v>1.5052772142305881</v>
       </c>
-    </row>
-    <row r="102" spans="1:15">
+      <c r="P101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5345,8 +5656,11 @@
         <f t="shared" si="8"/>
         <v>1.6703371293717844</v>
       </c>
-    </row>
-    <row r="103" spans="1:15">
+      <c r="P102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A103">
         <v>102</v>
       </c>
@@ -5391,8 +5705,11 @@
         <f t="shared" si="8"/>
         <v>1.5151966953443292</v>
       </c>
-    </row>
-    <row r="104" spans="1:15">
+      <c r="P103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5437,8 +5754,11 @@
         <f t="shared" si="8"/>
         <v>0.89875443791658183</v>
       </c>
-    </row>
-    <row r="105" spans="1:15">
+      <c r="P104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5483,8 +5803,11 @@
         <f t="shared" si="8"/>
         <v>0.66545451669473721</v>
       </c>
-    </row>
-    <row r="106" spans="1:15">
+      <c r="P105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5529,8 +5852,11 @@
         <f t="shared" si="8"/>
         <v>1.3679348094987207</v>
       </c>
-    </row>
-    <row r="107" spans="1:15">
+      <c r="P106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5575,8 +5901,11 @@
         <f t="shared" si="8"/>
         <v>1.3966557694396891</v>
       </c>
-    </row>
-    <row r="108" spans="1:15">
+      <c r="P107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5621,8 +5950,11 @@
         <f t="shared" si="8"/>
         <v>1.5947070528673675</v>
       </c>
-    </row>
-    <row r="109" spans="1:15">
+      <c r="P108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5667,8 +5999,11 @@
         <f t="shared" si="8"/>
         <v>1.5558134430527497</v>
       </c>
-    </row>
-    <row r="110" spans="1:15">
+      <c r="P109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5713,8 +6048,11 @@
         <f t="shared" si="8"/>
         <v>1.3993674376511311</v>
       </c>
-    </row>
-    <row r="111" spans="1:15">
+      <c r="P110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5759,8 +6097,11 @@
         <f t="shared" si="8"/>
         <v>1.3186809819442249</v>
       </c>
-    </row>
-    <row r="112" spans="1:15">
+      <c r="P111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5805,8 +6146,11 @@
         <f t="shared" si="8"/>
         <v>1.5401277559054474</v>
       </c>
-    </row>
-    <row r="113" spans="1:15">
+      <c r="P112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5851,8 +6195,11 @@
         <f t="shared" si="8"/>
         <v>1.2224943633318657</v>
       </c>
-    </row>
-    <row r="114" spans="1:15">
+      <c r="P113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5897,8 +6244,11 @@
         <f t="shared" si="8"/>
         <v>1.9028897495602544</v>
       </c>
-    </row>
-    <row r="115" spans="1:15">
+      <c r="P114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5943,8 +6293,11 @@
         <f t="shared" si="8"/>
         <v>1.7556074675134585</v>
       </c>
-    </row>
-    <row r="116" spans="1:15">
+      <c r="P115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5989,8 +6342,11 @@
         <f t="shared" si="8"/>
         <v>1.265325481060908</v>
       </c>
-    </row>
-    <row r="117" spans="1:15">
+      <c r="P116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A117">
         <v>116</v>
       </c>
@@ -6035,8 +6391,11 @@
         <f t="shared" si="8"/>
         <v>1.0061771567994138</v>
       </c>
-    </row>
-    <row r="118" spans="1:15">
+      <c r="P117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A118">
         <v>117</v>
       </c>
@@ -6081,8 +6440,11 @@
         <f t="shared" si="8"/>
         <v>1.6258827319354339</v>
       </c>
-    </row>
-    <row r="119" spans="1:15">
+      <c r="P118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A119">
         <v>118</v>
       </c>
@@ -6127,8 +6489,11 @@
         <f t="shared" si="8"/>
         <v>1.5083388868083076</v>
       </c>
-    </row>
-    <row r="120" spans="1:15">
+      <c r="P119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6173,8 +6538,11 @@
         <f t="shared" si="8"/>
         <v>1.0371628760850848</v>
       </c>
-    </row>
-    <row r="121" spans="1:15">
+      <c r="P120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A121">
         <v>120</v>
       </c>
@@ -6219,8 +6587,11 @@
         <f t="shared" si="8"/>
         <v>1.335306631614344</v>
       </c>
-    </row>
-    <row r="122" spans="1:15">
+      <c r="P121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A122">
         <v>121</v>
       </c>
@@ -6265,8 +6636,11 @@
         <f t="shared" si="8"/>
         <v>1.0684117357756795</v>
       </c>
-    </row>
-    <row r="123" spans="1:15">
+      <c r="P122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A123">
         <v>122</v>
       </c>
@@ -6311,8 +6685,11 @@
         <f t="shared" si="8"/>
         <v>1.3679323992140704</v>
       </c>
-    </row>
-    <row r="124" spans="1:15">
+      <c r="P123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A124">
         <v>123</v>
       </c>
@@ -6357,8 +6734,11 @@
         <f t="shared" si="8"/>
         <v>1.2579310410864082</v>
       </c>
-    </row>
-    <row r="125" spans="1:15">
+      <c r="P124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A125">
         <v>124</v>
       </c>
@@ -6403,8 +6783,11 @@
         <f t="shared" si="8"/>
         <v>1.3335317850895616</v>
       </c>
-    </row>
-    <row r="126" spans="1:15">
+      <c r="P125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A126">
         <v>125</v>
       </c>
@@ -6449,8 +6832,11 @@
         <f t="shared" si="8"/>
         <v>0.98518542129954667</v>
       </c>
-    </row>
-    <row r="127" spans="1:15">
+      <c r="P126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A127">
         <v>126</v>
       </c>
@@ -6495,8 +6881,11 @@
         <f t="shared" si="8"/>
         <v>1.6893996734242369</v>
       </c>
-    </row>
-    <row r="128" spans="1:15">
+      <c r="P127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A128">
         <v>127</v>
       </c>
@@ -6541,8 +6930,11 @@
         <f t="shared" si="8"/>
         <v>1.2095531413373848</v>
       </c>
-    </row>
-    <row r="129" spans="1:15">
+      <c r="P128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A129">
         <v>128</v>
       </c>
@@ -6587,8 +6979,11 @@
         <f t="shared" si="8"/>
         <v>1.211666601077404</v>
       </c>
-    </row>
-    <row r="130" spans="1:15">
+      <c r="P129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A130">
         <v>129</v>
       </c>
@@ -6633,8 +7028,11 @@
         <f t="shared" ref="O130:O193" si="13">N130/M130*100</f>
         <v>1.4582834932645667</v>
       </c>
-    </row>
-    <row r="131" spans="1:15">
+      <c r="P130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A131">
         <v>130</v>
       </c>
@@ -6679,8 +7077,11 @@
         <f t="shared" si="13"/>
         <v>1.0432831188674405</v>
       </c>
-    </row>
-    <row r="132" spans="1:15">
+      <c r="P131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A132">
         <v>131</v>
       </c>
@@ -6729,8 +7130,11 @@
         <f t="shared" si="13"/>
         <v>-8.6337682056534221E-2</v>
       </c>
-    </row>
-    <row r="133" spans="1:15">
+      <c r="P132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A133">
         <v>132</v>
       </c>
@@ -6775,8 +7179,11 @@
         <f t="shared" si="13"/>
         <v>1.1885451453217</v>
       </c>
-    </row>
-    <row r="134" spans="1:15">
+      <c r="P133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A134">
         <v>133</v>
       </c>
@@ -6821,8 +7228,11 @@
         <f t="shared" si="13"/>
         <v>1.1903359217689831</v>
       </c>
-    </row>
-    <row r="135" spans="1:15">
+      <c r="P134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A135">
         <v>134</v>
       </c>
@@ -6867,8 +7277,11 @@
         <f t="shared" si="13"/>
         <v>1.1299899204658592</v>
       </c>
-    </row>
-    <row r="136" spans="1:15">
+      <c r="P135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A136">
         <v>135</v>
       </c>
@@ -6913,8 +7326,11 @@
         <f t="shared" si="13"/>
         <v>1.0549214025153655</v>
       </c>
-    </row>
-    <row r="137" spans="1:15">
+      <c r="P136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A137">
         <v>136</v>
       </c>
@@ -6959,8 +7375,11 @@
         <f t="shared" si="13"/>
         <v>1.2052983884516846</v>
       </c>
-    </row>
-    <row r="138" spans="1:15">
+      <c r="P137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A138">
         <v>137</v>
       </c>
@@ -7005,8 +7424,11 @@
         <f t="shared" si="13"/>
         <v>1.0502453226659716</v>
       </c>
-    </row>
-    <row r="139" spans="1:15">
+      <c r="P138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A139">
         <v>138</v>
       </c>
@@ -7051,8 +7473,11 @@
         <f t="shared" si="13"/>
         <v>0.90493994848228643</v>
       </c>
-    </row>
-    <row r="140" spans="1:15">
+      <c r="P139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A140">
         <v>139</v>
       </c>
@@ -7097,8 +7522,11 @@
         <f t="shared" si="13"/>
         <v>1.2634810177368081</v>
       </c>
-    </row>
-    <row r="141" spans="1:15">
+      <c r="P140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A141">
         <v>140</v>
       </c>
@@ -7143,8 +7571,11 @@
         <f t="shared" si="13"/>
         <v>1.1230502423132676</v>
       </c>
-    </row>
-    <row r="142" spans="1:15">
+      <c r="P141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A142">
         <v>141</v>
       </c>
@@ -7189,8 +7620,11 @@
         <f t="shared" si="13"/>
         <v>1.4016020476593698</v>
       </c>
-    </row>
-    <row r="143" spans="1:15">
+      <c r="P142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A143">
         <v>142</v>
       </c>
@@ -7235,8 +7669,11 @@
         <f t="shared" si="13"/>
         <v>1.2200965083812521</v>
       </c>
-    </row>
-    <row r="144" spans="1:15">
+      <c r="P143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A144">
         <v>143</v>
       </c>
@@ -7281,8 +7718,11 @@
         <f t="shared" si="13"/>
         <v>1.0026419235733832</v>
       </c>
-    </row>
-    <row r="145" spans="1:15">
+      <c r="P144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A145">
         <v>144</v>
       </c>
@@ -7327,8 +7767,11 @@
         <f t="shared" si="13"/>
         <v>1.3250233179971367</v>
       </c>
-    </row>
-    <row r="146" spans="1:15">
+      <c r="P145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A146">
         <v>145</v>
       </c>
@@ -7373,8 +7816,11 @@
         <f t="shared" si="13"/>
         <v>1.1268341895123644</v>
       </c>
-    </row>
-    <row r="147" spans="1:15">
+      <c r="P146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A147">
         <v>146</v>
       </c>
@@ -7419,8 +7865,11 @@
         <f t="shared" si="13"/>
         <v>1.124806539307535</v>
       </c>
-    </row>
-    <row r="148" spans="1:15">
+      <c r="P147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A148">
         <v>147</v>
       </c>
@@ -7465,8 +7914,11 @@
         <f t="shared" si="13"/>
         <v>1.1030427442718851</v>
       </c>
-    </row>
-    <row r="149" spans="1:15">
+      <c r="P148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A149">
         <v>148</v>
       </c>
@@ -7511,8 +7963,11 @@
         <f t="shared" si="13"/>
         <v>1.3557015760402635</v>
       </c>
-    </row>
-    <row r="150" spans="1:15">
+      <c r="P149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A150">
         <v>149</v>
       </c>
@@ -7557,8 +8012,11 @@
         <f t="shared" si="13"/>
         <v>1.1993520229467185</v>
       </c>
-    </row>
-    <row r="151" spans="1:15">
+      <c r="P150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A151">
         <v>150</v>
       </c>
@@ -7603,8 +8061,11 @@
         <f t="shared" si="13"/>
         <v>1.3832906186555831</v>
       </c>
-    </row>
-    <row r="152" spans="1:15">
+      <c r="P151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A152">
         <v>151</v>
       </c>
@@ -7649,8 +8110,11 @@
         <f t="shared" si="13"/>
         <v>1.4633251597256285</v>
       </c>
-    </row>
-    <row r="153" spans="1:15">
+      <c r="P152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A153">
         <v>152</v>
       </c>
@@ -7695,8 +8159,11 @@
         <f t="shared" si="13"/>
         <v>1.2219063910662771</v>
       </c>
-    </row>
-    <row r="154" spans="1:15">
+      <c r="P153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A154">
         <v>153</v>
       </c>
@@ -7741,8 +8208,11 @@
         <f t="shared" si="13"/>
         <v>1.4997903611454235</v>
       </c>
-    </row>
-    <row r="155" spans="1:15">
+      <c r="P154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A155">
         <v>154</v>
       </c>
@@ -7787,8 +8257,11 @@
         <f t="shared" si="13"/>
         <v>1.890661301642838</v>
       </c>
-    </row>
-    <row r="156" spans="1:15">
+      <c r="P155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A156">
         <v>155</v>
       </c>
@@ -7833,8 +8306,11 @@
         <f t="shared" si="13"/>
         <v>1.0814320207623855</v>
       </c>
-    </row>
-    <row r="157" spans="1:15">
+      <c r="P156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A157">
         <v>156</v>
       </c>
@@ -7879,8 +8355,11 @@
         <f t="shared" si="13"/>
         <v>1.6252243960696557</v>
       </c>
-    </row>
-    <row r="158" spans="1:15">
+      <c r="P157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A158">
         <v>157</v>
       </c>
@@ -7925,8 +8404,11 @@
         <f t="shared" si="13"/>
         <v>1.1819205839414437</v>
       </c>
-    </row>
-    <row r="159" spans="1:15">
+      <c r="P158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A159">
         <v>158</v>
       </c>
@@ -7971,8 +8453,11 @@
         <f t="shared" si="13"/>
         <v>1.4886598527476294</v>
       </c>
-    </row>
-    <row r="160" spans="1:15">
+      <c r="P159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A160">
         <v>159</v>
       </c>
@@ -8017,8 +8502,11 @@
         <f t="shared" si="13"/>
         <v>1.3242040462587095</v>
       </c>
-    </row>
-    <row r="161" spans="1:15">
+      <c r="P160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A161">
         <v>160</v>
       </c>
@@ -8063,8 +8551,11 @@
         <f t="shared" si="13"/>
         <v>1.348314969980511</v>
       </c>
-    </row>
-    <row r="162" spans="1:15">
+      <c r="P161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A162">
         <v>161</v>
       </c>
@@ -8113,8 +8604,11 @@
         <f t="shared" si="13"/>
         <v>-0.14166365600166167</v>
       </c>
-    </row>
-    <row r="163" spans="1:15">
+      <c r="P162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A163">
         <v>162</v>
       </c>
@@ -8159,8 +8653,11 @@
         <f t="shared" si="13"/>
         <v>1.2869986858483407</v>
       </c>
-    </row>
-    <row r="164" spans="1:15">
+      <c r="P163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A164">
         <v>163</v>
       </c>
@@ -8205,8 +8702,11 @@
         <f t="shared" si="13"/>
         <v>1.2744530856136898</v>
       </c>
-    </row>
-    <row r="165" spans="1:15">
+      <c r="P164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A165">
         <v>164</v>
       </c>
@@ -8251,8 +8751,11 @@
         <f t="shared" si="13"/>
         <v>1.3079451520651222</v>
       </c>
-    </row>
-    <row r="166" spans="1:15">
+      <c r="P165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A166">
         <v>165</v>
       </c>
@@ -8297,8 +8800,11 @@
         <f t="shared" si="13"/>
         <v>1.310941755762941</v>
       </c>
-    </row>
-    <row r="167" spans="1:15">
+      <c r="P166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A167">
         <v>166</v>
       </c>
@@ -8343,8 +8849,11 @@
         <f t="shared" si="13"/>
         <v>1.3745118245346897</v>
       </c>
-    </row>
-    <row r="168" spans="1:15">
+      <c r="P167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A168">
         <v>167</v>
       </c>
@@ -8389,8 +8898,11 @@
         <f t="shared" si="13"/>
         <v>1.1588224567943786</v>
       </c>
-    </row>
-    <row r="169" spans="1:15">
+      <c r="P168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A169">
         <v>168</v>
       </c>
@@ -8435,8 +8947,11 @@
         <f t="shared" si="13"/>
         <v>1.3339641461800147</v>
       </c>
-    </row>
-    <row r="170" spans="1:15">
+      <c r="P169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A170">
         <v>169</v>
       </c>
@@ -8481,8 +8996,11 @@
         <f t="shared" si="13"/>
         <v>1.2144873565979974</v>
       </c>
-    </row>
-    <row r="171" spans="1:15">
+      <c r="P170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A171">
         <v>170</v>
       </c>
@@ -8527,8 +9045,11 @@
         <f t="shared" si="13"/>
         <v>1.6420160148380221</v>
       </c>
-    </row>
-    <row r="172" spans="1:15">
+      <c r="P171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A172">
         <v>171</v>
       </c>
@@ -8573,8 +9094,11 @@
         <f t="shared" si="13"/>
         <v>1.5357628980821176</v>
       </c>
-    </row>
-    <row r="173" spans="1:15">
+      <c r="P172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A173">
         <v>172</v>
       </c>
@@ -8619,8 +9143,11 @@
         <f t="shared" si="13"/>
         <v>1.5319262953821868</v>
       </c>
-    </row>
-    <row r="174" spans="1:15">
+      <c r="P173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A174">
         <v>173</v>
       </c>
@@ -8665,8 +9192,11 @@
         <f t="shared" si="13"/>
         <v>1.3817263598537202</v>
       </c>
-    </row>
-    <row r="175" spans="1:15">
+      <c r="P174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A175">
         <v>174</v>
       </c>
@@ -8711,8 +9241,11 @@
         <f t="shared" si="13"/>
         <v>1.082002087726617</v>
       </c>
-    </row>
-    <row r="176" spans="1:15">
+      <c r="P175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A176">
         <v>175</v>
       </c>
@@ -8757,8 +9290,11 @@
         <f t="shared" si="13"/>
         <v>1.2400612383090821</v>
       </c>
-    </row>
-    <row r="177" spans="1:15">
+      <c r="P176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A177">
         <v>176</v>
       </c>
@@ -8803,8 +9339,11 @@
         <f t="shared" si="13"/>
         <v>1.2855700735209956</v>
       </c>
-    </row>
-    <row r="178" spans="1:15">
+      <c r="P177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A178">
         <v>177</v>
       </c>
@@ -8849,8 +9388,11 @@
         <f t="shared" si="13"/>
         <v>1.8577536352745092</v>
       </c>
-    </row>
-    <row r="179" spans="1:15">
+      <c r="P178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A179">
         <v>178</v>
       </c>
@@ -8895,8 +9437,11 @@
         <f t="shared" si="13"/>
         <v>1.5309403599017235</v>
       </c>
-    </row>
-    <row r="180" spans="1:15">
+      <c r="P179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A180">
         <v>179</v>
       </c>
@@ -8941,8 +9486,11 @@
         <f t="shared" si="13"/>
         <v>1.4258207958192703</v>
       </c>
-    </row>
-    <row r="181" spans="1:15">
+      <c r="P180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A181">
         <v>180</v>
       </c>
@@ -8987,8 +9535,11 @@
         <f t="shared" si="13"/>
         <v>1.3974213025036488</v>
       </c>
-    </row>
-    <row r="182" spans="1:15">
+      <c r="P181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A182">
         <v>181</v>
       </c>
@@ -9033,8 +9584,11 @@
         <f t="shared" si="13"/>
         <v>1.7532283019854058</v>
       </c>
-    </row>
-    <row r="183" spans="1:15">
+      <c r="P182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A183">
         <v>182</v>
       </c>
@@ -9079,8 +9633,11 @@
         <f t="shared" si="13"/>
         <v>1.5494086819970043</v>
       </c>
-    </row>
-    <row r="184" spans="1:15">
+      <c r="P183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A184">
         <v>183</v>
       </c>
@@ -9125,8 +9682,11 @@
         <f t="shared" si="13"/>
         <v>1.3946603284467287</v>
       </c>
-    </row>
-    <row r="185" spans="1:15">
+      <c r="P184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A185">
         <v>184</v>
       </c>
@@ -9171,8 +9731,11 @@
         <f t="shared" si="13"/>
         <v>1.4163471502226257</v>
       </c>
-    </row>
-    <row r="186" spans="1:15">
+      <c r="P185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A186">
         <v>185</v>
       </c>
@@ -9217,8 +9780,11 @@
         <f t="shared" si="13"/>
         <v>1.5889357634942369</v>
       </c>
-    </row>
-    <row r="187" spans="1:15">
+      <c r="P186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A187">
         <v>186</v>
       </c>
@@ -9263,8 +9829,11 @@
         <f t="shared" si="13"/>
         <v>1.4412529126142219</v>
       </c>
-    </row>
-    <row r="188" spans="1:15">
+      <c r="P187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A188">
         <v>187</v>
       </c>
@@ -9309,8 +9878,11 @@
         <f t="shared" si="13"/>
         <v>1.1609243064109531</v>
       </c>
-    </row>
-    <row r="189" spans="1:15">
+      <c r="P188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A189">
         <v>188</v>
       </c>
@@ -9355,8 +9927,11 @@
         <f t="shared" si="13"/>
         <v>1.1674096083851333</v>
       </c>
-    </row>
-    <row r="190" spans="1:15">
+      <c r="P189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A190">
         <v>189</v>
       </c>
@@ -9401,8 +9976,11 @@
         <f t="shared" si="13"/>
         <v>1.3996045879534889</v>
       </c>
-    </row>
-    <row r="191" spans="1:15">
+      <c r="P190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A191">
         <v>190</v>
       </c>
@@ -9447,8 +10025,11 @@
         <f t="shared" si="13"/>
         <v>1.0478070444080385</v>
       </c>
-    </row>
-    <row r="192" spans="1:15">
+      <c r="P191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A192">
         <v>191</v>
       </c>
@@ -9493,8 +10074,11 @@
         <f t="shared" si="13"/>
         <v>1.532988944321185</v>
       </c>
-    </row>
-    <row r="193" spans="1:15">
+      <c r="P192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A193">
         <v>192</v>
       </c>
@@ -9539,8 +10123,11 @@
         <f t="shared" si="13"/>
         <v>1.4002453166735898</v>
       </c>
-    </row>
-    <row r="194" spans="1:15">
+      <c r="P193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A194">
         <v>193</v>
       </c>
@@ -9585,8 +10172,11 @@
         <f t="shared" ref="O194:O257" si="18">N194/M194*100</f>
         <v>1.1033686082227392</v>
       </c>
-    </row>
-    <row r="195" spans="1:15">
+      <c r="P194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A195">
         <v>194</v>
       </c>
@@ -9631,8 +10221,11 @@
         <f t="shared" si="18"/>
         <v>1.1493625686703643</v>
       </c>
-    </row>
-    <row r="196" spans="1:15">
+      <c r="P195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A196">
         <v>195</v>
       </c>
@@ -9677,8 +10270,11 @@
         <f t="shared" si="18"/>
         <v>1.2722577464769893</v>
       </c>
-    </row>
-    <row r="197" spans="1:15">
+      <c r="P196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A197">
         <v>196</v>
       </c>
@@ -9723,8 +10319,11 @@
         <f t="shared" si="18"/>
         <v>1.2526476983813812</v>
       </c>
-    </row>
-    <row r="198" spans="1:15">
+      <c r="P197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A198">
         <v>197</v>
       </c>
@@ -9769,8 +10368,11 @@
         <f t="shared" si="18"/>
         <v>1.4816616415972295</v>
       </c>
-    </row>
-    <row r="199" spans="1:15">
+      <c r="P198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A199">
         <v>198</v>
       </c>
@@ -9815,8 +10417,11 @@
         <f t="shared" si="18"/>
         <v>1.2259241766313089</v>
       </c>
-    </row>
-    <row r="200" spans="1:15">
+      <c r="P199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A200">
         <v>199</v>
       </c>
@@ -9861,8 +10466,11 @@
         <f t="shared" si="18"/>
         <v>1.74487201699367</v>
       </c>
-    </row>
-    <row r="201" spans="1:15">
+      <c r="P200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A201">
         <v>200</v>
       </c>
@@ -9907,8 +10515,11 @@
         <f t="shared" si="18"/>
         <v>1.4628980421725437</v>
       </c>
-    </row>
-    <row r="202" spans="1:15">
+      <c r="P201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A202">
         <v>201</v>
       </c>
@@ -9953,8 +10564,11 @@
         <f t="shared" si="18"/>
         <v>1.8652666996379297</v>
       </c>
-    </row>
-    <row r="203" spans="1:15">
+      <c r="P202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A203">
         <v>202</v>
       </c>
@@ -9999,8 +10613,11 @@
         <f t="shared" si="18"/>
         <v>1.4839889024804467</v>
       </c>
-    </row>
-    <row r="204" spans="1:15">
+      <c r="P203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A204">
         <v>203</v>
       </c>
@@ -10045,8 +10662,11 @@
         <f t="shared" si="18"/>
         <v>1.4457918610859015</v>
       </c>
-    </row>
-    <row r="205" spans="1:15">
+      <c r="P204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A205">
         <v>204</v>
       </c>
@@ -10091,8 +10711,11 @@
         <f t="shared" si="18"/>
         <v>1.6235104189523368</v>
       </c>
-    </row>
-    <row r="206" spans="1:15">
+      <c r="P205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A206">
         <v>205</v>
       </c>
@@ -10137,8 +10760,11 @@
         <f t="shared" si="18"/>
         <v>1.5671555380031399</v>
       </c>
-    </row>
-    <row r="207" spans="1:15">
+      <c r="P206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A207">
         <v>206</v>
       </c>
@@ -10183,8 +10809,11 @@
         <f t="shared" si="18"/>
         <v>1.784004104744922</v>
       </c>
-    </row>
-    <row r="208" spans="1:15">
+      <c r="P207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A208">
         <v>207</v>
       </c>
@@ -10229,8 +10858,11 @@
         <f t="shared" si="18"/>
         <v>1.5759699833332419</v>
       </c>
-    </row>
-    <row r="209" spans="1:15">
+      <c r="P208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A209">
         <v>208</v>
       </c>
@@ -10275,8 +10907,11 @@
         <f t="shared" si="18"/>
         <v>1.4519360187987524</v>
       </c>
-    </row>
-    <row r="210" spans="1:15">
+      <c r="P209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A210">
         <v>209</v>
       </c>
@@ -10321,8 +10956,11 @@
         <f t="shared" si="18"/>
         <v>1.737684723734231</v>
       </c>
-    </row>
-    <row r="211" spans="1:15">
+      <c r="P210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A211">
         <v>210</v>
       </c>
@@ -10367,8 +11005,11 @@
         <f t="shared" si="18"/>
         <v>1.7383595351109677</v>
       </c>
-    </row>
-    <row r="212" spans="1:15">
+      <c r="P211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A212">
         <v>211</v>
       </c>
@@ -10413,8 +11054,11 @@
         <f t="shared" si="18"/>
         <v>0.82921056524382797</v>
       </c>
-    </row>
-    <row r="213" spans="1:15">
+      <c r="P212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A213">
         <v>212</v>
       </c>
@@ -10459,8 +11103,11 @@
         <f t="shared" si="18"/>
         <v>1.3767171936022358</v>
       </c>
-    </row>
-    <row r="214" spans="1:15">
+      <c r="P213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A214">
         <v>213</v>
       </c>
@@ -10505,8 +11152,11 @@
         <f t="shared" si="18"/>
         <v>1.2127260026086688</v>
       </c>
-    </row>
-    <row r="215" spans="1:15">
+      <c r="P214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A215">
         <v>214</v>
       </c>
@@ -10551,8 +11201,11 @@
         <f t="shared" si="18"/>
         <v>1.1983671726831968</v>
       </c>
-    </row>
-    <row r="216" spans="1:15">
+      <c r="P215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A216">
         <v>215</v>
       </c>
@@ -10597,8 +11250,11 @@
         <f t="shared" si="18"/>
         <v>1.4966775536775909</v>
       </c>
-    </row>
-    <row r="217" spans="1:15">
+      <c r="P216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A217">
         <v>216</v>
       </c>
@@ -10643,8 +11299,11 @@
         <f t="shared" si="18"/>
         <v>1.2215986733165822</v>
       </c>
-    </row>
-    <row r="218" spans="1:15">
+      <c r="P217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A218">
         <v>217</v>
       </c>
@@ -10693,8 +11352,11 @@
         <f t="shared" si="18"/>
         <v>-3.3619258977130875E-2</v>
       </c>
-    </row>
-    <row r="219" spans="1:15">
+      <c r="P218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A219">
         <v>218</v>
       </c>
@@ -10739,8 +11401,11 @@
         <f t="shared" si="18"/>
         <v>1.4971433677156043</v>
       </c>
-    </row>
-    <row r="220" spans="1:15">
+      <c r="P219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A220">
         <v>219</v>
       </c>
@@ -10788,8 +11453,11 @@
         <f t="shared" si="18"/>
         <v>1.5624575084521326</v>
       </c>
-    </row>
-    <row r="221" spans="1:15">
+      <c r="P220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A221">
         <v>220</v>
       </c>
@@ -10834,8 +11502,11 @@
         <f t="shared" si="18"/>
         <v>1.2862041557653032</v>
       </c>
-    </row>
-    <row r="222" spans="1:15">
+      <c r="P221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A222">
         <v>221</v>
       </c>
@@ -10880,8 +11551,11 @@
         <f t="shared" si="18"/>
         <v>1.1047310736675995</v>
       </c>
-    </row>
-    <row r="223" spans="1:15">
+      <c r="P222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A223">
         <v>222</v>
       </c>
@@ -10926,8 +11600,11 @@
         <f t="shared" si="18"/>
         <v>1.2157541888863568</v>
       </c>
-    </row>
-    <row r="224" spans="1:15">
+      <c r="P223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A224">
         <v>223</v>
       </c>
@@ -10972,8 +11649,11 @@
         <f t="shared" si="18"/>
         <v>1.0326379548374203</v>
       </c>
-    </row>
-    <row r="225" spans="1:15">
+      <c r="P224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A225">
         <v>224</v>
       </c>
@@ -11018,8 +11698,11 @@
         <f t="shared" si="18"/>
         <v>1.5058397474224494</v>
       </c>
-    </row>
-    <row r="226" spans="1:15">
+      <c r="P225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A226">
         <v>225</v>
       </c>
@@ -11064,8 +11747,11 @@
         <f t="shared" si="18"/>
         <v>1.2531300576306978</v>
       </c>
-    </row>
-    <row r="227" spans="1:15">
+      <c r="P226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A227">
         <v>226</v>
       </c>
@@ -11110,8 +11796,11 @@
         <f t="shared" si="18"/>
         <v>1.2231590552343909</v>
       </c>
-    </row>
-    <row r="228" spans="1:15">
+      <c r="P227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A228">
         <v>227</v>
       </c>
@@ -11156,8 +11845,11 @@
         <f t="shared" si="18"/>
         <v>1.2055161711282714</v>
       </c>
-    </row>
-    <row r="229" spans="1:15">
+      <c r="P228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A229">
         <v>228</v>
       </c>
@@ -11202,8 +11894,11 @@
         <f t="shared" si="18"/>
         <v>1.072678726811112</v>
       </c>
-    </row>
-    <row r="230" spans="1:15">
+      <c r="P229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A230">
         <v>229</v>
       </c>
@@ -11248,8 +11943,11 @@
         <f t="shared" si="18"/>
         <v>1.2676065681276885</v>
       </c>
-    </row>
-    <row r="231" spans="1:15">
+      <c r="P230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A231">
         <v>230</v>
       </c>
@@ -11294,8 +11992,11 @@
         <f t="shared" si="18"/>
         <v>1.1300440807476027</v>
       </c>
-    </row>
-    <row r="232" spans="1:15">
+      <c r="P231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A232">
         <v>231</v>
       </c>
@@ -11340,8 +12041,11 @@
         <f t="shared" si="18"/>
         <v>1.2982946116936978</v>
       </c>
-    </row>
-    <row r="233" spans="1:15">
+      <c r="P232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A233">
         <v>232</v>
       </c>
@@ -11386,8 +12090,11 @@
         <f t="shared" si="18"/>
         <v>1.2406816990382457</v>
       </c>
-    </row>
-    <row r="234" spans="1:15">
+      <c r="P233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A234">
         <v>233</v>
       </c>
@@ -11432,8 +12139,11 @@
         <f t="shared" si="18"/>
         <v>1.3875963343820237</v>
       </c>
-    </row>
-    <row r="235" spans="1:15">
+      <c r="P234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A235">
         <v>234</v>
       </c>
@@ -11478,8 +12188,11 @@
         <f t="shared" si="18"/>
         <v>1.3100434638511982</v>
       </c>
-    </row>
-    <row r="236" spans="1:15">
+      <c r="P235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A236">
         <v>235</v>
       </c>
@@ -11524,8 +12237,11 @@
         <f t="shared" si="18"/>
         <v>1.2920985037344224</v>
       </c>
-    </row>
-    <row r="237" spans="1:15">
+      <c r="P236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A237">
         <v>236</v>
       </c>
@@ -11570,8 +12286,11 @@
         <f t="shared" si="18"/>
         <v>1.3327808082939094</v>
       </c>
-    </row>
-    <row r="238" spans="1:15">
+      <c r="P237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A238">
         <v>237</v>
       </c>
@@ -11620,8 +12339,11 @@
         <f t="shared" si="18"/>
         <v>-4.9238192835222037E-2</v>
       </c>
-    </row>
-    <row r="239" spans="1:15">
+      <c r="P238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A239">
         <v>238</v>
       </c>
@@ -11666,8 +12388,11 @@
         <f t="shared" si="18"/>
         <v>1.6476041480285208</v>
       </c>
-    </row>
-    <row r="240" spans="1:15">
+      <c r="P239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A240">
         <v>239</v>
       </c>
@@ -11712,8 +12437,11 @@
         <f t="shared" si="18"/>
         <v>-3.4011064214717974</v>
       </c>
-    </row>
-    <row r="241" spans="1:15">
+      <c r="P240">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A241">
         <v>240</v>
       </c>
@@ -11758,8 +12486,11 @@
         <f t="shared" si="18"/>
         <v>1.023338237626686</v>
       </c>
-    </row>
-    <row r="242" spans="1:15">
+      <c r="P241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A242">
         <v>241</v>
       </c>
@@ -11808,8 +12539,11 @@
         <f t="shared" si="18"/>
         <v>-4.3173860523931983E-2</v>
       </c>
-    </row>
-    <row r="243" spans="1:15">
+      <c r="P242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A243">
         <v>242</v>
       </c>
@@ -11854,8 +12588,11 @@
         <f t="shared" si="18"/>
         <v>1.1062953360960976</v>
       </c>
-    </row>
-    <row r="244" spans="1:15">
+      <c r="P243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A244">
         <v>243</v>
       </c>
@@ -11900,8 +12637,11 @@
         <f t="shared" si="18"/>
         <v>1.6991607743360675</v>
       </c>
-    </row>
-    <row r="245" spans="1:15">
+      <c r="P244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A245">
         <v>244</v>
       </c>
@@ -11946,8 +12686,11 @@
         <f t="shared" si="18"/>
         <v>1.3279289675181185</v>
       </c>
-    </row>
-    <row r="246" spans="1:15">
+      <c r="P245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A246">
         <v>245</v>
       </c>
@@ -11992,8 +12735,11 @@
         <f t="shared" si="18"/>
         <v>1.6172468402374247</v>
       </c>
-    </row>
-    <row r="247" spans="1:15">
+      <c r="P246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A247">
         <v>246</v>
       </c>
@@ -12038,8 +12784,11 @@
         <f t="shared" si="18"/>
         <v>1.3165762039146052</v>
       </c>
-    </row>
-    <row r="248" spans="1:15">
+      <c r="P247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A248">
         <v>247</v>
       </c>
@@ -12084,8 +12833,11 @@
         <f t="shared" si="18"/>
         <v>2.4583953461316135</v>
       </c>
-    </row>
-    <row r="249" spans="1:15">
+      <c r="P248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A249">
         <v>248</v>
       </c>
@@ -12130,8 +12882,11 @@
         <f t="shared" si="18"/>
         <v>1.5871202772412059</v>
       </c>
-    </row>
-    <row r="250" spans="1:15">
+      <c r="P249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A250">
         <v>249</v>
       </c>
@@ -12176,8 +12931,11 @@
         <f t="shared" si="18"/>
         <v>1.6991233249931581</v>
       </c>
-    </row>
-    <row r="251" spans="1:15">
+      <c r="P250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A251">
         <v>250</v>
       </c>
@@ -12222,8 +12980,11 @@
         <f t="shared" si="18"/>
         <v>1.3306760527334727</v>
       </c>
-    </row>
-    <row r="252" spans="1:15">
+      <c r="P251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A252">
         <v>251</v>
       </c>
@@ -12268,8 +13029,11 @@
         <f t="shared" si="18"/>
         <v>1.3603938309550889</v>
       </c>
-    </row>
-    <row r="253" spans="1:15">
+      <c r="P252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A253">
         <v>252</v>
       </c>
@@ -12314,8 +13078,11 @@
         <f t="shared" si="18"/>
         <v>1.6261270286515701</v>
       </c>
-    </row>
-    <row r="254" spans="1:15">
+      <c r="P253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A254">
         <v>253</v>
       </c>
@@ -12360,8 +13127,11 @@
         <f t="shared" si="18"/>
         <v>1.5070879596257338</v>
       </c>
-    </row>
-    <row r="255" spans="1:15">
+      <c r="P254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A255">
         <v>254</v>
       </c>
@@ -12406,8 +13176,11 @@
         <f t="shared" si="18"/>
         <v>1.5460523944650197</v>
       </c>
-    </row>
-    <row r="256" spans="1:15">
+      <c r="P255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A256">
         <v>255</v>
       </c>
@@ -12452,8 +13225,11 @@
         <f t="shared" si="18"/>
         <v>1.3630721151099503</v>
       </c>
-    </row>
-    <row r="257" spans="1:15">
+      <c r="P256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A257">
         <v>256</v>
       </c>
@@ -12498,8 +13274,11 @@
         <f t="shared" si="18"/>
         <v>1.1882884991430702</v>
       </c>
-    </row>
-    <row r="258" spans="1:15">
+      <c r="P257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A258">
         <v>257</v>
       </c>
@@ -12544,8 +13323,11 @@
         <f t="shared" ref="O258:O321" si="23">N258/M258*100</f>
         <v>1.2137550538633695</v>
       </c>
-    </row>
-    <row r="259" spans="1:15">
+      <c r="P258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A259">
         <v>258</v>
       </c>
@@ -12590,8 +13372,11 @@
         <f t="shared" si="23"/>
         <v>1.26520444803634</v>
       </c>
-    </row>
-    <row r="260" spans="1:15">
+      <c r="P259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A260">
         <v>259</v>
       </c>
@@ -12636,8 +13421,11 @@
         <f t="shared" si="23"/>
         <v>1.4499491822458284</v>
       </c>
-    </row>
-    <row r="261" spans="1:15">
+      <c r="P260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A261">
         <v>260</v>
       </c>
@@ -12682,8 +13470,11 @@
         <f t="shared" si="23"/>
         <v>1.3625540658463819</v>
       </c>
-    </row>
-    <row r="262" spans="1:15">
+      <c r="P261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A262">
         <v>261</v>
       </c>
@@ -12728,8 +13519,11 @@
         <f t="shared" si="23"/>
         <v>1.6413088240895399</v>
       </c>
-    </row>
-    <row r="263" spans="1:15">
+      <c r="P262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A263">
         <v>262</v>
       </c>
@@ -12774,8 +13568,11 @@
         <f t="shared" si="23"/>
         <v>1.5154726579058784</v>
       </c>
-    </row>
-    <row r="264" spans="1:15">
+      <c r="P263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A264">
         <v>263</v>
       </c>
@@ -12820,8 +13617,11 @@
         <f t="shared" si="23"/>
         <v>1.6736931172680745</v>
       </c>
-    </row>
-    <row r="265" spans="1:15">
+      <c r="P264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A265">
         <v>264</v>
       </c>
@@ -12866,8 +13666,11 @@
         <f t="shared" si="23"/>
         <v>1.4699603806943662</v>
       </c>
-    </row>
-    <row r="266" spans="1:15">
+      <c r="P265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A266">
         <v>265</v>
       </c>
@@ -12912,8 +13715,11 @@
         <f t="shared" si="23"/>
         <v>1.2603518176213215</v>
       </c>
-    </row>
-    <row r="267" spans="1:15">
+      <c r="P266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A267">
         <v>266</v>
       </c>
@@ -12958,8 +13764,11 @@
         <f t="shared" si="23"/>
         <v>1.7082427269590774</v>
       </c>
-    </row>
-    <row r="268" spans="1:15">
+      <c r="P267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A268">
         <v>267</v>
       </c>
@@ -13004,8 +13813,11 @@
         <f t="shared" si="23"/>
         <v>1.72717073914386</v>
       </c>
-    </row>
-    <row r="269" spans="1:15">
+      <c r="P268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A269">
         <v>268</v>
       </c>
@@ -13050,8 +13862,11 @@
         <f t="shared" si="23"/>
         <v>1.1961137243861351</v>
       </c>
-    </row>
-    <row r="270" spans="1:15">
+      <c r="P269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A270">
         <v>269</v>
       </c>
@@ -13096,8 +13911,11 @@
         <f t="shared" si="23"/>
         <v>1.6535349740322263</v>
       </c>
-    </row>
-    <row r="271" spans="1:15">
+      <c r="P270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A271">
         <v>270</v>
       </c>
@@ -13142,8 +13960,11 @@
         <f t="shared" si="23"/>
         <v>1.3342397889900108</v>
       </c>
-    </row>
-    <row r="272" spans="1:15">
+      <c r="P271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A272">
         <v>271</v>
       </c>
@@ -13192,8 +14013,11 @@
         <f t="shared" si="23"/>
         <v>-0.14272399413764436</v>
       </c>
-    </row>
-    <row r="273" spans="1:15">
+      <c r="P272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A273">
         <v>272</v>
       </c>
@@ -13238,8 +14062,11 @@
         <f t="shared" si="23"/>
         <v>1.1849070528123464</v>
       </c>
-    </row>
-    <row r="274" spans="1:15">
+      <c r="P273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A274">
         <v>273</v>
       </c>
@@ -13284,8 +14111,11 @@
         <f t="shared" si="23"/>
         <v>0.99555562292809696</v>
       </c>
-    </row>
-    <row r="275" spans="1:15">
+      <c r="P274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A275">
         <v>274</v>
       </c>
@@ -13330,8 +14160,11 @@
         <f t="shared" si="23"/>
         <v>1.3204774077695971</v>
       </c>
-    </row>
-    <row r="276" spans="1:15">
+      <c r="P275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A276">
         <v>275</v>
       </c>
@@ -13376,8 +14209,11 @@
         <f t="shared" si="23"/>
         <v>1.2466190328962001</v>
       </c>
-    </row>
-    <row r="277" spans="1:15">
+      <c r="P276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A277">
         <v>276</v>
       </c>
@@ -13422,8 +14258,11 @@
         <f t="shared" si="23"/>
         <v>1.2711171279185451</v>
       </c>
-    </row>
-    <row r="278" spans="1:15">
+      <c r="P277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A278">
         <v>277</v>
       </c>
@@ -13468,8 +14307,11 @@
         <f t="shared" si="23"/>
         <v>1.5515339091951317</v>
       </c>
-    </row>
-    <row r="279" spans="1:15">
+      <c r="P278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A279">
         <v>278</v>
       </c>
@@ -13514,8 +14356,11 @@
         <f t="shared" si="23"/>
         <v>1.5715735226814944</v>
       </c>
-    </row>
-    <row r="280" spans="1:15">
+      <c r="P279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A280">
         <v>279</v>
       </c>
@@ -13560,8 +14405,11 @@
         <f t="shared" si="23"/>
         <v>1.2476856829850986</v>
       </c>
-    </row>
-    <row r="281" spans="1:15">
+      <c r="P280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A281">
         <v>280</v>
       </c>
@@ -13606,8 +14454,11 @@
         <f t="shared" si="23"/>
         <v>1.8587690507232784</v>
       </c>
-    </row>
-    <row r="282" spans="1:15">
+      <c r="P281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A282">
         <v>281</v>
       </c>
@@ -13652,8 +14503,11 @@
         <f t="shared" si="23"/>
         <v>1.3298570252955402</v>
       </c>
-    </row>
-    <row r="283" spans="1:15">
+      <c r="P282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A283">
         <v>282</v>
       </c>
@@ -13698,8 +14552,11 @@
         <f t="shared" si="23"/>
         <v>1.2829443076201761</v>
       </c>
-    </row>
-    <row r="284" spans="1:15">
+      <c r="P283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A284">
         <v>283</v>
       </c>
@@ -13744,8 +14601,11 @@
         <f t="shared" si="23"/>
         <v>1.3194162458717684</v>
       </c>
-    </row>
-    <row r="285" spans="1:15">
+      <c r="P284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A285">
         <v>284</v>
       </c>
@@ -13790,8 +14650,11 @@
         <f t="shared" si="23"/>
         <v>0.95086400651209269</v>
       </c>
-    </row>
-    <row r="286" spans="1:15">
+      <c r="P285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A286">
         <v>285</v>
       </c>
@@ -13836,8 +14699,11 @@
         <f t="shared" si="23"/>
         <v>1.2843159697285673</v>
       </c>
-    </row>
-    <row r="287" spans="1:15">
+      <c r="P286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A287">
         <v>286</v>
       </c>
@@ -13882,8 +14748,11 @@
         <f t="shared" si="23"/>
         <v>0.60911210752609068</v>
       </c>
-    </row>
-    <row r="288" spans="1:15">
+      <c r="P287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A288">
         <v>287</v>
       </c>
@@ -13928,8 +14797,11 @@
         <f t="shared" si="23"/>
         <v>1.2711440993653713</v>
       </c>
-    </row>
-    <row r="289" spans="1:15">
+      <c r="P288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A289">
         <v>288</v>
       </c>
@@ -13974,8 +14846,11 @@
         <f t="shared" si="23"/>
         <v>0.8136275626821744</v>
       </c>
-    </row>
-    <row r="290" spans="1:15">
+      <c r="P289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A290">
         <v>289</v>
       </c>
@@ -14020,8 +14895,11 @@
         <f t="shared" si="23"/>
         <v>1.2747889801950538</v>
       </c>
-    </row>
-    <row r="291" spans="1:15">
+      <c r="P290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A291">
         <v>290</v>
       </c>
@@ -14066,8 +14944,11 @@
         <f t="shared" si="23"/>
         <v>1.2669969409142212</v>
       </c>
-    </row>
-    <row r="292" spans="1:15">
+      <c r="P291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A292">
         <v>291</v>
       </c>
@@ -14112,8 +14993,11 @@
         <f t="shared" si="23"/>
         <v>0.95797963895834815</v>
       </c>
-    </row>
-    <row r="293" spans="1:15">
+      <c r="P292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A293">
         <v>292</v>
       </c>
@@ -14158,8 +15042,11 @@
         <f t="shared" si="23"/>
         <v>1.9412801786947063</v>
       </c>
-    </row>
-    <row r="294" spans="1:15">
+      <c r="P293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A294">
         <v>293</v>
       </c>
@@ -14204,8 +15091,11 @@
         <f t="shared" si="23"/>
         <v>1.4972966166629191</v>
       </c>
-    </row>
-    <row r="295" spans="1:15">
+      <c r="P294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A295">
         <v>294</v>
       </c>
@@ -14250,8 +15140,11 @@
         <f t="shared" si="23"/>
         <v>1.3510101660681035</v>
       </c>
-    </row>
-    <row r="296" spans="1:15">
+      <c r="P295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A296">
         <v>295</v>
       </c>
@@ -14296,8 +15189,11 @@
         <f t="shared" si="23"/>
         <v>1.5960693446527865</v>
       </c>
-    </row>
-    <row r="297" spans="1:15">
+      <c r="P296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A297">
         <v>296</v>
       </c>
@@ -14342,8 +15238,11 @@
         <f t="shared" si="23"/>
         <v>1.1226348435970692</v>
       </c>
-    </row>
-    <row r="298" spans="1:15">
+      <c r="P297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A298">
         <v>297</v>
       </c>
@@ -14388,8 +15287,11 @@
         <f t="shared" si="23"/>
         <v>1.1699761747278405</v>
       </c>
-    </row>
-    <row r="299" spans="1:15">
+      <c r="P298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A299">
         <v>298</v>
       </c>
@@ -14434,8 +15336,11 @@
         <f t="shared" si="23"/>
         <v>1.081008196296035</v>
       </c>
-    </row>
-    <row r="300" spans="1:15">
+      <c r="P299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A300">
         <v>299</v>
       </c>
@@ -14484,8 +15389,11 @@
         <f t="shared" si="23"/>
         <v>-4.1867748157122867E-2</v>
       </c>
-    </row>
-    <row r="301" spans="1:15">
+      <c r="P300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A301">
         <v>300</v>
       </c>
@@ -14530,8 +15438,11 @@
         <f t="shared" si="23"/>
         <v>0.78695726084803563</v>
       </c>
-    </row>
-    <row r="302" spans="1:15">
+      <c r="P301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A302">
         <v>301</v>
       </c>
@@ -14576,8 +15487,11 @@
         <f t="shared" si="23"/>
         <v>1.167226869682221</v>
       </c>
-    </row>
-    <row r="303" spans="1:15">
+      <c r="P302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A303">
         <v>302</v>
       </c>
@@ -14622,8 +15536,11 @@
         <f t="shared" si="23"/>
         <v>1.4931550427763305</v>
       </c>
-    </row>
-    <row r="304" spans="1:15">
+      <c r="P303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A304">
         <v>303</v>
       </c>
@@ -14668,8 +15585,11 @@
         <f t="shared" si="23"/>
         <v>1.3479520091318662</v>
       </c>
-    </row>
-    <row r="305" spans="1:15">
+      <c r="P304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A305">
         <v>304</v>
       </c>
@@ -14714,8 +15634,11 @@
         <f t="shared" si="23"/>
         <v>18.909603821925074</v>
       </c>
-    </row>
-    <row r="306" spans="1:15">
+      <c r="P305">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A306">
         <v>305</v>
       </c>
@@ -14764,8 +15687,11 @@
         <f t="shared" si="23"/>
         <v>-3.6038408056797755E-2</v>
       </c>
-    </row>
-    <row r="307" spans="1:15">
+      <c r="P306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A307">
         <v>306</v>
       </c>
@@ -14810,8 +15736,11 @@
         <f t="shared" si="23"/>
         <v>1.0951722122569567</v>
       </c>
-    </row>
-    <row r="308" spans="1:15">
+      <c r="P307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A308">
         <v>307</v>
       </c>
@@ -14856,8 +15785,11 @@
         <f t="shared" si="23"/>
         <v>1.2370457379657485</v>
       </c>
-    </row>
-    <row r="309" spans="1:15">
+      <c r="P308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A309">
         <v>308</v>
       </c>
@@ -14902,8 +15834,11 @@
         <f t="shared" si="23"/>
         <v>1.0880033194624048</v>
       </c>
-    </row>
-    <row r="310" spans="1:15">
+      <c r="P309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A310">
         <v>309</v>
       </c>
@@ -14948,8 +15883,11 @@
         <f t="shared" si="23"/>
         <v>1.0443752629614924</v>
       </c>
-    </row>
-    <row r="311" spans="1:15">
+      <c r="P310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A311">
         <v>310</v>
       </c>
@@ -14994,8 +15932,11 @@
         <f t="shared" si="23"/>
         <v>1.6350162847066623</v>
       </c>
-    </row>
-    <row r="312" spans="1:15">
+      <c r="P311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A312">
         <v>311</v>
       </c>
@@ -15044,8 +15985,11 @@
         <f t="shared" si="23"/>
         <v>-6.8763131848096126E-2</v>
       </c>
-    </row>
-    <row r="313" spans="1:15">
+      <c r="P312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A313">
         <v>312</v>
       </c>
@@ -15090,8 +16034,11 @@
         <f t="shared" si="23"/>
         <v>1.2734340711016388</v>
       </c>
-    </row>
-    <row r="314" spans="1:15">
+      <c r="P313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A314">
         <v>313</v>
       </c>
@@ -15140,8 +16087,11 @@
         <f t="shared" si="23"/>
         <v>-3.979412347634384E-2</v>
       </c>
-    </row>
-    <row r="315" spans="1:15">
+      <c r="P314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A315">
         <v>314</v>
       </c>
@@ -15186,8 +16136,11 @@
         <f t="shared" si="23"/>
         <v>1.3638965576239575</v>
       </c>
-    </row>
-    <row r="316" spans="1:15">
+      <c r="P315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A316">
         <v>315</v>
       </c>
@@ -15232,8 +16185,11 @@
         <f t="shared" si="23"/>
         <v>1.376483509421726</v>
       </c>
-    </row>
-    <row r="317" spans="1:15">
+      <c r="P316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A317">
         <v>316</v>
       </c>
@@ -15278,8 +16234,11 @@
         <f t="shared" si="23"/>
         <v>1.3890818941318468</v>
       </c>
-    </row>
-    <row r="318" spans="1:15">
+      <c r="P317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A318">
         <v>317</v>
       </c>
@@ -15324,8 +16283,11 @@
         <f t="shared" si="23"/>
         <v>1.4164211522539993</v>
       </c>
-    </row>
-    <row r="319" spans="1:15">
+      <c r="P318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A319">
         <v>318</v>
       </c>
@@ -15370,8 +16332,11 @@
         <f t="shared" si="23"/>
         <v>1.5538898519178588</v>
       </c>
-    </row>
-    <row r="320" spans="1:15">
+      <c r="P319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A320">
         <v>319</v>
       </c>
@@ -15416,8 +16381,11 @@
         <f t="shared" si="23"/>
         <v>1.4247881848731392</v>
       </c>
-    </row>
-    <row r="321" spans="1:15">
+      <c r="P320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A321">
         <v>320</v>
       </c>
@@ -15462,8 +16430,11 @@
         <f t="shared" si="23"/>
         <v>1.2766940105475195</v>
       </c>
-    </row>
-    <row r="322" spans="1:15">
+      <c r="P321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A322">
         <v>321</v>
       </c>
@@ -15512,8 +16483,11 @@
         <f t="shared" ref="O322:O385" si="28">N322/M322*100</f>
         <v>-0.11503253986011239</v>
       </c>
-    </row>
-    <row r="323" spans="1:15">
+      <c r="P322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A323">
         <v>322</v>
       </c>
@@ -15558,8 +16532,11 @@
         <f t="shared" si="28"/>
         <v>1.3749548153885773</v>
       </c>
-    </row>
-    <row r="324" spans="1:15">
+      <c r="P323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A324">
         <v>323</v>
       </c>
@@ -15604,8 +16581,11 @@
         <f t="shared" si="28"/>
         <v>1.6962443512005396</v>
       </c>
-    </row>
-    <row r="325" spans="1:15">
+      <c r="P324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A325">
         <v>324</v>
       </c>
@@ -15650,8 +16630,11 @@
         <f t="shared" si="28"/>
         <v>1.4504532270943395</v>
       </c>
-    </row>
-    <row r="326" spans="1:15">
+      <c r="P325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A326">
         <v>325</v>
       </c>
@@ -15696,8 +16679,11 @@
         <f t="shared" si="28"/>
         <v>1.3850195758272899</v>
       </c>
-    </row>
-    <row r="327" spans="1:15">
+      <c r="P326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A327">
         <v>326</v>
       </c>
@@ -15742,8 +16728,11 @@
         <f t="shared" si="28"/>
         <v>1.1849093507565363</v>
       </c>
-    </row>
-    <row r="328" spans="1:15">
+      <c r="P327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A328">
         <v>327</v>
       </c>
@@ -15792,8 +16781,11 @@
         <f t="shared" si="28"/>
         <v>-6.8258451474050366E-2</v>
       </c>
-    </row>
-    <row r="329" spans="1:15">
+      <c r="P328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A329">
         <v>328</v>
       </c>
@@ -15838,8 +16830,11 @@
         <f t="shared" si="28"/>
         <v>1.5218556798320435</v>
       </c>
-    </row>
-    <row r="330" spans="1:15">
+      <c r="P329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A330">
         <v>329</v>
       </c>
@@ -15884,8 +16879,11 @@
         <f t="shared" si="28"/>
         <v>1.1083502675061419</v>
       </c>
-    </row>
-    <row r="331" spans="1:15">
+      <c r="P330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A331">
         <v>330</v>
       </c>
@@ -15930,8 +16928,11 @@
         <f t="shared" si="28"/>
         <v>1.4322195691869555</v>
       </c>
-    </row>
-    <row r="332" spans="1:15">
+      <c r="P331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A332">
         <v>331</v>
       </c>
@@ -15976,8 +16977,11 @@
         <f t="shared" si="28"/>
         <v>1.3221933086605753</v>
       </c>
-    </row>
-    <row r="333" spans="1:15">
+      <c r="P332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A333">
         <v>332</v>
       </c>
@@ -16026,8 +17030,11 @@
         <f t="shared" si="28"/>
         <v>-8.7254157584080713E-2</v>
       </c>
-    </row>
-    <row r="334" spans="1:15">
+      <c r="P333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A334">
         <v>333</v>
       </c>
@@ -16072,8 +17079,11 @@
         <f t="shared" si="28"/>
         <v>1.4444858034862644</v>
       </c>
-    </row>
-    <row r="335" spans="1:15">
+      <c r="P334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A335">
         <v>334</v>
       </c>
@@ -16122,8 +17132,11 @@
         <f t="shared" si="28"/>
         <v>-0.48454025417085456</v>
       </c>
-    </row>
-    <row r="336" spans="1:15">
+      <c r="P335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A336">
         <v>335</v>
       </c>
@@ -16168,8 +17181,11 @@
         <f t="shared" si="28"/>
         <v>1.243318686766762</v>
       </c>
-    </row>
-    <row r="337" spans="1:15">
+      <c r="P336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A337">
         <v>336</v>
       </c>
@@ -16214,8 +17230,11 @@
         <f t="shared" si="28"/>
         <v>1.3179151256773709</v>
       </c>
-    </row>
-    <row r="338" spans="1:15">
+      <c r="P337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A338">
         <v>337</v>
       </c>
@@ -16264,8 +17283,11 @@
         <f t="shared" si="28"/>
         <v>-0.56512693440552653</v>
       </c>
-    </row>
-    <row r="339" spans="1:15">
+      <c r="P338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A339">
         <v>338</v>
       </c>
@@ -16310,8 +17332,11 @@
         <f t="shared" si="28"/>
         <v>1.492812579818521</v>
       </c>
-    </row>
-    <row r="340" spans="1:15">
+      <c r="P339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A340">
         <v>339</v>
       </c>
@@ -16356,8 +17381,11 @@
         <f t="shared" si="28"/>
         <v>1.5553728631085963</v>
       </c>
-    </row>
-    <row r="341" spans="1:15">
+      <c r="P340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A341">
         <v>340</v>
       </c>
@@ -16402,8 +17430,11 @@
         <f t="shared" si="28"/>
         <v>1.0958003598422075</v>
       </c>
-    </row>
-    <row r="342" spans="1:15">
+      <c r="P341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A342">
         <v>341</v>
       </c>
@@ -16448,8 +17479,11 @@
         <f t="shared" si="28"/>
         <v>1.48176012795881</v>
       </c>
-    </row>
-    <row r="343" spans="1:15">
+      <c r="P342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A343">
         <v>342</v>
       </c>
@@ -16494,8 +17528,11 @@
         <f t="shared" si="28"/>
         <v>1.5588346513501947</v>
       </c>
-    </row>
-    <row r="344" spans="1:15">
+      <c r="P343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A344">
         <v>343</v>
       </c>
@@ -16540,8 +17577,11 @@
         <f t="shared" si="28"/>
         <v>0.92808432445953049</v>
       </c>
-    </row>
-    <row r="345" spans="1:15">
+      <c r="P344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A345">
         <v>344</v>
       </c>
@@ -16586,8 +17626,11 @@
         <f t="shared" si="28"/>
         <v>1.6408554677084841</v>
       </c>
-    </row>
-    <row r="346" spans="1:15">
+      <c r="P345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A346">
         <v>345</v>
       </c>
@@ -16632,8 +17675,11 @@
         <f t="shared" si="28"/>
         <v>1.7336566595667922</v>
       </c>
-    </row>
-    <row r="347" spans="1:15">
+      <c r="P346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A347">
         <v>346</v>
       </c>
@@ -16678,8 +17724,11 @@
         <f t="shared" si="28"/>
         <v>1.5944271936092522</v>
       </c>
-    </row>
-    <row r="348" spans="1:15">
+      <c r="P347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A348">
         <v>347</v>
       </c>
@@ -16724,8 +17773,11 @@
         <f t="shared" si="28"/>
         <v>1.68478435784679</v>
       </c>
-    </row>
-    <row r="349" spans="1:15">
+      <c r="P348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A349">
         <v>348</v>
       </c>
@@ -16774,8 +17826,11 @@
         <f t="shared" si="28"/>
         <v>-3.4940297288040753E-2</v>
       </c>
-    </row>
-    <row r="350" spans="1:15">
+      <c r="P349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A350">
         <v>349</v>
       </c>
@@ -16820,8 +17875,11 @@
         <f t="shared" si="28"/>
         <v>1.5563483267577944</v>
       </c>
-    </row>
-    <row r="351" spans="1:15">
+      <c r="P350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A351">
         <v>350</v>
       </c>
@@ -16866,8 +17924,11 @@
         <f t="shared" si="28"/>
         <v>1.5840730617341134</v>
       </c>
-    </row>
-    <row r="352" spans="1:15">
+      <c r="P351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A352">
         <v>351</v>
       </c>
@@ -16912,8 +17973,11 @@
         <f t="shared" si="28"/>
         <v>1.3170907515593033</v>
       </c>
-    </row>
-    <row r="353" spans="1:15">
+      <c r="P352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A353">
         <v>352</v>
       </c>
@@ -16958,8 +18022,11 @@
         <f t="shared" si="28"/>
         <v>0.6010658542274856</v>
       </c>
-    </row>
-    <row r="354" spans="1:15">
+      <c r="P353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A354">
         <v>353</v>
       </c>
@@ -17004,8 +18071,11 @@
         <f t="shared" si="28"/>
         <v>1.3870016438031403</v>
       </c>
-    </row>
-    <row r="355" spans="1:15">
+      <c r="P354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A355">
         <v>354</v>
       </c>
@@ -17050,8 +18120,11 @@
         <f t="shared" si="28"/>
         <v>1.3101327130413101</v>
       </c>
-    </row>
-    <row r="356" spans="1:15">
+      <c r="P355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A356">
         <v>355</v>
       </c>
@@ -17096,8 +18169,11 @@
         <f t="shared" si="28"/>
         <v>1.5030615858178995</v>
       </c>
-    </row>
-    <row r="357" spans="1:15">
+      <c r="P356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A357">
         <v>356</v>
       </c>
@@ -17145,8 +18221,11 @@
         <f t="shared" si="28"/>
         <v>1.5611498663958219</v>
       </c>
-    </row>
-    <row r="358" spans="1:15">
+      <c r="P357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A358">
         <v>357</v>
       </c>
@@ -17191,8 +18270,11 @@
         <f t="shared" si="28"/>
         <v>1.3886922029137401</v>
       </c>
-    </row>
-    <row r="359" spans="1:15">
+      <c r="P358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A359">
         <v>358</v>
       </c>
@@ -17237,8 +18319,11 @@
         <f t="shared" si="28"/>
         <v>1.4461945531133329</v>
       </c>
-    </row>
-    <row r="360" spans="1:15">
+      <c r="P359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A360">
         <v>359</v>
       </c>
@@ -17283,8 +18368,11 @@
         <f t="shared" si="28"/>
         <v>1.486617008823913</v>
       </c>
-    </row>
-    <row r="361" spans="1:15">
+      <c r="P360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A361">
         <v>360</v>
       </c>
@@ -17329,8 +18417,11 @@
         <f t="shared" si="28"/>
         <v>1.2271363046527637</v>
       </c>
-    </row>
-    <row r="362" spans="1:15">
+      <c r="P361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A362">
         <v>361</v>
       </c>
@@ -17375,8 +18466,11 @@
         <f t="shared" si="28"/>
         <v>1.4171213201227784</v>
       </c>
-    </row>
-    <row r="363" spans="1:15">
+      <c r="P362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A363">
         <v>362</v>
       </c>
@@ -17421,8 +18515,11 @@
         <f t="shared" si="28"/>
         <v>1.6282073121548384</v>
       </c>
-    </row>
-    <row r="364" spans="1:15">
+      <c r="P363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A364">
         <v>363</v>
       </c>
@@ -17467,8 +18564,11 @@
         <f t="shared" si="28"/>
         <v>1.1940011426258881</v>
       </c>
-    </row>
-    <row r="365" spans="1:15">
+      <c r="P364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A365">
         <v>364</v>
       </c>
@@ -17513,8 +18613,11 @@
         <f t="shared" si="28"/>
         <v>1.7919371600379288</v>
       </c>
-    </row>
-    <row r="366" spans="1:15">
+      <c r="P365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A366">
         <v>365</v>
       </c>
@@ -17559,8 +18662,11 @@
         <f t="shared" si="28"/>
         <v>1.0290549801592639</v>
       </c>
-    </row>
-    <row r="367" spans="1:15">
+      <c r="P366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A367">
         <v>366</v>
       </c>
@@ -17605,8 +18711,11 @@
         <f t="shared" si="28"/>
         <v>1.1425804502829149</v>
       </c>
-    </row>
-    <row r="368" spans="1:15">
+      <c r="P367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A368">
         <v>367</v>
       </c>
@@ -17651,8 +18760,11 @@
         <f t="shared" si="28"/>
         <v>0.93139544562452581</v>
       </c>
-    </row>
-    <row r="369" spans="1:15">
+      <c r="P368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A369">
         <v>368</v>
       </c>
@@ -17697,8 +18809,11 @@
         <f t="shared" si="28"/>
         <v>1.344075568158807</v>
       </c>
-    </row>
-    <row r="370" spans="1:15">
+      <c r="P369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A370">
         <v>369</v>
       </c>
@@ -17743,8 +18858,11 @@
         <f t="shared" si="28"/>
         <v>1.1602156500958072</v>
       </c>
-    </row>
-    <row r="371" spans="1:15">
+      <c r="P370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A371">
         <v>370</v>
       </c>
@@ -17789,8 +18907,11 @@
         <f t="shared" si="28"/>
         <v>1.1375498407669782</v>
       </c>
-    </row>
-    <row r="372" spans="1:15">
+      <c r="P371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A372">
         <v>371</v>
       </c>
@@ -17835,8 +18956,11 @@
         <f t="shared" si="28"/>
         <v>1.334391985953032</v>
       </c>
-    </row>
-    <row r="373" spans="1:15">
+      <c r="P372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A373">
         <v>372</v>
       </c>
@@ -17881,8 +19005,11 @@
         <f t="shared" si="28"/>
         <v>1.0393488636974213</v>
       </c>
-    </row>
-    <row r="374" spans="1:15">
+      <c r="P373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A374">
         <v>373</v>
       </c>
@@ -17927,8 +19054,11 @@
         <f t="shared" si="28"/>
         <v>1.4227519279731486</v>
       </c>
-    </row>
-    <row r="375" spans="1:15">
+      <c r="P374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A375">
         <v>374</v>
       </c>
@@ -17973,8 +19103,11 @@
         <f t="shared" si="28"/>
         <v>1.1336739322601621</v>
       </c>
-    </row>
-    <row r="376" spans="1:15">
+      <c r="P375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A376">
         <v>375</v>
       </c>
@@ -18019,8 +19152,11 @@
         <f t="shared" si="28"/>
         <v>1.763888867005011</v>
       </c>
-    </row>
-    <row r="377" spans="1:15">
+      <c r="P376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A377">
         <v>376</v>
       </c>
@@ -18065,8 +19201,11 @@
         <f t="shared" si="28"/>
         <v>1.3208549093565489</v>
       </c>
-    </row>
-    <row r="378" spans="1:15">
+      <c r="P377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A378">
         <v>377</v>
       </c>
@@ -18111,8 +19250,11 @@
         <f t="shared" si="28"/>
         <v>1.4483645421107785</v>
       </c>
-    </row>
-    <row r="379" spans="1:15">
+      <c r="P378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A379">
         <v>378</v>
       </c>
@@ -18157,8 +19299,11 @@
         <f t="shared" si="28"/>
         <v>1.4209446749966719</v>
       </c>
-    </row>
-    <row r="380" spans="1:15">
+      <c r="P379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A380">
         <v>379</v>
       </c>
@@ -18203,8 +19348,11 @@
         <f t="shared" si="28"/>
         <v>1.2284409311146998</v>
       </c>
-    </row>
-    <row r="381" spans="1:15">
+      <c r="P380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A381">
         <v>380</v>
       </c>
@@ -18249,8 +19397,11 @@
         <f t="shared" si="28"/>
         <v>1.1796563648084795</v>
       </c>
-    </row>
-    <row r="382" spans="1:15">
+      <c r="P381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A382">
         <v>381</v>
       </c>
@@ -18295,8 +19446,11 @@
         <f t="shared" si="28"/>
         <v>1.4668694240496452</v>
       </c>
-    </row>
-    <row r="383" spans="1:15">
+      <c r="P382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A383">
         <v>382</v>
       </c>
@@ -18341,8 +19495,11 @@
         <f t="shared" si="28"/>
         <v>1.0502655033599051</v>
       </c>
-    </row>
-    <row r="384" spans="1:15">
+      <c r="P383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A384">
         <v>383</v>
       </c>
@@ -18387,8 +19544,11 @@
         <f t="shared" si="28"/>
         <v>1.4918840430374276</v>
       </c>
-    </row>
-    <row r="385" spans="1:15">
+      <c r="P384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A385">
         <v>384</v>
       </c>
@@ -18433,8 +19593,11 @@
         <f t="shared" si="28"/>
         <v>1.0614020295579152</v>
       </c>
-    </row>
-    <row r="386" spans="1:15">
+      <c r="P385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A386">
         <v>385</v>
       </c>
@@ -18479,8 +19642,11 @@
         <f t="shared" ref="O386:O449" si="33">N386/M386*100</f>
         <v>1.0116739115047668</v>
       </c>
-    </row>
-    <row r="387" spans="1:15">
+      <c r="P386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A387">
         <v>386</v>
       </c>
@@ -18525,8 +19691,11 @@
         <f t="shared" si="33"/>
         <v>1.6229330768568917</v>
       </c>
-    </row>
-    <row r="388" spans="1:15">
+      <c r="P387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A388">
         <v>387</v>
       </c>
@@ -18571,8 +19740,11 @@
         <f t="shared" si="33"/>
         <v>1.0397784698877148</v>
       </c>
-    </row>
-    <row r="389" spans="1:15">
+      <c r="P388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A389">
         <v>388</v>
       </c>
@@ -18617,8 +19789,11 @@
         <f t="shared" si="33"/>
         <v>1.4589659718780115</v>
       </c>
-    </row>
-    <row r="390" spans="1:15">
+      <c r="P389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A390">
         <v>389</v>
       </c>
@@ -18663,8 +19838,11 @@
         <f t="shared" si="33"/>
         <v>1.201949065462492</v>
       </c>
-    </row>
-    <row r="391" spans="1:15">
+      <c r="P390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A391">
         <v>390</v>
       </c>
@@ -18709,8 +19887,11 @@
         <f t="shared" si="33"/>
         <v>1.0368511049645179</v>
       </c>
-    </row>
-    <row r="392" spans="1:15">
+      <c r="P391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A392">
         <v>391</v>
       </c>
@@ -18755,8 +19936,11 @@
         <f t="shared" si="33"/>
         <v>1.1780573516765445</v>
       </c>
-    </row>
-    <row r="393" spans="1:15">
+      <c r="P392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A393">
         <v>392</v>
       </c>
@@ -18801,8 +19985,11 @@
         <f t="shared" si="33"/>
         <v>1.3889283040618101</v>
       </c>
-    </row>
-    <row r="394" spans="1:15">
+      <c r="P393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A394">
         <v>393</v>
       </c>
@@ -18847,8 +20034,11 @@
         <f t="shared" si="33"/>
         <v>1.293934381580619</v>
       </c>
-    </row>
-    <row r="395" spans="1:15">
+      <c r="P394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A395">
         <v>394</v>
       </c>
@@ -18893,8 +20083,11 @@
         <f t="shared" si="33"/>
         <v>0.61862950372831427</v>
       </c>
-    </row>
-    <row r="396" spans="1:15">
+      <c r="P395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A396">
         <v>395</v>
       </c>
@@ -18939,8 +20132,11 @@
         <f t="shared" si="33"/>
         <v>1.4781813741566747</v>
       </c>
-    </row>
-    <row r="397" spans="1:15">
+      <c r="P396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A397">
         <v>396</v>
       </c>
@@ -18985,8 +20181,11 @@
         <f t="shared" si="33"/>
         <v>1.5898786662368685</v>
       </c>
-    </row>
-    <row r="398" spans="1:15">
+      <c r="P397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A398">
         <v>397</v>
       </c>
@@ -19031,8 +20230,11 @@
         <f t="shared" si="33"/>
         <v>1.1835174717368966</v>
       </c>
-    </row>
-    <row r="399" spans="1:15">
+      <c r="P398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A399">
         <v>398</v>
       </c>
@@ -19077,8 +20279,11 @@
         <f t="shared" si="33"/>
         <v>1.3109161884437937</v>
       </c>
-    </row>
-    <row r="400" spans="1:15">
+      <c r="P399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A400">
         <v>399</v>
       </c>
@@ -19123,8 +20328,11 @@
         <f t="shared" si="33"/>
         <v>1.6327858308551795</v>
       </c>
-    </row>
-    <row r="401" spans="1:15">
+      <c r="P400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A401">
         <v>400</v>
       </c>
@@ -19169,8 +20377,11 @@
         <f t="shared" si="33"/>
         <v>0.99639403654531777</v>
       </c>
-    </row>
-    <row r="402" spans="1:15">
+      <c r="P401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A402">
         <v>401</v>
       </c>
@@ -19215,8 +20426,11 @@
         <f t="shared" si="33"/>
         <v>0.96537305970908049</v>
       </c>
-    </row>
-    <row r="403" spans="1:15">
+      <c r="P402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A403">
         <v>402</v>
       </c>
@@ -19261,8 +20475,11 @@
         <f t="shared" si="33"/>
         <v>1.3786240845743221</v>
       </c>
-    </row>
-    <row r="404" spans="1:15">
+      <c r="P403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A404">
         <v>403</v>
       </c>
@@ -19307,8 +20524,11 @@
         <f t="shared" si="33"/>
         <v>1.0978355649427318</v>
       </c>
-    </row>
-    <row r="405" spans="1:15">
+      <c r="P404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A405">
         <v>404</v>
       </c>
@@ -19353,8 +20573,11 @@
         <f t="shared" si="33"/>
         <v>1.2505015252584619</v>
       </c>
-    </row>
-    <row r="406" spans="1:15">
+      <c r="P405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A406">
         <v>405</v>
       </c>
@@ -19403,8 +20626,11 @@
         <f t="shared" si="33"/>
         <v>-0.13162649047642389</v>
       </c>
-    </row>
-    <row r="407" spans="1:15">
+      <c r="P406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A407">
         <v>406</v>
       </c>
@@ -19449,8 +20675,11 @@
         <f t="shared" si="33"/>
         <v>1.3404094206964798</v>
       </c>
-    </row>
-    <row r="408" spans="1:15">
+      <c r="P407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A408">
         <v>407</v>
       </c>
@@ -19495,8 +20724,11 @@
         <f t="shared" si="33"/>
         <v>1.4892522955316634</v>
       </c>
-    </row>
-    <row r="409" spans="1:15">
+      <c r="P408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A409">
         <v>408</v>
       </c>
@@ -19541,8 +20773,11 @@
         <f t="shared" si="33"/>
         <v>1.4044521944364852</v>
       </c>
-    </row>
-    <row r="410" spans="1:15">
+      <c r="P409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A410">
         <v>409</v>
       </c>
@@ -19587,8 +20822,11 @@
         <f t="shared" si="33"/>
         <v>1.3075873742986652</v>
       </c>
-    </row>
-    <row r="411" spans="1:15">
+      <c r="P410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A411">
         <v>410</v>
       </c>
@@ -19633,8 +20871,11 @@
         <f t="shared" si="33"/>
         <v>0.96730520729554847</v>
       </c>
-    </row>
-    <row r="412" spans="1:15">
+      <c r="P411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A412">
         <v>411</v>
       </c>
@@ -19679,8 +20920,11 @@
         <f t="shared" si="33"/>
         <v>1.1888138763274787</v>
       </c>
-    </row>
-    <row r="413" spans="1:15">
+      <c r="P412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A413">
         <v>412</v>
       </c>
@@ -19725,8 +20969,11 @@
         <f t="shared" si="33"/>
         <v>1.601331544188803</v>
       </c>
-    </row>
-    <row r="414" spans="1:15">
+      <c r="P413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A414">
         <v>413</v>
       </c>
@@ -19771,8 +21018,11 @@
         <f t="shared" si="33"/>
         <v>0.78567693465443522</v>
       </c>
-    </row>
-    <row r="415" spans="1:15">
+      <c r="P414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A415">
         <v>414</v>
       </c>
@@ -19817,8 +21067,11 @@
         <f t="shared" si="33"/>
         <v>0.95293480467494895</v>
       </c>
-    </row>
-    <row r="416" spans="1:15">
+      <c r="P415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A416">
         <v>415</v>
       </c>
@@ -19863,8 +21116,11 @@
         <f t="shared" si="33"/>
         <v>1.1752762484869739</v>
       </c>
-    </row>
-    <row r="417" spans="1:15">
+      <c r="P416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A417">
         <v>416</v>
       </c>
@@ -19909,8 +21165,11 @@
         <f t="shared" si="33"/>
         <v>1.0131630578247002</v>
       </c>
-    </row>
-    <row r="418" spans="1:15">
+      <c r="P417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A418">
         <v>417</v>
       </c>
@@ -19955,8 +21214,11 @@
         <f t="shared" si="33"/>
         <v>1.1021853289894519</v>
       </c>
-    </row>
-    <row r="419" spans="1:15">
+      <c r="P418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A419">
         <v>418</v>
       </c>
@@ -20001,8 +21263,11 @@
         <f t="shared" si="33"/>
         <v>1.3897438819727017</v>
       </c>
-    </row>
-    <row r="420" spans="1:15">
+      <c r="P419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A420">
         <v>419</v>
       </c>
@@ -20047,8 +21312,11 @@
         <f t="shared" si="33"/>
         <v>1.2342290936813174</v>
       </c>
-    </row>
-    <row r="421" spans="1:15">
+      <c r="P420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A421">
         <v>420</v>
       </c>
@@ -20093,8 +21361,11 @@
         <f t="shared" si="33"/>
         <v>1.3374589263463579</v>
       </c>
-    </row>
-    <row r="422" spans="1:15">
+      <c r="P421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A422">
         <v>421</v>
       </c>
@@ -20139,8 +21410,11 @@
         <f t="shared" si="33"/>
         <v>1.7450313241633257</v>
       </c>
-    </row>
-    <row r="423" spans="1:15">
+      <c r="P422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A423">
         <v>422</v>
       </c>
@@ -20185,8 +21459,11 @@
         <f t="shared" si="33"/>
         <v>1.5819790177846218</v>
       </c>
-    </row>
-    <row r="424" spans="1:15">
+      <c r="P423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A424">
         <v>423</v>
       </c>
@@ -20231,8 +21508,11 @@
         <f t="shared" si="33"/>
         <v>1.4898478191340554</v>
       </c>
-    </row>
-    <row r="425" spans="1:15">
+      <c r="P424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A425">
         <v>424</v>
       </c>
@@ -20277,8 +21557,11 @@
         <f t="shared" si="33"/>
         <v>1.5669346942782862</v>
       </c>
-    </row>
-    <row r="426" spans="1:15">
+      <c r="P425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A426">
         <v>425</v>
       </c>
@@ -20323,8 +21606,11 @@
         <f t="shared" si="33"/>
         <v>1.6873625163812123</v>
       </c>
-    </row>
-    <row r="427" spans="1:15">
+      <c r="P426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A427">
         <v>426</v>
       </c>
@@ -20369,8 +21655,11 @@
         <f t="shared" si="33"/>
         <v>1.9406092635783923</v>
       </c>
-    </row>
-    <row r="428" spans="1:15">
+      <c r="P427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A428">
         <v>427</v>
       </c>
@@ -20415,8 +21704,11 @@
         <f t="shared" si="33"/>
         <v>1.574631323437502</v>
       </c>
-    </row>
-    <row r="429" spans="1:15">
+      <c r="P428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A429">
         <v>428</v>
       </c>
@@ -20461,8 +21753,11 @@
         <f t="shared" si="33"/>
         <v>1.0243213347291731</v>
       </c>
-    </row>
-    <row r="430" spans="1:15">
+      <c r="P429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A430">
         <v>429</v>
       </c>
@@ -20507,8 +21802,11 @@
         <f t="shared" si="33"/>
         <v>1.3612121010369496</v>
       </c>
-    </row>
-    <row r="431" spans="1:15">
+      <c r="P430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A431">
         <v>430</v>
       </c>
@@ -20553,8 +21851,11 @@
         <f t="shared" si="33"/>
         <v>1.1927813522402031</v>
       </c>
-    </row>
-    <row r="432" spans="1:15">
+      <c r="P431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A432">
         <v>431</v>
       </c>
@@ -20599,8 +21900,11 @@
         <f t="shared" si="33"/>
         <v>1.0771973788638738</v>
       </c>
-    </row>
-    <row r="433" spans="1:15">
+      <c r="P432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A433">
         <v>432</v>
       </c>
@@ -20645,8 +21949,11 @@
         <f t="shared" si="33"/>
         <v>1.4004081597519873</v>
       </c>
-    </row>
-    <row r="434" spans="1:15">
+      <c r="P433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A434">
         <v>433</v>
       </c>
@@ -20691,8 +21998,11 @@
         <f t="shared" si="33"/>
         <v>1.0939153335754197</v>
       </c>
-    </row>
-    <row r="435" spans="1:15">
+      <c r="P434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A435">
         <v>434</v>
       </c>
@@ -20737,8 +22047,11 @@
         <f t="shared" si="33"/>
         <v>1.3226128914754796</v>
       </c>
-    </row>
-    <row r="436" spans="1:15">
+      <c r="P435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A436">
         <v>435</v>
       </c>
@@ -20783,8 +22096,11 @@
         <f t="shared" si="33"/>
         <v>0.77429009719745956</v>
       </c>
-    </row>
-    <row r="437" spans="1:15">
+      <c r="P436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A437">
         <v>436</v>
       </c>
@@ -20829,8 +22145,11 @@
         <f t="shared" si="33"/>
         <v>1.2521812954522082</v>
       </c>
-    </row>
-    <row r="438" spans="1:15">
+      <c r="P437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A438">
         <v>437</v>
       </c>
@@ -20879,8 +22198,11 @@
         <f t="shared" si="33"/>
         <v>1.8623006483202329</v>
       </c>
-    </row>
-    <row r="439" spans="1:15">
+      <c r="P438">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A439">
         <v>438</v>
       </c>
@@ -20925,8 +22247,11 @@
         <f t="shared" si="33"/>
         <v>1.2466696251345162</v>
       </c>
-    </row>
-    <row r="440" spans="1:15">
+      <c r="P439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A440">
         <v>439</v>
       </c>
@@ -20971,8 +22296,11 @@
         <f t="shared" si="33"/>
         <v>1.1083728459729401</v>
       </c>
-    </row>
-    <row r="441" spans="1:15">
+      <c r="P440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A441">
         <v>440</v>
       </c>
@@ -21017,8 +22345,11 @@
         <f t="shared" si="33"/>
         <v>1.5374412389646874</v>
       </c>
-    </row>
-    <row r="442" spans="1:15">
+      <c r="P441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A442">
         <v>441</v>
       </c>
@@ -21063,8 +22394,11 @@
         <f t="shared" si="33"/>
         <v>1.7536016226677487</v>
       </c>
-    </row>
-    <row r="443" spans="1:15">
+      <c r="P442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A443">
         <v>442</v>
       </c>
@@ -21109,8 +22443,11 @@
         <f t="shared" si="33"/>
         <v>1.0374122580045835</v>
       </c>
-    </row>
-    <row r="444" spans="1:15">
+      <c r="P443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A444">
         <v>443</v>
       </c>
@@ -21155,8 +22492,11 @@
         <f t="shared" si="33"/>
         <v>1.3815727851347646</v>
       </c>
-    </row>
-    <row r="445" spans="1:15">
+      <c r="P444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A445">
         <v>444</v>
       </c>
@@ -21201,8 +22541,11 @@
         <f t="shared" si="33"/>
         <v>1.4704632172357259</v>
       </c>
-    </row>
-    <row r="446" spans="1:15">
+      <c r="P445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A446">
         <v>445</v>
       </c>
@@ -21247,8 +22590,11 @@
         <f t="shared" si="33"/>
         <v>1.3122841777618597</v>
       </c>
-    </row>
-    <row r="447" spans="1:15">
+      <c r="P446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A447">
         <v>446</v>
       </c>
@@ -21293,8 +22639,11 @@
         <f t="shared" si="33"/>
         <v>1.1469773376907535</v>
       </c>
-    </row>
-    <row r="448" spans="1:15">
+      <c r="P447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A448">
         <v>447</v>
       </c>
@@ -21339,8 +22688,11 @@
         <f t="shared" si="33"/>
         <v>1.83391667774282</v>
       </c>
-    </row>
-    <row r="449" spans="1:15">
+      <c r="P448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A449">
         <v>448</v>
       </c>
@@ -21385,8 +22737,11 @@
         <f t="shared" si="33"/>
         <v>1.2079378774805849</v>
       </c>
-    </row>
-    <row r="450" spans="1:15">
+      <c r="P449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A450">
         <v>449</v>
       </c>
@@ -21431,8 +22786,11 @@
         <f t="shared" ref="O450:O513" si="38">N450/M450*100</f>
         <v>1.6425938100933284</v>
       </c>
-    </row>
-    <row r="451" spans="1:15">
+      <c r="P450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A451">
         <v>450</v>
       </c>
@@ -21477,8 +22835,11 @@
         <f t="shared" si="38"/>
         <v>1.617141334475529</v>
       </c>
-    </row>
-    <row r="452" spans="1:15">
+      <c r="P451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A452">
         <v>451</v>
       </c>
@@ -21523,8 +22884,11 @@
         <f t="shared" si="38"/>
         <v>1.2022013842308774</v>
       </c>
-    </row>
-    <row r="453" spans="1:15">
+      <c r="P452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A453">
         <v>452</v>
       </c>
@@ -21569,8 +22933,11 @@
         <f t="shared" si="38"/>
         <v>0.95257146466848686</v>
       </c>
-    </row>
-    <row r="454" spans="1:15">
+      <c r="P453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A454">
         <v>453</v>
       </c>
@@ -21615,8 +22982,11 @@
         <f t="shared" si="38"/>
         <v>1.2127455295614733</v>
       </c>
-    </row>
-    <row r="455" spans="1:15">
+      <c r="P454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A455">
         <v>454</v>
       </c>
@@ -21661,8 +23031,11 @@
         <f t="shared" si="38"/>
         <v>1.2105202814615117</v>
       </c>
-    </row>
-    <row r="456" spans="1:15">
+      <c r="P455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A456">
         <v>455</v>
       </c>
@@ -21707,8 +23080,11 @@
         <f t="shared" si="38"/>
         <v>1.6761295379562762</v>
       </c>
-    </row>
-    <row r="457" spans="1:15">
+      <c r="P456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A457">
         <v>456</v>
       </c>
@@ -21753,8 +23129,11 @@
         <f t="shared" si="38"/>
         <v>1.1546288498947008</v>
       </c>
-    </row>
-    <row r="458" spans="1:15">
+      <c r="P457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A458">
         <v>457</v>
       </c>
@@ -21799,8 +23178,11 @@
         <f t="shared" si="38"/>
         <v>1.1197261566262737</v>
       </c>
-    </row>
-    <row r="459" spans="1:15">
+      <c r="P458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A459">
         <v>458</v>
       </c>
@@ -21845,8 +23227,11 @@
         <f t="shared" si="38"/>
         <v>1.1138220469843447</v>
       </c>
-    </row>
-    <row r="460" spans="1:15">
+      <c r="P459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A460">
         <v>459</v>
       </c>
@@ -21895,8 +23280,11 @@
         <f t="shared" si="38"/>
         <v>-9.1787770994406034E-2</v>
       </c>
-    </row>
-    <row r="461" spans="1:15">
+      <c r="P460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A461">
         <v>460</v>
       </c>
@@ -21941,8 +23329,11 @@
         <f t="shared" si="38"/>
         <v>1.0131507424766257</v>
       </c>
-    </row>
-    <row r="462" spans="1:15">
+      <c r="P461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A462">
         <v>461</v>
       </c>
@@ -21987,8 +23378,11 @@
         <f t="shared" si="38"/>
         <v>1.3202153068738984</v>
       </c>
-    </row>
-    <row r="463" spans="1:15">
+      <c r="P462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A463">
         <v>462</v>
       </c>
@@ -22037,8 +23431,11 @@
         <f t="shared" si="38"/>
         <v>1.433515940163558</v>
       </c>
-    </row>
-    <row r="464" spans="1:15">
+      <c r="P463">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="464" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A464">
         <v>463</v>
       </c>
@@ -22083,8 +23480,11 @@
         <f t="shared" si="38"/>
         <v>1.6604215356613279</v>
       </c>
-    </row>
-    <row r="465" spans="1:15">
+      <c r="P464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A465">
         <v>464</v>
       </c>
@@ -22133,8 +23533,11 @@
         <f t="shared" si="38"/>
         <v>1.2954195965842745</v>
       </c>
-    </row>
-    <row r="466" spans="1:15">
+      <c r="P465">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="466" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A466">
         <v>465</v>
       </c>
@@ -22179,8 +23582,11 @@
         <f t="shared" si="38"/>
         <v>1.0733893300042248</v>
       </c>
-    </row>
-    <row r="467" spans="1:15">
+      <c r="P466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A467">
         <v>466</v>
       </c>
@@ -22225,8 +23631,11 @@
         <f t="shared" si="38"/>
         <v>1.2219194391133992</v>
       </c>
-    </row>
-    <row r="468" spans="1:15">
+      <c r="P467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A468">
         <v>467</v>
       </c>
@@ -22271,8 +23680,11 @@
         <f t="shared" si="38"/>
         <v>1.1430269370107546</v>
       </c>
-    </row>
-    <row r="469" spans="1:15">
+      <c r="P468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A469">
         <v>468</v>
       </c>
@@ -22317,8 +23729,11 @@
         <f t="shared" si="38"/>
         <v>1.0244233672685268</v>
       </c>
-    </row>
-    <row r="470" spans="1:15">
+      <c r="P469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A470">
         <v>469</v>
       </c>
@@ -22363,8 +23778,11 @@
         <f t="shared" si="38"/>
         <v>1.2342769765712469</v>
       </c>
-    </row>
-    <row r="471" spans="1:15">
+      <c r="P470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A471">
         <v>470</v>
       </c>
@@ -22409,8 +23827,11 @@
         <f t="shared" si="38"/>
         <v>0.79411498490071886</v>
       </c>
-    </row>
-    <row r="472" spans="1:15">
+      <c r="P471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A472">
         <v>471</v>
       </c>
@@ -22455,8 +23876,11 @@
         <f t="shared" si="38"/>
         <v>1.7304497122361036</v>
       </c>
-    </row>
-    <row r="473" spans="1:15">
+      <c r="P472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A473">
         <v>472</v>
       </c>
@@ -22505,8 +23929,11 @@
         <f t="shared" si="38"/>
         <v>-0.11572083587172009</v>
       </c>
-    </row>
-    <row r="474" spans="1:15">
+      <c r="P473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A474">
         <v>473</v>
       </c>
@@ -22551,8 +23978,11 @@
         <f t="shared" si="38"/>
         <v>1.3502716770136409</v>
       </c>
-    </row>
-    <row r="475" spans="1:15">
+      <c r="P474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A475">
         <v>474</v>
       </c>
@@ -22597,8 +24027,11 @@
         <f t="shared" si="38"/>
         <v>1.117599596298688</v>
       </c>
-    </row>
-    <row r="476" spans="1:15">
+      <c r="P475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A476">
         <v>475</v>
       </c>
@@ -22643,8 +24076,11 @@
         <f t="shared" si="38"/>
         <v>0.9650665615428955</v>
       </c>
-    </row>
-    <row r="477" spans="1:15">
+      <c r="P476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A477">
         <v>476</v>
       </c>
@@ -22689,8 +24125,11 @@
         <f t="shared" si="38"/>
         <v>1.2932463819839863</v>
       </c>
-    </row>
-    <row r="478" spans="1:15">
+      <c r="P477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A478">
         <v>477</v>
       </c>
@@ -22735,8 +24174,11 @@
         <f t="shared" si="38"/>
         <v>1.2945688090876284</v>
       </c>
-    </row>
-    <row r="479" spans="1:15">
+      <c r="P478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A479">
         <v>478</v>
       </c>
@@ -22781,8 +24223,11 @@
         <f t="shared" si="38"/>
         <v>1.4995629275553706</v>
       </c>
-    </row>
-    <row r="480" spans="1:15">
+      <c r="P479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A480">
         <v>479</v>
       </c>
@@ -22831,8 +24276,11 @@
         <f t="shared" si="38"/>
         <v>1.397678569321855</v>
       </c>
-    </row>
-    <row r="481" spans="1:15">
+      <c r="P480">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="481" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A481">
         <v>480</v>
       </c>
@@ -22877,8 +24325,11 @@
         <f t="shared" si="38"/>
         <v>1.286831758742333</v>
       </c>
-    </row>
-    <row r="482" spans="1:15">
+      <c r="P481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A482">
         <v>481</v>
       </c>
@@ -22923,8 +24374,11 @@
         <f t="shared" si="38"/>
         <v>1.2899854580191761</v>
       </c>
-    </row>
-    <row r="483" spans="1:15">
+      <c r="P482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A483">
         <v>482</v>
       </c>
@@ -22969,8 +24423,11 @@
         <f t="shared" si="38"/>
         <v>1.8812598198610739</v>
       </c>
-    </row>
-    <row r="484" spans="1:15">
+      <c r="P483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A484">
         <v>483</v>
       </c>
@@ -23015,8 +24472,11 @@
         <f t="shared" si="38"/>
         <v>1.2713157023573516</v>
       </c>
-    </row>
-    <row r="485" spans="1:15">
+      <c r="P484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A485">
         <v>484</v>
       </c>
@@ -23061,8 +24521,11 @@
         <f t="shared" si="38"/>
         <v>1.2135644919940762</v>
       </c>
-    </row>
-    <row r="486" spans="1:15">
+      <c r="P485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A486">
         <v>485</v>
       </c>
@@ -23107,8 +24570,11 @@
         <f t="shared" si="38"/>
         <v>1.2617229043797704</v>
       </c>
-    </row>
-    <row r="487" spans="1:15">
+      <c r="P486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A487">
         <v>486</v>
       </c>
@@ -23153,8 +24619,11 @@
         <f t="shared" si="38"/>
         <v>1.5084908537738226</v>
       </c>
-    </row>
-    <row r="488" spans="1:15">
+      <c r="P487">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A488">
         <v>487</v>
       </c>
@@ -23199,8 +24668,11 @@
         <f t="shared" si="38"/>
         <v>1.2259948382795007</v>
       </c>
-    </row>
-    <row r="489" spans="1:15">
+      <c r="P488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A489">
         <v>488</v>
       </c>
@@ -23245,8 +24717,11 @@
         <f t="shared" si="38"/>
         <v>1.465006845933942</v>
       </c>
-    </row>
-    <row r="490" spans="1:15">
+      <c r="P489">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A490">
         <v>489</v>
       </c>
@@ -23295,8 +24770,11 @@
         <f t="shared" si="38"/>
         <v>1.8976664747507306</v>
       </c>
-    </row>
-    <row r="491" spans="1:15">
+      <c r="P490">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="491" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A491">
         <v>490</v>
       </c>
@@ -23341,8 +24819,11 @@
         <f t="shared" si="38"/>
         <v>1.4083779817271669</v>
       </c>
-    </row>
-    <row r="492" spans="1:15">
+      <c r="P491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A492">
         <v>491</v>
       </c>
@@ -23387,8 +24868,11 @@
         <f t="shared" si="38"/>
         <v>1.1994061226396053</v>
       </c>
-    </row>
-    <row r="493" spans="1:15">
+      <c r="P492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A493">
         <v>492</v>
       </c>
@@ -23433,8 +24917,11 @@
         <f t="shared" si="38"/>
         <v>1.3499690512849205</v>
       </c>
-    </row>
-    <row r="494" spans="1:15">
+      <c r="P493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A494">
         <v>493</v>
       </c>
@@ -23479,8 +24966,11 @@
         <f t="shared" si="38"/>
         <v>1.474444267451253</v>
       </c>
-    </row>
-    <row r="495" spans="1:15">
+      <c r="P494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A495">
         <v>494</v>
       </c>
@@ -23525,8 +25015,11 @@
         <f t="shared" si="38"/>
         <v>1.0591450937294646</v>
       </c>
-    </row>
-    <row r="496" spans="1:15">
+      <c r="P495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A496">
         <v>495</v>
       </c>
@@ -23571,8 +25064,11 @@
         <f t="shared" si="38"/>
         <v>1.1652619042919259</v>
       </c>
-    </row>
-    <row r="497" spans="1:15">
+      <c r="P496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A497">
         <v>496</v>
       </c>
@@ -23617,8 +25113,11 @@
         <f t="shared" si="38"/>
         <v>1.2940042456608105</v>
       </c>
-    </row>
-    <row r="498" spans="1:15">
+      <c r="P497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A498">
         <v>497</v>
       </c>
@@ -23663,8 +25162,11 @@
         <f t="shared" si="38"/>
         <v>1.0925478783271805</v>
       </c>
-    </row>
-    <row r="499" spans="1:15">
+      <c r="P498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A499">
         <v>498</v>
       </c>
@@ -23709,8 +25211,11 @@
         <f t="shared" si="38"/>
         <v>1.1702670150835688</v>
       </c>
-    </row>
-    <row r="500" spans="1:15">
+      <c r="P499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A500">
         <v>499</v>
       </c>
@@ -23755,8 +25260,11 @@
         <f t="shared" si="38"/>
         <v>1.1082070913500426</v>
       </c>
-    </row>
-    <row r="501" spans="1:15">
+      <c r="P500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A501">
         <v>500</v>
       </c>
@@ -23801,8 +25309,11 @@
         <f t="shared" si="38"/>
         <v>1.0314113193225916</v>
       </c>
-    </row>
-    <row r="502" spans="1:15">
+      <c r="P501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A502">
         <v>501</v>
       </c>
@@ -23847,8 +25358,11 @@
         <f t="shared" si="38"/>
         <v>1.3076713051054405</v>
       </c>
-    </row>
-    <row r="503" spans="1:15">
+      <c r="P502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A503">
         <v>502</v>
       </c>
@@ -23893,8 +25407,11 @@
         <f t="shared" si="38"/>
         <v>1.1810449413621027</v>
       </c>
-    </row>
-    <row r="504" spans="1:15">
+      <c r="P503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A504">
         <v>503</v>
       </c>
@@ -23939,8 +25456,11 @@
         <f t="shared" si="38"/>
         <v>1.2681651814541064</v>
       </c>
-    </row>
-    <row r="505" spans="1:15">
+      <c r="P504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A505">
         <v>504</v>
       </c>
@@ -23985,8 +25505,11 @@
         <f t="shared" si="38"/>
         <v>1.1242781797109063</v>
       </c>
-    </row>
-    <row r="506" spans="1:15">
+      <c r="P505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A506">
         <v>505</v>
       </c>
@@ -24031,8 +25554,11 @@
         <f t="shared" si="38"/>
         <v>1.3275912158852212</v>
       </c>
-    </row>
-    <row r="507" spans="1:15">
+      <c r="P506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A507">
         <v>506</v>
       </c>
@@ -24077,8 +25603,11 @@
         <f t="shared" si="38"/>
         <v>1.2961774123177001</v>
       </c>
-    </row>
-    <row r="508" spans="1:15">
+      <c r="P507">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A508">
         <v>507</v>
       </c>
@@ -24123,8 +25652,11 @@
         <f t="shared" si="38"/>
         <v>1.0015004984354643</v>
       </c>
-    </row>
-    <row r="509" spans="1:15">
+      <c r="P508">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A509">
         <v>508</v>
       </c>
@@ -24169,8 +25701,11 @@
         <f t="shared" si="38"/>
         <v>1.2484628707976806</v>
       </c>
-    </row>
-    <row r="510" spans="1:15">
+      <c r="P509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A510">
         <v>509</v>
       </c>
@@ -24215,8 +25750,11 @@
         <f t="shared" si="38"/>
         <v>1.7280858722790453</v>
       </c>
-    </row>
-    <row r="511" spans="1:15">
+      <c r="P510">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A511">
         <v>510</v>
       </c>
@@ -24261,8 +25799,11 @@
         <f t="shared" si="38"/>
         <v>1.6376210235131436</v>
       </c>
-    </row>
-    <row r="512" spans="1:15">
+      <c r="P511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A512">
         <v>511</v>
       </c>
@@ -24307,8 +25848,11 @@
         <f t="shared" si="38"/>
         <v>1.2169308044198193</v>
       </c>
-    </row>
-    <row r="513" spans="1:15">
+      <c r="P512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A513">
         <v>512</v>
       </c>
@@ -24353,8 +25897,11 @@
         <f t="shared" si="38"/>
         <v>1.0355536307377906</v>
       </c>
-    </row>
-    <row r="514" spans="1:15">
+      <c r="P513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A514">
         <v>513</v>
       </c>
@@ -24399,8 +25946,11 @@
         <f t="shared" ref="O514:O577" si="43">N514/M514*100</f>
         <v>1.076325738428721</v>
       </c>
-    </row>
-    <row r="515" spans="1:15">
+      <c r="P514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A515">
         <v>514</v>
       </c>
@@ -24449,8 +25999,11 @@
         <f t="shared" si="43"/>
         <v>-0.14202522864600725</v>
       </c>
-    </row>
-    <row r="516" spans="1:15">
+      <c r="P515">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A516">
         <v>515</v>
       </c>
@@ -24495,8 +26048,11 @@
         <f t="shared" si="43"/>
         <v>1.4278525563334361</v>
       </c>
-    </row>
-    <row r="517" spans="1:15">
+      <c r="P516">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A517">
         <v>516</v>
       </c>
@@ -24541,8 +26097,11 @@
         <f t="shared" si="43"/>
         <v>1.628653343492507</v>
       </c>
-    </row>
-    <row r="518" spans="1:15">
+      <c r="P517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A518">
         <v>517</v>
       </c>
@@ -24587,8 +26146,11 @@
         <f t="shared" si="43"/>
         <v>1.0262529969055185</v>
       </c>
-    </row>
-    <row r="519" spans="1:15">
+      <c r="P518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A519">
         <v>518</v>
       </c>
@@ -24633,8 +26195,11 @@
         <f t="shared" si="43"/>
         <v>1.0625536133050741</v>
       </c>
-    </row>
-    <row r="520" spans="1:15">
+      <c r="P519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A520">
         <v>519</v>
       </c>
@@ -24679,8 +26244,11 @@
         <f t="shared" si="43"/>
         <v>1.0469186782090341</v>
       </c>
-    </row>
-    <row r="521" spans="1:15">
+      <c r="P520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A521">
         <v>520</v>
       </c>
@@ -24725,8 +26293,11 @@
         <f t="shared" si="43"/>
         <v>1.2434800226171627</v>
       </c>
-    </row>
-    <row r="522" spans="1:15">
+      <c r="P521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A522">
         <v>521</v>
       </c>
@@ -24771,8 +26342,11 @@
         <f t="shared" si="43"/>
         <v>1.3211029317518652</v>
       </c>
-    </row>
-    <row r="523" spans="1:15">
+      <c r="P522">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A523">
         <v>522</v>
       </c>
@@ -24817,8 +26391,11 @@
         <f t="shared" si="43"/>
         <v>1.1551776298614396</v>
       </c>
-    </row>
-    <row r="524" spans="1:15">
+      <c r="P523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A524">
         <v>523</v>
       </c>
@@ -24863,8 +26440,11 @@
         <f t="shared" si="43"/>
         <v>1.0388328275661112</v>
       </c>
-    </row>
-    <row r="525" spans="1:15">
+      <c r="P524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A525">
         <v>524</v>
       </c>
@@ -24909,8 +26489,11 @@
         <f t="shared" si="43"/>
         <v>1.1413693062501062</v>
       </c>
-    </row>
-    <row r="526" spans="1:15">
+      <c r="P525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A526">
         <v>525</v>
       </c>
@@ -24955,8 +26538,11 @@
         <f t="shared" si="43"/>
         <v>1.190331746624786</v>
       </c>
-    </row>
-    <row r="527" spans="1:15">
+      <c r="P526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A527">
         <v>526</v>
       </c>
@@ -25001,8 +26587,11 @@
         <f t="shared" si="43"/>
         <v>1.4872277758570922</v>
       </c>
-    </row>
-    <row r="528" spans="1:15">
+      <c r="P527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A528">
         <v>527</v>
       </c>
@@ -25047,8 +26636,11 @@
         <f t="shared" si="43"/>
         <v>1.3212955871718923</v>
       </c>
-    </row>
-    <row r="529" spans="1:15">
+      <c r="P528">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A529">
         <v>528</v>
       </c>
@@ -25093,8 +26685,11 @@
         <f t="shared" si="43"/>
         <v>1.1836953432040043</v>
       </c>
-    </row>
-    <row r="530" spans="1:15">
+      <c r="P529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A530">
         <v>529</v>
       </c>
@@ -25139,8 +26734,11 @@
         <f t="shared" si="43"/>
         <v>1.8506762150299179</v>
       </c>
-    </row>
-    <row r="531" spans="1:15">
+      <c r="P530">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A531">
         <v>530</v>
       </c>
@@ -25189,8 +26787,11 @@
         <f t="shared" si="43"/>
         <v>1.253983253851392</v>
       </c>
-    </row>
-    <row r="532" spans="1:15">
+      <c r="P531">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="532" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A532">
         <v>531</v>
       </c>
@@ -25235,8 +26836,11 @@
         <f t="shared" si="43"/>
         <v>1.3351935912063644</v>
       </c>
-    </row>
-    <row r="533" spans="1:15">
+      <c r="P532">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A533">
         <v>532</v>
       </c>
@@ -25281,8 +26885,11 @@
         <f t="shared" si="43"/>
         <v>1.1828982301859203</v>
       </c>
-    </row>
-    <row r="534" spans="1:15">
+      <c r="P533">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A534">
         <v>533</v>
       </c>
@@ -25327,8 +26934,11 @@
         <f t="shared" si="43"/>
         <v>1.2072225324978014</v>
       </c>
-    </row>
-    <row r="535" spans="1:15">
+      <c r="P534">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A535">
         <v>534</v>
       </c>
@@ -25373,8 +26983,11 @@
         <f t="shared" si="43"/>
         <v>1.2838474051050281</v>
       </c>
-    </row>
-    <row r="536" spans="1:15">
+      <c r="P535">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A536">
         <v>535</v>
       </c>
@@ -25419,8 +27032,11 @@
         <f t="shared" si="43"/>
         <v>1.3004080261925095</v>
       </c>
-    </row>
-    <row r="537" spans="1:15">
+      <c r="P536">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A537">
         <v>536</v>
       </c>
@@ -25465,8 +27081,11 @@
         <f t="shared" si="43"/>
         <v>1.5161052078090984</v>
       </c>
-    </row>
-    <row r="538" spans="1:15">
+      <c r="P537">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A538">
         <v>537</v>
       </c>
@@ -25515,8 +27134,11 @@
         <f t="shared" si="43"/>
         <v>-0.21702293151103519</v>
       </c>
-    </row>
-    <row r="539" spans="1:15">
+      <c r="P538">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A539">
         <v>538</v>
       </c>
@@ -25561,8 +27183,11 @@
         <f t="shared" si="43"/>
         <v>1.7735539589642146</v>
       </c>
-    </row>
-    <row r="540" spans="1:15">
+      <c r="P539">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A540">
         <v>539</v>
       </c>
@@ -25607,8 +27232,11 @@
         <f t="shared" si="43"/>
         <v>0.6975155171336489</v>
       </c>
-    </row>
-    <row r="541" spans="1:15">
+      <c r="P540">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A541">
         <v>540</v>
       </c>
@@ -25653,8 +27281,11 @@
         <f t="shared" si="43"/>
         <v>1.1202748002294172</v>
       </c>
-    </row>
-    <row r="542" spans="1:15">
+      <c r="P541">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A542">
         <v>541</v>
       </c>
@@ -25703,8 +27334,11 @@
         <f t="shared" si="43"/>
         <v>-9.2509971573887809E-2</v>
       </c>
-    </row>
-    <row r="543" spans="1:15">
+      <c r="P542">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A543">
         <v>542</v>
       </c>
@@ -25749,8 +27383,11 @@
         <f t="shared" si="43"/>
         <v>1.1710613399581877</v>
       </c>
-    </row>
-    <row r="544" spans="1:15">
+      <c r="P543">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A544">
         <v>543</v>
       </c>
@@ -25795,8 +27432,11 @@
         <f t="shared" si="43"/>
         <v>0.87911453042477627</v>
       </c>
-    </row>
-    <row r="545" spans="1:15">
+      <c r="P544">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A545">
         <v>544</v>
       </c>
@@ -25841,8 +27481,11 @@
         <f t="shared" si="43"/>
         <v>1.0097305704275501</v>
       </c>
-    </row>
-    <row r="546" spans="1:15">
+      <c r="P545">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A546">
         <v>545</v>
       </c>
@@ -25887,8 +27530,11 @@
         <f t="shared" si="43"/>
         <v>0.91260257177254756</v>
       </c>
-    </row>
-    <row r="547" spans="1:15">
+      <c r="P546">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A547">
         <v>546</v>
       </c>
@@ -25933,8 +27579,11 @@
         <f t="shared" si="43"/>
         <v>1.1575366081138116</v>
       </c>
-    </row>
-    <row r="548" spans="1:15">
+      <c r="P547">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A548">
         <v>547</v>
       </c>
@@ -25979,8 +27628,11 @@
         <f t="shared" si="43"/>
         <v>0.77748444161605235</v>
       </c>
-    </row>
-    <row r="549" spans="1:15">
+      <c r="P548">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A549">
         <v>548</v>
       </c>
@@ -26025,8 +27677,11 @@
         <f t="shared" si="43"/>
         <v>1.0304176163704801</v>
       </c>
-    </row>
-    <row r="550" spans="1:15">
+      <c r="P549">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A550">
         <v>549</v>
       </c>
@@ -26071,8 +27726,11 @@
         <f t="shared" si="43"/>
         <v>1.2804682160657299</v>
       </c>
-    </row>
-    <row r="551" spans="1:15">
+      <c r="P550">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A551">
         <v>550</v>
       </c>
@@ -26117,8 +27775,11 @@
         <f t="shared" si="43"/>
         <v>1.3324105851903931</v>
       </c>
-    </row>
-    <row r="552" spans="1:15">
+      <c r="P551">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A552">
         <v>551</v>
       </c>
@@ -26163,8 +27824,11 @@
         <f t="shared" si="43"/>
         <v>1.1047992085322451</v>
       </c>
-    </row>
-    <row r="553" spans="1:15">
+      <c r="P552">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A553">
         <v>552</v>
       </c>
@@ -26209,8 +27873,11 @@
         <f t="shared" si="43"/>
         <v>1.4795843164562055</v>
       </c>
-    </row>
-    <row r="554" spans="1:15">
+      <c r="P553">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A554">
         <v>553</v>
       </c>
@@ -26255,8 +27922,11 @@
         <f t="shared" si="43"/>
         <v>1.2284050179775821</v>
       </c>
-    </row>
-    <row r="555" spans="1:15">
+      <c r="P554">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A555">
         <v>554</v>
       </c>
@@ -26301,8 +27971,11 @@
         <f t="shared" si="43"/>
         <v>1.1769829739545399</v>
       </c>
-    </row>
-    <row r="556" spans="1:15">
+      <c r="P555">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A556">
         <v>555</v>
       </c>
@@ -26347,8 +28020,11 @@
         <f t="shared" si="43"/>
         <v>1.1307623815833041</v>
       </c>
-    </row>
-    <row r="557" spans="1:15">
+      <c r="P556">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A557">
         <v>556</v>
       </c>
@@ -26393,8 +28069,11 @@
         <f t="shared" si="43"/>
         <v>1.4024593502943996</v>
       </c>
-    </row>
-    <row r="558" spans="1:15">
+      <c r="P557">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A558">
         <v>557</v>
       </c>
@@ -26439,8 +28118,11 @@
         <f t="shared" si="43"/>
         <v>0.89356779882276438</v>
       </c>
-    </row>
-    <row r="559" spans="1:15">
+      <c r="P558">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A559">
         <v>558</v>
       </c>
@@ -26485,8 +28167,11 @@
         <f t="shared" si="43"/>
         <v>1.1413253700692736</v>
       </c>
-    </row>
-    <row r="560" spans="1:15">
+      <c r="P559">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A560">
         <v>559</v>
       </c>
@@ -26531,8 +28216,11 @@
         <f t="shared" si="43"/>
         <v>1.2566247239007486</v>
       </c>
-    </row>
-    <row r="561" spans="1:15">
+      <c r="P560">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A561">
         <v>560</v>
       </c>
@@ -26577,8 +28265,11 @@
         <f t="shared" si="43"/>
         <v>1.1886684394508662</v>
       </c>
-    </row>
-    <row r="562" spans="1:15">
+      <c r="P561">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A562">
         <v>561</v>
       </c>
@@ -26627,13 +28318,16 @@
         <f t="shared" si="43"/>
         <v>6.6905521557952721E-2</v>
       </c>
-    </row>
-    <row r="563" spans="1:15">
+      <c r="P562">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A563">
         <v>562</v>
       </c>
       <c r="B563">
-        <f t="shared" ref="B563:B589" si="44">B514+1</f>
+        <f t="shared" ref="B563:B626" si="44">B514+1</f>
         <v>12</v>
       </c>
       <c r="C563">
@@ -26673,8 +28367,11 @@
         <f t="shared" si="43"/>
         <v>1.3232087396048042</v>
       </c>
-    </row>
-    <row r="564" spans="1:15">
+      <c r="P563">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A564">
         <v>563</v>
       </c>
@@ -26719,8 +28416,11 @@
         <f t="shared" si="43"/>
         <v>1.0112758825100761</v>
       </c>
-    </row>
-    <row r="565" spans="1:15">
+      <c r="P564">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A565">
         <v>564</v>
       </c>
@@ -26769,8 +28469,11 @@
         <f t="shared" si="43"/>
         <v>-6.063279332820231E-2</v>
       </c>
-    </row>
-    <row r="566" spans="1:15">
+      <c r="P565">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A566">
         <v>565</v>
       </c>
@@ -26815,8 +28518,11 @@
         <f t="shared" si="43"/>
         <v>1.1133879069042014</v>
       </c>
-    </row>
-    <row r="567" spans="1:15">
+      <c r="P566">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A567">
         <v>566</v>
       </c>
@@ -26865,8 +28571,11 @@
         <f t="shared" si="43"/>
         <v>3.8422084057968778E-2</v>
       </c>
-    </row>
-    <row r="568" spans="1:15">
+      <c r="P567">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A568">
         <v>567</v>
       </c>
@@ -26911,8 +28620,11 @@
         <f t="shared" si="43"/>
         <v>1.066881831754849</v>
       </c>
-    </row>
-    <row r="569" spans="1:15">
+      <c r="P568">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A569">
         <v>568</v>
       </c>
@@ -26957,8 +28669,11 @@
         <f t="shared" si="43"/>
         <v>0.95292176202765888</v>
       </c>
-    </row>
-    <row r="570" spans="1:15">
+      <c r="P569">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A570">
         <v>569</v>
       </c>
@@ -27003,8 +28718,11 @@
         <f t="shared" si="43"/>
         <v>1.1319895155261939</v>
       </c>
-    </row>
-    <row r="571" spans="1:15">
+      <c r="P570">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A571">
         <v>570</v>
       </c>
@@ -27053,8 +28771,11 @@
         <f t="shared" si="43"/>
         <v>7.1867159229891939E-2</v>
       </c>
-    </row>
-    <row r="572" spans="1:15">
+      <c r="P571">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A572">
         <v>571</v>
       </c>
@@ -27099,8 +28820,11 @@
         <f t="shared" si="43"/>
         <v>0.96904355513060048</v>
       </c>
-    </row>
-    <row r="573" spans="1:15">
+      <c r="P572">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A573">
         <v>572</v>
       </c>
@@ -27145,8 +28869,11 @@
         <f t="shared" si="43"/>
         <v>1.4450614131749442</v>
       </c>
-    </row>
-    <row r="574" spans="1:15">
+      <c r="P573">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A574">
         <v>573</v>
       </c>
@@ -27191,8 +28918,11 @@
         <f t="shared" si="43"/>
         <v>1.2710641999347061</v>
       </c>
-    </row>
-    <row r="575" spans="1:15">
+      <c r="P574">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A575">
         <v>574</v>
       </c>
@@ -27237,8 +28967,11 @@
         <f t="shared" si="43"/>
         <v>1.3684504740232748</v>
       </c>
-    </row>
-    <row r="576" spans="1:15">
+      <c r="P575">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A576">
         <v>575</v>
       </c>
@@ -27283,8 +29016,11 @@
         <f t="shared" si="43"/>
         <v>1.4448322278139818</v>
       </c>
-    </row>
-    <row r="577" spans="1:15">
+      <c r="P576">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A577">
         <v>576</v>
       </c>
@@ -27329,8 +29065,11 @@
         <f t="shared" si="43"/>
         <v>1.0717514240019119</v>
       </c>
-    </row>
-    <row r="578" spans="1:15">
+      <c r="P577">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A578">
         <v>577</v>
       </c>
@@ -27368,7 +29107,7 @@
         <v>-1.470000000000482E-2</v>
       </c>
       <c r="M578">
-        <f t="shared" ref="M578:M633" si="46">G578-L578</f>
+        <f t="shared" ref="M578:M641" si="46">G578-L578</f>
         <v>62.584000000000003</v>
       </c>
       <c r="N578">
@@ -27376,11 +29115,14 @@
         <v>-3.2999999999994145E-2</v>
       </c>
       <c r="O578">
-        <f t="shared" ref="O578:O633" si="48">N578/M578*100</f>
+        <f t="shared" ref="O578:O641" si="48">N578/M578*100</f>
         <v>-5.2729132046520105E-2</v>
       </c>
-    </row>
-    <row r="579" spans="1:15">
+      <c r="P578">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A579">
         <v>578</v>
       </c>
@@ -27425,8 +29167,11 @@
         <f t="shared" si="48"/>
         <v>1.0521448769449857</v>
       </c>
-    </row>
-    <row r="580" spans="1:15">
+      <c r="P579">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A580">
         <v>579</v>
       </c>
@@ -27471,8 +29216,11 @@
         <f t="shared" si="48"/>
         <v>1.2223438881970159</v>
       </c>
-    </row>
-    <row r="581" spans="1:15">
+      <c r="P580">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A581">
         <v>580</v>
       </c>
@@ -27517,8 +29265,11 @@
         <f t="shared" si="48"/>
         <v>1.1278662836566526</v>
       </c>
-    </row>
-    <row r="582" spans="1:15">
+      <c r="P581">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A582">
         <v>581</v>
       </c>
@@ -27563,8 +29314,11 @@
         <f t="shared" si="48"/>
         <v>1.3351150313392046</v>
       </c>
-    </row>
-    <row r="583" spans="1:15">
+      <c r="P582">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A583">
         <v>582</v>
       </c>
@@ -27609,8 +29363,11 @@
         <f t="shared" si="48"/>
         <v>0.97123332263733919</v>
       </c>
-    </row>
-    <row r="584" spans="1:15">
+      <c r="P583">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A584">
         <v>583</v>
       </c>
@@ -27655,8 +29412,11 @@
         <f t="shared" si="48"/>
         <v>0.95081834992417014</v>
       </c>
-    </row>
-    <row r="585" spans="1:15">
+      <c r="P584">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A585">
         <v>584</v>
       </c>
@@ -27701,8 +29461,11 @@
         <f t="shared" si="48"/>
         <v>1.297498142751895</v>
       </c>
-    </row>
-    <row r="586" spans="1:15">
+      <c r="P585">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A586">
         <v>585</v>
       </c>
@@ -27747,8 +29510,11 @@
         <f t="shared" si="48"/>
         <v>1.1216503782227778</v>
       </c>
-    </row>
-    <row r="587" spans="1:15">
+      <c r="P586">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A587">
         <v>586</v>
       </c>
@@ -27793,8 +29559,11 @@
         <f t="shared" si="48"/>
         <v>1.0167761356396883</v>
       </c>
-    </row>
-    <row r="588" spans="1:15">
+      <c r="P587">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A588">
         <v>587</v>
       </c>
@@ -27839,8 +29608,11 @@
         <f t="shared" si="48"/>
         <v>1.546582463595664</v>
       </c>
-    </row>
-    <row r="589" spans="1:15">
+      <c r="P588">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A589">
         <v>588</v>
       </c>
@@ -27885,8 +29657,11 @@
         <f t="shared" si="48"/>
         <v>0.9515125638928843</v>
       </c>
-    </row>
-    <row r="590" spans="1:15">
+      <c r="P589">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A590">
         <v>2004</v>
       </c>
@@ -27930,8 +29705,11 @@
         <f t="shared" si="48"/>
         <v>0.9054414129596936</v>
       </c>
-    </row>
-    <row r="591" spans="1:15">
+      <c r="P590">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A591">
         <v>2006</v>
       </c>
@@ -27975,8 +29753,11 @@
         <f t="shared" si="48"/>
         <v>0.62632220721855958</v>
       </c>
-    </row>
-    <row r="592" spans="1:15">
+      <c r="P591">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A592">
         <v>2008</v>
       </c>
@@ -28020,8 +29801,11 @@
         <f t="shared" si="48"/>
         <v>0.58556481512722747</v>
       </c>
-    </row>
-    <row r="593" spans="1:15">
+      <c r="P592">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A593">
         <v>2011</v>
       </c>
@@ -28065,8 +29849,11 @@
         <f t="shared" si="48"/>
         <v>0.8535506681041154</v>
       </c>
-    </row>
-    <row r="594" spans="1:15">
+      <c r="P593">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A594">
         <v>2007</v>
       </c>
@@ -28110,8 +29897,11 @@
         <f t="shared" si="48"/>
         <v>0.56147175334294031</v>
       </c>
-    </row>
-    <row r="595" spans="1:15">
+      <c r="P594">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A595">
         <v>2001</v>
       </c>
@@ -28155,8 +29945,11 @@
         <f t="shared" si="48"/>
         <v>0.77932709322512161</v>
       </c>
-    </row>
-    <row r="596" spans="1:15">
+      <c r="P595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A596">
         <v>2005</v>
       </c>
@@ -28200,8 +29993,11 @@
         <f t="shared" si="48"/>
         <v>0.9607643231401064</v>
       </c>
-    </row>
-    <row r="597" spans="1:15">
+      <c r="P596">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A597">
         <v>2010</v>
       </c>
@@ -28245,8 +30041,11 @@
         <f t="shared" si="48"/>
         <v>0.85981905128636238</v>
       </c>
-    </row>
-    <row r="598" spans="1:15">
+      <c r="P597">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A598">
         <v>2003</v>
       </c>
@@ -28294,8 +30093,11 @@
         <f t="shared" si="48"/>
         <v>0.85959592518141859</v>
       </c>
-    </row>
-    <row r="599" spans="1:15">
+      <c r="P598">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="599" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A599">
         <v>2002</v>
       </c>
@@ -28339,8 +30141,11 @@
         <f t="shared" si="48"/>
         <v>0.70477934063701742</v>
       </c>
-    </row>
-    <row r="600" spans="1:15">
+      <c r="P599">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A600">
         <v>2009</v>
       </c>
@@ -28384,8 +30189,11 @@
         <f t="shared" si="48"/>
         <v>0.70019870197109713</v>
       </c>
-    </row>
-    <row r="601" spans="1:15">
+      <c r="P600">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A601">
         <v>2000</v>
       </c>
@@ -28429,8 +30237,11 @@
         <f t="shared" si="48"/>
         <v>0.46691366783285843</v>
       </c>
-    </row>
-    <row r="602" spans="1:15">
+      <c r="P601">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A602">
         <v>1025</v>
       </c>
@@ -28474,8 +30285,11 @@
         <f t="shared" si="48"/>
         <v>1.0099851672378397</v>
       </c>
-    </row>
-    <row r="603" spans="1:15">
+      <c r="P602">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A603">
         <v>1029</v>
       </c>
@@ -28519,8 +30333,11 @@
         <f t="shared" si="48"/>
         <v>0.7650586126850738</v>
       </c>
-    </row>
-    <row r="604" spans="1:15">
+      <c r="P603">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A604">
         <v>1019</v>
       </c>
@@ -28564,8 +30381,11 @@
         <f t="shared" si="48"/>
         <v>0.91355286853770545</v>
       </c>
-    </row>
-    <row r="605" spans="1:15">
+      <c r="P604">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A605">
         <v>1028</v>
       </c>
@@ -28609,8 +30429,11 @@
         <f t="shared" si="48"/>
         <v>0.71564418822514275</v>
       </c>
-    </row>
-    <row r="606" spans="1:15">
+      <c r="P605">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A606">
         <v>1006</v>
       </c>
@@ -28654,8 +30477,11 @@
         <f t="shared" si="48"/>
         <v>0.98904231727355318</v>
       </c>
-    </row>
-    <row r="607" spans="1:15">
+      <c r="P606">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A607">
         <v>1003</v>
       </c>
@@ -28699,8 +30525,11 @@
         <f t="shared" si="48"/>
         <v>1.137882545642785</v>
       </c>
-    </row>
-    <row r="608" spans="1:15">
+      <c r="P607">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A608">
         <v>1022</v>
       </c>
@@ -28744,8 +30573,11 @@
         <f t="shared" si="48"/>
         <v>0.82665863372379156</v>
       </c>
-    </row>
-    <row r="609" spans="1:15">
+      <c r="P608">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A609">
         <v>1007</v>
       </c>
@@ -28793,8 +30625,11 @@
         <f t="shared" si="48"/>
         <v>0.96299191953802998</v>
       </c>
-    </row>
-    <row r="610" spans="1:15">
+      <c r="P609">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="610" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A610">
         <v>1008</v>
       </c>
@@ -28838,8 +30673,11 @@
         <f t="shared" si="48"/>
         <v>0.97257387032542297</v>
       </c>
-    </row>
-    <row r="611" spans="1:15">
+      <c r="P610">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A611">
         <v>1002</v>
       </c>
@@ -28887,8 +30725,11 @@
         <f t="shared" si="48"/>
         <v>1.0368082123422775</v>
       </c>
-    </row>
-    <row r="612" spans="1:15">
+      <c r="P611">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="612" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A612">
         <v>1001</v>
       </c>
@@ -28932,8 +30773,11 @@
         <f t="shared" si="48"/>
         <v>1.0518144750980651</v>
       </c>
-    </row>
-    <row r="613" spans="1:15">
+      <c r="P612">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A613">
         <v>1005</v>
       </c>
@@ -28977,8 +30821,11 @@
         <f t="shared" si="48"/>
         <v>0.64453761216395533</v>
       </c>
-    </row>
-    <row r="614" spans="1:15">
+      <c r="P613">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A614">
         <v>1026</v>
       </c>
@@ -29022,8 +30869,11 @@
         <f t="shared" si="48"/>
         <v>0.86214052922311146</v>
       </c>
-    </row>
-    <row r="615" spans="1:15">
+      <c r="P614">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A615">
         <v>1017</v>
       </c>
@@ -29067,8 +30917,11 @@
         <f t="shared" si="48"/>
         <v>0.89705846887714413</v>
       </c>
-    </row>
-    <row r="616" spans="1:15">
+      <c r="P615">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A616">
         <v>1009</v>
       </c>
@@ -29112,8 +30965,11 @@
         <f t="shared" si="48"/>
         <v>0.44656690225280715</v>
       </c>
-    </row>
-    <row r="617" spans="1:15">
+      <c r="P616">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A617">
         <v>1024</v>
       </c>
@@ -29157,8 +31013,11 @@
         <f t="shared" si="48"/>
         <v>0.6598152384756103</v>
       </c>
-    </row>
-    <row r="618" spans="1:15">
+      <c r="P617">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A618">
         <v>1023</v>
       </c>
@@ -29202,8 +31061,11 @@
         <f t="shared" si="48"/>
         <v>0.9083711388829262</v>
       </c>
-    </row>
-    <row r="619" spans="1:15">
+      <c r="P618">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A619">
         <v>1004</v>
       </c>
@@ -29247,8 +31109,11 @@
         <f t="shared" si="48"/>
         <v>0.72608184930595943</v>
       </c>
-    </row>
-    <row r="620" spans="1:15">
+      <c r="P619">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A620">
         <v>1020</v>
       </c>
@@ -29292,8 +31157,11 @@
         <f t="shared" si="48"/>
         <v>1.2284415375001581</v>
       </c>
-    </row>
-    <row r="621" spans="1:15">
+      <c r="P620">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A621">
         <v>1027</v>
       </c>
@@ -29337,8 +31205,11 @@
         <f t="shared" si="48"/>
         <v>0.76716286050139004</v>
       </c>
-    </row>
-    <row r="622" spans="1:15">
+      <c r="P621">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A622">
         <v>1011</v>
       </c>
@@ -29382,8 +31253,11 @@
         <f t="shared" si="48"/>
         <v>0.62396079592448783</v>
       </c>
-    </row>
-    <row r="623" spans="1:15">
+      <c r="P622">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A623">
         <v>1010</v>
       </c>
@@ -29427,8 +31301,11 @@
         <f t="shared" si="48"/>
         <v>0.57334081750251153</v>
       </c>
-    </row>
-    <row r="624" spans="1:15">
+      <c r="P623">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A624">
         <v>1000</v>
       </c>
@@ -29472,8 +31349,11 @@
         <f t="shared" si="48"/>
         <v>0.27994143627595164</v>
       </c>
-    </row>
-    <row r="625" spans="1:15">
+      <c r="P624">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A625">
         <v>1018</v>
       </c>
@@ -29517,8 +31397,11 @@
         <f t="shared" si="48"/>
         <v>1.0584447696701658</v>
       </c>
-    </row>
-    <row r="626" spans="1:15">
+      <c r="P625">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A626">
         <v>1013</v>
       </c>
@@ -29562,8 +31445,11 @@
         <f t="shared" si="48"/>
         <v>0.99339669284459253</v>
       </c>
-    </row>
-    <row r="627" spans="1:15">
+      <c r="P626">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A627">
         <v>1012</v>
       </c>
@@ -29607,8 +31493,11 @@
         <f t="shared" si="48"/>
         <v>1.3411422269112292</v>
       </c>
-    </row>
-    <row r="628" spans="1:15">
+      <c r="P627">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A628">
         <v>1015</v>
       </c>
@@ -29652,8 +31541,11 @@
         <f t="shared" si="48"/>
         <v>0.65887548604297064</v>
       </c>
-    </row>
-    <row r="629" spans="1:15">
+      <c r="P628">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A629" t="s">
         <v>22</v>
       </c>
@@ -29688,8 +31580,11 @@
         <f t="shared" si="48"/>
         <v>1.0825180090630748</v>
       </c>
-    </row>
-    <row r="630" spans="1:15">
+      <c r="P629">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="630" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A630" t="s">
         <v>23</v>
       </c>
@@ -29724,8 +31619,11 @@
         <f t="shared" si="48"/>
         <v>1.1380499825211947</v>
       </c>
-    </row>
-    <row r="631" spans="1:15">
+      <c r="P630">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="631" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A631">
         <v>1014</v>
       </c>
@@ -29769,8 +31667,11 @@
         <f t="shared" si="48"/>
         <v>1.3522248490476458</v>
       </c>
-    </row>
-    <row r="632" spans="1:15">
+      <c r="P631">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A632">
         <v>1016</v>
       </c>
@@ -29814,8 +31715,11 @@
         <f t="shared" si="48"/>
         <v>0.82458698978121092</v>
       </c>
-    </row>
-    <row r="633" spans="1:15">
+      <c r="P632">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A633">
         <v>1021</v>
       </c>
@@ -29858,6 +31762,9 @@
       <c r="O633">
         <f t="shared" si="48"/>
         <v>1.3064105375610326</v>
+      </c>
+      <c r="P633">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data files/CV mass data.xlsx
+++ b/data files/CV mass data.xlsx
@@ -486,8 +486,8 @@
   <dimension ref="A1:P633"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A607" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P634" sqref="P634"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E589" sqref="B2:E589"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -28327,7 +28327,7 @@
         <v>562</v>
       </c>
       <c r="B563">
-        <f t="shared" ref="B563:B626" si="44">B514+1</f>
+        <f t="shared" ref="B563:B589" si="44">B514+1</f>
         <v>12</v>
       </c>
       <c r="C563">
@@ -29107,7 +29107,7 @@
         <v>-1.470000000000482E-2</v>
       </c>
       <c r="M578">
-        <f t="shared" ref="M578:M641" si="46">G578-L578</f>
+        <f t="shared" ref="M578:M633" si="46">G578-L578</f>
         <v>62.584000000000003</v>
       </c>
       <c r="N578">
@@ -29115,7 +29115,7 @@
         <v>-3.2999999999994145E-2</v>
       </c>
       <c r="O578">
-        <f t="shared" ref="O578:O641" si="48">N578/M578*100</f>
+        <f t="shared" ref="O578:O633" si="48">N578/M578*100</f>
         <v>-5.2729132046520105E-2</v>
       </c>
       <c r="P578">

--- a/data files/CV mass data.xlsx
+++ b/data files/CV mass data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/92261b077c2843b1/Documents/GitHub/CV_growth/data files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="200" documentId="11_134AF580168FA6BFC239881E0A8AF2A54CC17896" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6D309F1-5D44-4994-9F50-3494B2476F44}"/>
+  <xr:revisionPtr revIDLastSave="213" documentId="11_134AF580168FA6BFC239881E0A8AF2A54CC17896" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E3CF05F-8FAD-4E41-A072-992028643EA1}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -486,8 +486,8 @@
   <dimension ref="A1:P633"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E589" sqref="B2:E589"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -582,11 +582,11 @@
         <v>782.54240000000004</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2:N65" si="2">G2-J2-L2</f>
+        <f>G2-J2-L2</f>
         <v>11.323799999999949</v>
       </c>
       <c r="O2">
-        <f t="shared" ref="O2:O65" si="3">N2/M2*100</f>
+        <f t="shared" ref="O2:O65" si="2">N2/M2*100</f>
         <v>1.4470525814320025</v>
       </c>
       <c r="P2">
@@ -633,11 +633,11 @@
         <v>271.19980000000004</v>
       </c>
       <c r="N3">
+        <f t="shared" ref="N3:N65" si="3">G3-J3-L3</f>
+        <v>1.8595000000000113</v>
+      </c>
+      <c r="O3">
         <f t="shared" si="2"/>
-        <v>1.8595000000000113</v>
-      </c>
-      <c r="O3">
-        <f t="shared" si="3"/>
         <v>0.68565684782953784</v>
       </c>
       <c r="P3">
@@ -684,11 +684,11 @@
         <v>421.52610000000004</v>
       </c>
       <c r="N4">
+        <f t="shared" si="3"/>
+        <v>4.6803000000000168</v>
+      </c>
+      <c r="O4">
         <f t="shared" si="2"/>
-        <v>4.6803000000000168</v>
-      </c>
-      <c r="O4">
-        <f t="shared" si="3"/>
         <v>1.1103227059961451</v>
       </c>
       <c r="P4">
@@ -735,11 +735,11 @@
         <v>233.95189999999999</v>
       </c>
       <c r="N5">
+        <f t="shared" si="3"/>
+        <v>2.329999999999977</v>
+      </c>
+      <c r="O5">
         <f t="shared" si="2"/>
-        <v>2.329999999999977</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="3"/>
         <v>0.99593121492066394</v>
       </c>
       <c r="P5">
@@ -786,11 +786,11 @@
         <v>669.64949999999999</v>
       </c>
       <c r="N6">
+        <f t="shared" si="3"/>
+        <v>9.5643000000000455</v>
+      </c>
+      <c r="O6">
         <f t="shared" si="2"/>
-        <v>9.5643000000000455</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="3"/>
         <v>1.4282546317140603</v>
       </c>
       <c r="P6">
@@ -841,11 +841,11 @@
         <v>82.175399999999996</v>
       </c>
       <c r="N7">
+        <f t="shared" si="3"/>
+        <v>-0.15370000000000061</v>
+      </c>
+      <c r="O7">
         <f t="shared" si="2"/>
-        <v>-0.15370000000000061</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="3"/>
         <v>-0.18703894352811257</v>
       </c>
       <c r="P7">
@@ -896,11 +896,11 @@
         <v>56.4771</v>
       </c>
       <c r="N8">
+        <f t="shared" si="3"/>
+        <v>1.6800000000003479E-2</v>
+      </c>
+      <c r="O8">
         <f t="shared" si="2"/>
-        <v>1.6800000000003479E-2</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="3"/>
         <v>2.9746569848670485E-2</v>
       </c>
       <c r="P8">
@@ -947,11 +947,11 @@
         <v>349.94889999999998</v>
       </c>
       <c r="N9">
+        <f t="shared" si="3"/>
+        <v>3.6636000000000024</v>
+      </c>
+      <c r="O9">
         <f t="shared" si="2"/>
-        <v>3.6636000000000024</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="3"/>
         <v>1.0468957039156295</v>
       </c>
       <c r="P9">
@@ -998,11 +998,11 @@
         <v>179.21359999999999</v>
       </c>
       <c r="N10">
+        <f t="shared" si="3"/>
+        <v>1.5070999999999728</v>
+      </c>
+      <c r="O10">
         <f t="shared" si="2"/>
-        <v>1.5070999999999728</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="3"/>
         <v>0.84095180276495363</v>
       </c>
       <c r="P10">
@@ -1049,11 +1049,11 @@
         <v>430.46629999999999</v>
       </c>
       <c r="N11">
+        <f t="shared" si="3"/>
+        <v>5.5296999999999841</v>
+      </c>
+      <c r="O11">
         <f t="shared" si="2"/>
-        <v>5.5296999999999841</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="3"/>
         <v>1.2845837177033332</v>
       </c>
       <c r="P11">
@@ -1100,11 +1100,11 @@
         <v>1239.4198999999999</v>
       </c>
       <c r="N12">
+        <f t="shared" si="3"/>
+        <v>18.939500000000024</v>
+      </c>
+      <c r="O12">
         <f t="shared" si="2"/>
-        <v>18.939500000000024</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="3"/>
         <v>1.528093909094087</v>
       </c>
       <c r="P12">
@@ -1151,11 +1151,11 @@
         <v>333.98489999999998</v>
       </c>
       <c r="N13">
+        <f t="shared" si="3"/>
+        <v>4.2352999999999952</v>
+      </c>
+      <c r="O13">
         <f t="shared" si="2"/>
-        <v>4.2352999999999952</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="3"/>
         <v>1.2681112229924154</v>
       </c>
       <c r="P13">
@@ -1202,11 +1202,11 @@
         <v>349.19159999999999</v>
       </c>
       <c r="N14">
+        <f t="shared" si="3"/>
+        <v>4.7790000000000177</v>
+      </c>
+      <c r="O14">
         <f t="shared" si="2"/>
-        <v>4.7790000000000177</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="3"/>
         <v>1.3685896224307852</v>
       </c>
       <c r="P14">
@@ -1253,11 +1253,11 @@
         <v>272.79450000000003</v>
       </c>
       <c r="N15">
+        <f t="shared" si="3"/>
+        <v>3.4007999999999825</v>
+      </c>
+      <c r="O15">
         <f t="shared" si="2"/>
-        <v>3.4007999999999825</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="3"/>
         <v>1.2466527001094165</v>
       </c>
       <c r="P15">
@@ -1304,11 +1304,11 @@
         <v>395.19419999999997</v>
       </c>
       <c r="N16">
+        <f t="shared" si="3"/>
+        <v>4.5674999999999457</v>
+      </c>
+      <c r="O16">
         <f t="shared" si="2"/>
-        <v>4.5674999999999457</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="3"/>
         <v>1.1557608892033198</v>
       </c>
       <c r="P16">
@@ -1355,11 +1355,11 @@
         <v>347.05450000000002</v>
       </c>
       <c r="N17">
+        <f t="shared" si="3"/>
+        <v>-0.44419999999998083</v>
+      </c>
+      <c r="O17">
         <f t="shared" si="2"/>
-        <v>-0.44419999999998083</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="3"/>
         <v>-0.12799142497791582</v>
       </c>
       <c r="P17">
@@ -1409,11 +1409,11 @@
         <v>297.94309999999996</v>
       </c>
       <c r="N18">
+        <f t="shared" si="3"/>
+        <v>1.8018999999999608</v>
+      </c>
+      <c r="O18">
         <f t="shared" si="2"/>
-        <v>1.8018999999999608</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="3"/>
         <v>0.60477990596189712</v>
       </c>
       <c r="P18">
@@ -1463,11 +1463,11 @@
         <v>370.14439999999996</v>
       </c>
       <c r="N19">
+        <f t="shared" si="3"/>
+        <v>3.8995000000000033</v>
+      </c>
+      <c r="O19">
         <f t="shared" si="2"/>
-        <v>3.8995000000000033</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="3"/>
         <v>1.0535077661582894</v>
       </c>
       <c r="P19">
@@ -1514,11 +1514,11 @@
         <v>397.05810000000002</v>
       </c>
       <c r="N20">
+        <f t="shared" si="3"/>
+        <v>4.0447000000000344</v>
+      </c>
+      <c r="O20">
         <f t="shared" si="2"/>
-        <v>4.0447000000000344</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="3"/>
         <v>1.0186670414229138</v>
       </c>
       <c r="P20">
@@ -1565,11 +1565,11 @@
         <v>297.98599999999999</v>
       </c>
       <c r="N21">
+        <f t="shared" si="3"/>
+        <v>5.6345000000000312</v>
+      </c>
+      <c r="O21">
         <f t="shared" si="2"/>
-        <v>5.6345000000000312</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="3"/>
         <v>1.8908606444598173</v>
       </c>
       <c r="P21">
@@ -1616,11 +1616,11 @@
         <v>362.30079999999998</v>
       </c>
       <c r="N22">
+        <f t="shared" si="3"/>
+        <v>4.0647999999999982</v>
+      </c>
+      <c r="O22">
         <f t="shared" si="2"/>
-        <v>4.0647999999999982</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="3"/>
         <v>1.1219406636695251</v>
       </c>
       <c r="P22">
@@ -1667,11 +1667,11 @@
         <v>1231.4521</v>
       </c>
       <c r="N23">
+        <f t="shared" si="3"/>
+        <v>15.682700000000139</v>
+      </c>
+      <c r="O23">
         <f t="shared" si="2"/>
-        <v>15.682700000000139</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="3"/>
         <v>1.2735127903066745</v>
       </c>
       <c r="P23">
@@ -1718,11 +1718,11 @@
         <v>262.88070000000005</v>
       </c>
       <c r="N24">
+        <f t="shared" si="3"/>
+        <v>3.0900000000000105</v>
+      </c>
+      <c r="O24">
         <f t="shared" si="2"/>
-        <v>3.0900000000000105</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="3"/>
         <v>1.1754381360061845</v>
       </c>
       <c r="P24">
@@ -1769,11 +1769,11 @@
         <v>267.80029999999999</v>
       </c>
       <c r="N25">
+        <f t="shared" si="3"/>
+        <v>2.7657000000000025</v>
+      </c>
+      <c r="O25">
         <f t="shared" si="2"/>
-        <v>2.7657000000000025</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="3"/>
         <v>1.0327471627178919</v>
       </c>
       <c r="P25">
@@ -1820,11 +1820,11 @@
         <v>533.19079999999997</v>
       </c>
       <c r="N26">
+        <f t="shared" si="3"/>
+        <v>6.6491999999999791</v>
+      </c>
+      <c r="O26">
         <f t="shared" si="2"/>
-        <v>6.6491999999999791</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="3"/>
         <v>1.2470582763243439</v>
       </c>
       <c r="P26">
@@ -1871,11 +1871,11 @@
         <v>236.2439</v>
       </c>
       <c r="N27">
+        <f t="shared" si="3"/>
+        <v>3.930199999999985</v>
+      </c>
+      <c r="O27">
         <f t="shared" si="2"/>
-        <v>3.930199999999985</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="3"/>
         <v>1.6636196744127509</v>
       </c>
       <c r="P27">
@@ -1922,11 +1922,11 @@
         <v>589.65769999999998</v>
       </c>
       <c r="N28">
+        <f t="shared" si="3"/>
+        <v>9.5515000000000185</v>
+      </c>
+      <c r="O28">
         <f t="shared" si="2"/>
-        <v>9.5515000000000185</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="3"/>
         <v>1.6198380857232968</v>
       </c>
       <c r="P28">
@@ -1973,11 +1973,11 @@
         <v>396.59609999999998</v>
       </c>
       <c r="N29">
+        <f t="shared" si="3"/>
+        <v>6.2570000000000121</v>
+      </c>
+      <c r="O29">
         <f t="shared" si="2"/>
-        <v>6.2570000000000121</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="3"/>
         <v>1.5776756251511328</v>
       </c>
       <c r="P29">
@@ -2028,11 +2028,11 @@
         <v>69.091999999999999</v>
       </c>
       <c r="N30">
+        <f t="shared" si="3"/>
+        <v>-8.9900000000000091E-2</v>
+      </c>
+      <c r="O30">
         <f t="shared" si="2"/>
-        <v>-8.9900000000000091E-2</v>
-      </c>
-      <c r="O30">
-        <f t="shared" si="3"/>
         <v>-0.13011636658368564</v>
       </c>
       <c r="P30">
@@ -2079,11 +2079,11 @@
         <v>560.44439999999997</v>
       </c>
       <c r="N31">
+        <f t="shared" si="3"/>
+        <v>7.0790999999999542</v>
+      </c>
+      <c r="O31">
         <f t="shared" si="2"/>
-        <v>7.0790999999999542</v>
-      </c>
-      <c r="O31">
-        <f t="shared" si="3"/>
         <v>1.2631226219764091</v>
       </c>
       <c r="P31">
@@ -2130,11 +2130,11 @@
         <v>538.05669999999998</v>
       </c>
       <c r="N32">
+        <f t="shared" si="3"/>
+        <v>8.2256000000000355</v>
+      </c>
+      <c r="O32">
         <f t="shared" si="2"/>
-        <v>8.2256000000000355</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="3"/>
         <v>1.5287608164715794</v>
       </c>
       <c r="P32">
@@ -2181,11 +2181,11 @@
         <v>277.43039999999996</v>
       </c>
       <c r="N33">
+        <f t="shared" si="3"/>
+        <v>3.7918999999999556</v>
+      </c>
+      <c r="O33">
         <f t="shared" si="2"/>
-        <v>3.7918999999999556</v>
-      </c>
-      <c r="O33">
-        <f t="shared" si="3"/>
         <v>1.3667932569754273</v>
       </c>
       <c r="P33">
@@ -2232,11 +2232,11 @@
         <v>170.59</v>
       </c>
       <c r="N34">
+        <f t="shared" si="3"/>
+        <v>1.7689999999999984</v>
+      </c>
+      <c r="O34">
         <f t="shared" si="2"/>
-        <v>1.7689999999999984</v>
-      </c>
-      <c r="O34">
-        <f t="shared" si="3"/>
         <v>1.036989272524766</v>
       </c>
       <c r="P34">
@@ -2283,11 +2283,11 @@
         <v>294.76310000000001</v>
       </c>
       <c r="N35">
+        <f t="shared" si="3"/>
+        <v>4.2631999999999621</v>
+      </c>
+      <c r="O35">
         <f t="shared" si="2"/>
-        <v>4.2631999999999621</v>
-      </c>
-      <c r="O35">
-        <f t="shared" si="3"/>
         <v>1.4463140060611257</v>
       </c>
       <c r="P35">
@@ -2334,11 +2334,11 @@
         <v>524.65769999999998</v>
       </c>
       <c r="N36">
+        <f t="shared" si="3"/>
+        <v>8.2033000000000484</v>
+      </c>
+      <c r="O36">
         <f t="shared" si="2"/>
-        <v>8.2033000000000484</v>
-      </c>
-      <c r="O36">
-        <f t="shared" si="3"/>
         <v>1.5635527697392126</v>
       </c>
       <c r="P36">
@@ -2385,11 +2385,11 @@
         <v>204.2861</v>
       </c>
       <c r="N37">
+        <f t="shared" si="3"/>
+        <v>2.31280000000001</v>
+      </c>
+      <c r="O37">
         <f t="shared" si="2"/>
-        <v>2.31280000000001</v>
-      </c>
-      <c r="O37">
-        <f t="shared" si="3"/>
         <v>1.132137722537172</v>
       </c>
       <c r="P37">
@@ -2436,11 +2436,11 @@
         <v>279.28129999999999</v>
       </c>
       <c r="N38">
+        <f t="shared" si="3"/>
+        <v>3.3945000000000078</v>
+      </c>
+      <c r="O38">
         <f t="shared" si="2"/>
-        <v>3.3945000000000078</v>
-      </c>
-      <c r="O38">
-        <f t="shared" si="3"/>
         <v>1.2154412056947628</v>
       </c>
       <c r="P38">
@@ -2487,11 +2487,11 @@
         <v>248.74850000000001</v>
       </c>
       <c r="N39">
+        <f t="shared" si="3"/>
+        <v>3.0485999999999933</v>
+      </c>
+      <c r="O39">
         <f t="shared" si="2"/>
-        <v>3.0485999999999933</v>
-      </c>
-      <c r="O39">
-        <f t="shared" si="3"/>
         <v>1.2255752295993718</v>
       </c>
       <c r="P39">
@@ -2538,11 +2538,11 @@
         <v>279.86989999999997</v>
       </c>
       <c r="N40">
+        <f t="shared" si="3"/>
+        <v>3.8304000000000116</v>
+      </c>
+      <c r="O40">
         <f t="shared" si="2"/>
-        <v>3.8304000000000116</v>
-      </c>
-      <c r="O40">
-        <f t="shared" si="3"/>
         <v>1.3686359269074708</v>
       </c>
       <c r="P40">
@@ -2589,11 +2589,11 @@
         <v>646.18740000000003</v>
       </c>
       <c r="N41">
+        <f t="shared" si="3"/>
+        <v>7.9641999999999626</v>
+      </c>
+      <c r="O41">
         <f t="shared" si="2"/>
-        <v>7.9641999999999626</v>
-      </c>
-      <c r="O41">
-        <f t="shared" si="3"/>
         <v>1.2324907604202686</v>
       </c>
       <c r="P41">
@@ -2640,11 +2640,11 @@
         <v>243.5283</v>
       </c>
       <c r="N42">
+        <f t="shared" si="3"/>
+        <v>3.5818999999999832</v>
+      </c>
+      <c r="O42">
         <f t="shared" si="2"/>
-        <v>3.5818999999999832</v>
-      </c>
-      <c r="O42">
-        <f t="shared" si="3"/>
         <v>1.4708352170979648</v>
       </c>
       <c r="P42">
@@ -2695,11 +2695,11 @@
         <v>54.544800000000002</v>
       </c>
       <c r="N43">
+        <f t="shared" si="3"/>
+        <v>2.0800000000001262E-2</v>
+      </c>
+      <c r="O43">
         <f t="shared" si="2"/>
-        <v>2.0800000000001262E-2</v>
-      </c>
-      <c r="O43">
-        <f t="shared" si="3"/>
         <v>3.8133790938826913E-2</v>
       </c>
       <c r="P43">
@@ -2746,11 +2746,11 @@
         <v>493.65120000000002</v>
       </c>
       <c r="N44">
+        <f t="shared" si="3"/>
+        <v>8.2243999999999957</v>
+      </c>
+      <c r="O44">
         <f t="shared" si="2"/>
-        <v>8.2243999999999957</v>
-      </c>
-      <c r="O44">
-        <f t="shared" si="3"/>
         <v>1.6660346414634455</v>
       </c>
       <c r="P44">
@@ -2797,11 +2797,11 @@
         <v>683.76250000000005</v>
       </c>
       <c r="N45">
+        <f t="shared" si="3"/>
+        <v>10.33750000000007</v>
+      </c>
+      <c r="O45">
         <f t="shared" si="2"/>
-        <v>10.33750000000007</v>
-      </c>
-      <c r="O45">
-        <f t="shared" si="3"/>
         <v>1.5118553591342125</v>
       </c>
       <c r="P45">
@@ -2848,11 +2848,11 @@
         <v>260.137</v>
       </c>
       <c r="N46">
+        <f t="shared" si="3"/>
+        <v>2.7417999999999978</v>
+      </c>
+      <c r="O46">
         <f t="shared" si="2"/>
-        <v>2.7417999999999978</v>
-      </c>
-      <c r="O46">
-        <f t="shared" si="3"/>
         <v>1.0539830935237962</v>
       </c>
       <c r="P46">
@@ -2899,11 +2899,11 @@
         <v>358.62639999999999</v>
       </c>
       <c r="N47">
+        <f t="shared" si="3"/>
+        <v>5.7172999999999661</v>
+      </c>
+      <c r="O47">
         <f t="shared" si="2"/>
-        <v>5.7172999999999661</v>
-      </c>
-      <c r="O47">
-        <f t="shared" si="3"/>
         <v>1.5942217304693591</v>
       </c>
       <c r="P47">
@@ -2950,11 +2950,11 @@
         <v>519.59010000000001</v>
       </c>
       <c r="N48">
+        <f t="shared" si="3"/>
+        <v>8.0194999999999936</v>
+      </c>
+      <c r="O48">
         <f t="shared" si="2"/>
-        <v>8.0194999999999936</v>
-      </c>
-      <c r="O48">
-        <f t="shared" si="3"/>
         <v>1.5434281754021089</v>
       </c>
       <c r="P48">
@@ -3001,11 +3001,11 @@
         <v>375.83980000000003</v>
       </c>
       <c r="N49">
+        <f t="shared" si="3"/>
+        <v>6.3046000000000291</v>
+      </c>
+      <c r="O49">
         <f t="shared" si="2"/>
-        <v>6.3046000000000291</v>
-      </c>
-      <c r="O49">
-        <f t="shared" si="3"/>
         <v>1.6774700284536199</v>
       </c>
       <c r="P49">
@@ -3052,11 +3052,11 @@
         <v>458.77729999999997</v>
       </c>
       <c r="N50">
+        <f t="shared" si="3"/>
+        <v>6.7306999999999633</v>
+      </c>
+      <c r="O50">
         <f t="shared" si="2"/>
-        <v>6.7306999999999633</v>
-      </c>
-      <c r="O50">
-        <f t="shared" si="3"/>
         <v>1.467095255148841</v>
       </c>
       <c r="P50">
@@ -3072,13 +3072,13 @@
         <v>2</v>
       </c>
       <c r="C51">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E51">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F51">
         <v>57.885399999999997</v>
@@ -3104,11 +3104,11 @@
         <v>710.06700000000001</v>
       </c>
       <c r="N51">
+        <f t="shared" si="3"/>
+        <v>8.6124999999999474</v>
+      </c>
+      <c r="O51">
         <f t="shared" si="2"/>
-        <v>8.6124999999999474</v>
-      </c>
-      <c r="O51">
-        <f t="shared" si="3"/>
         <v>1.2129137109596626</v>
       </c>
       <c r="P51">
@@ -3124,13 +3124,13 @@
         <v>2</v>
       </c>
       <c r="C52">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E52">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F52">
         <v>75.721299999999999</v>
@@ -3156,11 +3156,11 @@
         <v>278.94389999999999</v>
       </c>
       <c r="N52">
+        <f t="shared" si="3"/>
+        <v>3.2484000000000037</v>
+      </c>
+      <c r="O52">
         <f t="shared" si="2"/>
-        <v>3.2484000000000037</v>
-      </c>
-      <c r="O52">
-        <f t="shared" si="3"/>
         <v>1.1645352345041435</v>
       </c>
       <c r="P52">
@@ -3176,13 +3176,13 @@
         <v>2</v>
       </c>
       <c r="C53">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E53">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F53">
         <v>60.188699999999997</v>
@@ -3208,11 +3208,11 @@
         <v>245.76439999999999</v>
       </c>
       <c r="N53">
+        <f t="shared" si="3"/>
+        <v>3.5638999999999825</v>
+      </c>
+      <c r="O53">
         <f t="shared" si="2"/>
-        <v>3.5638999999999825</v>
-      </c>
-      <c r="O53">
-        <f t="shared" si="3"/>
         <v>1.4501286598058885</v>
       </c>
       <c r="P53">
@@ -3228,13 +3228,13 @@
         <v>2</v>
       </c>
       <c r="C54">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E54">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F54">
         <v>84.449799999999996</v>
@@ -3260,11 +3260,11 @@
         <v>511.65120000000002</v>
       </c>
       <c r="N54">
+        <f t="shared" si="3"/>
+        <v>5.4433000000000362</v>
+      </c>
+      <c r="O54">
         <f t="shared" si="2"/>
-        <v>5.4433000000000362</v>
-      </c>
-      <c r="O54">
-        <f t="shared" si="3"/>
         <v>1.0638692922053219</v>
       </c>
       <c r="P54">
@@ -3280,13 +3280,13 @@
         <v>2</v>
       </c>
       <c r="C55">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E55">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F55">
         <v>48.566600000000001</v>
@@ -3316,11 +3316,11 @@
         <v>48.566600000000001</v>
       </c>
       <c r="N55">
+        <f t="shared" si="3"/>
+        <v>-4.1800000000002058E-2</v>
+      </c>
+      <c r="O55">
         <f t="shared" si="2"/>
-        <v>-4.1800000000002058E-2</v>
-      </c>
-      <c r="O55">
-        <f t="shared" si="3"/>
         <v>-8.606737963950957E-2</v>
       </c>
       <c r="P55">
@@ -3336,13 +3336,13 @@
         <v>2</v>
       </c>
       <c r="C56">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E56">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F56">
         <v>66.148200000000003</v>
@@ -3368,11 +3368,11 @@
         <v>255.51280000000003</v>
       </c>
       <c r="N56">
+        <f t="shared" si="3"/>
+        <v>2.3255000000000194</v>
+      </c>
+      <c r="O56">
         <f t="shared" si="2"/>
-        <v>2.3255000000000194</v>
-      </c>
-      <c r="O56">
-        <f t="shared" si="3"/>
         <v>0.91013052966427488</v>
       </c>
       <c r="P56">
@@ -3388,13 +3388,13 @@
         <v>2</v>
       </c>
       <c r="C57">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E57">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F57">
         <v>64.1023</v>
@@ -3420,11 +3420,11 @@
         <v>507.11680000000001</v>
       </c>
       <c r="N57">
+        <f t="shared" si="3"/>
+        <v>6.2221999999999866</v>
+      </c>
+      <c r="O57">
         <f t="shared" si="2"/>
-        <v>6.2221999999999866</v>
-      </c>
-      <c r="O57">
-        <f t="shared" si="3"/>
         <v>1.2269757184143744</v>
       </c>
       <c r="P57">
@@ -3440,13 +3440,13 @@
         <v>2</v>
       </c>
       <c r="C58">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E58">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F58">
         <v>53.574199999999998</v>
@@ -3472,11 +3472,11 @@
         <v>203.8177</v>
       </c>
       <c r="N58">
+        <f t="shared" si="3"/>
+        <v>2.6339000000000112</v>
+      </c>
+      <c r="O58">
         <f t="shared" si="2"/>
-        <v>2.6339000000000112</v>
-      </c>
-      <c r="O58">
-        <f t="shared" si="3"/>
         <v>1.2922822698911878</v>
       </c>
       <c r="P58">
@@ -3492,13 +3492,13 @@
         <v>2</v>
       </c>
       <c r="C59">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E59">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F59">
         <v>71.676199999999994</v>
@@ -3524,11 +3524,11 @@
         <v>353.15019999999998</v>
       </c>
       <c r="N59">
+        <f t="shared" si="3"/>
+        <v>3.6456000000000017</v>
+      </c>
+      <c r="O59">
         <f t="shared" si="2"/>
-        <v>3.6456000000000017</v>
-      </c>
-      <c r="O59">
-        <f t="shared" si="3"/>
         <v>1.032308632417595</v>
       </c>
       <c r="P59">
@@ -3544,13 +3544,13 @@
         <v>2</v>
       </c>
       <c r="C60">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E60">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F60">
         <v>48.256799999999998</v>
@@ -3576,11 +3576,11 @@
         <v>280.85540000000003</v>
       </c>
       <c r="N60">
+        <f t="shared" si="3"/>
+        <v>5.4346000000000316</v>
+      </c>
+      <c r="O60">
         <f t="shared" si="2"/>
-        <v>5.4346000000000316</v>
-      </c>
-      <c r="O60">
-        <f t="shared" si="3"/>
         <v>1.9350170942057838</v>
       </c>
       <c r="P60">
@@ -3596,13 +3596,13 @@
         <v>2</v>
       </c>
       <c r="C61">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E61">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F61">
         <v>58.013199999999998</v>
@@ -3628,11 +3628,11 @@
         <v>400.78779999999995</v>
       </c>
       <c r="N61">
+        <f t="shared" si="3"/>
+        <v>5.7123999999999668</v>
+      </c>
+      <c r="O61">
         <f t="shared" si="2"/>
-        <v>5.7123999999999668</v>
-      </c>
-      <c r="O61">
-        <f t="shared" si="3"/>
         <v>1.4252928856616811</v>
       </c>
       <c r="P61">
@@ -3648,13 +3648,13 @@
         <v>2</v>
       </c>
       <c r="C62">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E62">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F62">
         <v>47.3489</v>
@@ -3677,11 +3677,11 @@
         <v>727.16079999999999</v>
       </c>
       <c r="N62">
+        <f t="shared" si="3"/>
+        <v>8.9505999999999872</v>
+      </c>
+      <c r="O62">
         <f t="shared" si="2"/>
-        <v>8.9505999999999872</v>
-      </c>
-      <c r="O62">
-        <f t="shared" si="3"/>
         <v>1.2308969350383008</v>
       </c>
       <c r="P62">
@@ -3697,13 +3697,13 @@
         <v>2</v>
       </c>
       <c r="C63">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E63">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F63">
         <v>53.520899999999997</v>
@@ -3726,11 +3726,11 @@
         <v>256.03059999999999</v>
       </c>
       <c r="N63">
+        <f t="shared" si="3"/>
+        <v>2.1020999999999859</v>
+      </c>
+      <c r="O63">
         <f t="shared" si="2"/>
-        <v>2.1020999999999859</v>
-      </c>
-      <c r="O63">
-        <f t="shared" si="3"/>
         <v>0.82103467319921375</v>
       </c>
       <c r="P63">
@@ -3746,13 +3746,13 @@
         <v>2</v>
       </c>
       <c r="C64">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E64">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F64">
         <v>53.5623</v>
@@ -3775,11 +3775,11 @@
         <v>291.88319999999999</v>
       </c>
       <c r="N64">
+        <f t="shared" si="3"/>
+        <v>3.1275999999999797</v>
+      </c>
+      <c r="O64">
         <f t="shared" si="2"/>
-        <v>3.1275999999999797</v>
-      </c>
-      <c r="O64">
-        <f t="shared" si="3"/>
         <v>1.0715245002110363</v>
       </c>
       <c r="P64">
@@ -3795,13 +3795,13 @@
         <v>2</v>
       </c>
       <c r="C65">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E65">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F65">
         <v>45.018700000000003</v>
@@ -3824,11 +3824,11 @@
         <v>317.495</v>
       </c>
       <c r="N65">
+        <f t="shared" si="3"/>
+        <v>4.7253999999999508</v>
+      </c>
+      <c r="O65">
         <f t="shared" si="2"/>
-        <v>4.7253999999999508</v>
-      </c>
-      <c r="O65">
-        <f t="shared" si="3"/>
         <v>1.4883383990298904</v>
       </c>
       <c r="P65">
@@ -3844,13 +3844,13 @@
         <v>2</v>
       </c>
       <c r="C66">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E66">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F66">
         <v>44.48</v>
@@ -3893,13 +3893,13 @@
         <v>2</v>
       </c>
       <c r="C67">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E67">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F67">
         <v>43.640900000000002</v>
@@ -3942,13 +3942,13 @@
         <v>2</v>
       </c>
       <c r="C68">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E68">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F68">
         <v>52.764299999999999</v>
@@ -3991,13 +3991,13 @@
         <v>2</v>
       </c>
       <c r="C69">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E69">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F69">
         <v>48.936399999999999</v>
@@ -4040,13 +4040,13 @@
         <v>2</v>
       </c>
       <c r="C70">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E70">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F70">
         <v>45.4557</v>
@@ -4089,13 +4089,13 @@
         <v>2</v>
       </c>
       <c r="C71">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E71">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F71">
         <v>59.133800000000001</v>
@@ -4138,13 +4138,13 @@
         <v>2</v>
       </c>
       <c r="C72">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E72">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F72">
         <v>52.422699999999999</v>
@@ -4187,13 +4187,13 @@
         <v>2</v>
       </c>
       <c r="C73">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E73">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F73">
         <v>82.742500000000007</v>
@@ -4236,13 +4236,13 @@
         <v>2</v>
       </c>
       <c r="C74">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E74">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F74">
         <v>60.5717</v>
@@ -4285,13 +4285,13 @@
         <v>2</v>
       </c>
       <c r="C75">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E75">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F75">
         <v>52.397599999999997</v>
@@ -4334,13 +4334,13 @@
         <v>2</v>
       </c>
       <c r="C76">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E76">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F76">
         <v>52.670900000000003</v>
@@ -4383,13 +4383,13 @@
         <v>2</v>
       </c>
       <c r="C77">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E77">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F77">
         <v>61.585599999999999</v>
@@ -4432,13 +4432,13 @@
         <v>2</v>
       </c>
       <c r="C78">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E78">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F78">
         <v>60.364400000000003</v>
@@ -4481,13 +4481,13 @@
         <v>2</v>
       </c>
       <c r="C79">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E79">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F79">
         <v>54.498600000000003</v>
@@ -4534,13 +4534,13 @@
         <v>2</v>
       </c>
       <c r="C80">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E80">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F80">
         <v>64.010599999999997</v>
@@ -4583,13 +4583,13 @@
         <v>2</v>
       </c>
       <c r="C81">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E81">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F81">
         <v>52.9709</v>
@@ -4632,13 +4632,13 @@
         <v>2</v>
       </c>
       <c r="C82">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E82">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F82">
         <v>45.268099999999997</v>
@@ -4681,13 +4681,13 @@
         <v>2</v>
       </c>
       <c r="C83">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E83">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F83">
         <v>49.556800000000003</v>
@@ -4730,13 +4730,13 @@
         <v>2</v>
       </c>
       <c r="C84">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E84">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F84">
         <v>47.645099999999999</v>
@@ -4779,13 +4779,13 @@
         <v>2</v>
       </c>
       <c r="C85">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E85">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F85">
         <v>69.275800000000004</v>
@@ -4828,13 +4828,13 @@
         <v>2</v>
       </c>
       <c r="C86">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E86">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F86">
         <v>62.963500000000003</v>
@@ -4877,13 +4877,13 @@
         <v>2</v>
       </c>
       <c r="C87">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E87">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F87">
         <v>55.881100000000004</v>
@@ -4926,13 +4926,13 @@
         <v>2</v>
       </c>
       <c r="C88">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E88">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F88">
         <v>45.812600000000003</v>
@@ -4975,13 +4975,13 @@
         <v>2</v>
       </c>
       <c r="C89">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E89">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F89">
         <v>50.024900000000002</v>
@@ -5024,13 +5024,13 @@
         <v>2</v>
       </c>
       <c r="C90">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E90">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F90">
         <v>55.236600000000003</v>
@@ -5073,13 +5073,13 @@
         <v>2</v>
       </c>
       <c r="C91">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E91">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F91">
         <v>49.786200000000001</v>
@@ -5122,13 +5122,13 @@
         <v>2</v>
       </c>
       <c r="C92">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E92">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F92">
         <v>61.5351</v>
@@ -5175,13 +5175,13 @@
         <v>2</v>
       </c>
       <c r="C93">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E93">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F93">
         <v>68.912499999999994</v>
@@ -5224,13 +5224,13 @@
         <v>2</v>
       </c>
       <c r="C94">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E94">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F94">
         <v>57.769799999999996</v>
@@ -5273,13 +5273,13 @@
         <v>2</v>
       </c>
       <c r="C95">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E95">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F95">
         <v>66.610200000000006</v>
@@ -5322,13 +5322,13 @@
         <v>2</v>
       </c>
       <c r="C96">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E96">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F96">
         <v>60.6828</v>
@@ -5371,13 +5371,13 @@
         <v>2</v>
       </c>
       <c r="C97">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E97">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F97">
         <v>70.593999999999994</v>
@@ -5420,13 +5420,13 @@
         <v>2</v>
       </c>
       <c r="C98">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E98">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F98">
         <v>62.174900000000001</v>
@@ -5469,13 +5469,13 @@
         <v>2</v>
       </c>
       <c r="C99">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E99">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F99">
         <v>55.713500000000003</v>
@@ -10332,13 +10332,13 @@
         <v>5</v>
       </c>
       <c r="C198">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E198">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F198">
         <v>60.950099999999999</v>
@@ -10381,13 +10381,13 @@
         <v>5</v>
       </c>
       <c r="C199">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D199" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E199">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F199">
         <v>78.387200000000007</v>
@@ -10430,13 +10430,13 @@
         <v>5</v>
       </c>
       <c r="C200">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D200" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E200">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F200">
         <v>57.3551</v>
@@ -10479,13 +10479,13 @@
         <v>5</v>
       </c>
       <c r="C201">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D201" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E201">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F201">
         <v>75.479699999999994</v>
@@ -10528,13 +10528,13 @@
         <v>5</v>
       </c>
       <c r="C202">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D202" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E202">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F202">
         <v>51.823399999999999</v>
@@ -10577,13 +10577,13 @@
         <v>5</v>
       </c>
       <c r="C203">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D203" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E203">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F203">
         <v>50.923900000000003</v>
@@ -10626,13 +10626,13 @@
         <v>5</v>
       </c>
       <c r="C204">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D204" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E204">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F204">
         <v>66.766000000000005</v>
@@ -10675,13 +10675,13 @@
         <v>5</v>
       </c>
       <c r="C205">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D205" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E205">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F205">
         <v>68.341999999999999</v>
@@ -10724,13 +10724,13 @@
         <v>5</v>
       </c>
       <c r="C206">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D206" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E206">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F206">
         <v>64.798900000000003</v>
@@ -10773,13 +10773,13 @@
         <v>5</v>
       </c>
       <c r="C207">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D207" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E207">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F207">
         <v>59.766800000000003</v>
@@ -10822,13 +10822,13 @@
         <v>5</v>
       </c>
       <c r="C208">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D208" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E208">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F208">
         <v>65.442599999999999</v>
@@ -10871,13 +10871,13 @@
         <v>5</v>
       </c>
       <c r="C209">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D209" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E209">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F209">
         <v>70.025499999999994</v>
@@ -10920,13 +10920,13 @@
         <v>5</v>
       </c>
       <c r="C210">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D210" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E210">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F210">
         <v>79.033699999999996</v>
@@ -10969,13 +10969,13 @@
         <v>5</v>
       </c>
       <c r="C211">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D211" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E211">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F211">
         <v>61.721600000000002</v>
@@ -11018,13 +11018,13 @@
         <v>5</v>
       </c>
       <c r="C212">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D212" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E212">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F212">
         <v>75.070899999999995</v>
@@ -11067,13 +11067,13 @@
         <v>5</v>
       </c>
       <c r="C213">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D213" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E213">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F213">
         <v>53.944499999999998</v>
@@ -11116,13 +11116,13 @@
         <v>5</v>
       </c>
       <c r="C214">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D214" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E214">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F214">
         <v>76.3125</v>
@@ -11165,13 +11165,13 @@
         <v>5</v>
       </c>
       <c r="C215">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D215" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E215">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F215">
         <v>69.010499999999993</v>
@@ -11214,13 +11214,13 @@
         <v>5</v>
       </c>
       <c r="C216">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D216" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E216">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F216">
         <v>75.953400000000002</v>
@@ -11263,13 +11263,13 @@
         <v>5</v>
       </c>
       <c r="C217">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D217" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E217">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F217">
         <v>63.932400000000001</v>
@@ -11312,13 +11312,13 @@
         <v>5</v>
       </c>
       <c r="C218">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D218" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E218">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F218">
         <v>51.458599999999997</v>
@@ -11365,13 +11365,13 @@
         <v>5</v>
       </c>
       <c r="C219">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D219" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E219">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F219">
         <v>51.814</v>
@@ -11414,13 +11414,13 @@
         <v>5</v>
       </c>
       <c r="C220">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D220" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E220">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F220">
         <v>65.853200000000001</v>
@@ -11466,13 +11466,13 @@
         <v>5</v>
       </c>
       <c r="C221">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D221" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E221">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F221">
         <v>56.340699999999998</v>
@@ -11515,13 +11515,13 @@
         <v>5</v>
       </c>
       <c r="C222">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D222" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E222">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F222">
         <v>54.709499999999998</v>
@@ -11564,13 +11564,13 @@
         <v>5</v>
       </c>
       <c r="C223">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D223" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E223">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F223">
         <v>67.766300000000001</v>
@@ -11613,13 +11613,13 @@
         <v>5</v>
       </c>
       <c r="C224">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D224" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E224">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F224">
         <v>65.644900000000007</v>
@@ -11662,13 +11662,13 @@
         <v>5</v>
       </c>
       <c r="C225">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D225" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E225">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F225">
         <v>83.823499999999996</v>
@@ -11711,13 +11711,13 @@
         <v>5</v>
       </c>
       <c r="C226">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D226" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E226">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F226">
         <v>61.581800000000001</v>
@@ -11760,13 +11760,13 @@
         <v>5</v>
       </c>
       <c r="C227">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D227" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E227">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F227">
         <v>56.5672</v>
@@ -11809,13 +11809,13 @@
         <v>5</v>
       </c>
       <c r="C228">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D228" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E228">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F228">
         <v>57.682200000000002</v>
@@ -11858,13 +11858,13 @@
         <v>5</v>
       </c>
       <c r="C229">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D229" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E229">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F229">
         <v>95.889499999999998</v>
@@ -11907,13 +11907,13 @@
         <v>5</v>
       </c>
       <c r="C230">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D230" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E230">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F230">
         <v>81.627200000000002</v>
@@ -11956,13 +11956,13 @@
         <v>5</v>
       </c>
       <c r="C231">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D231" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E231">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F231">
         <v>69.042000000000002</v>
@@ -12005,13 +12005,13 @@
         <v>5</v>
       </c>
       <c r="C232">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D232" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E232">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F232">
         <v>72.556600000000003</v>
@@ -12054,13 +12054,13 @@
         <v>5</v>
       </c>
       <c r="C233">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D233" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E233">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F233">
         <v>56.496099999999998</v>
@@ -12103,13 +12103,13 @@
         <v>5</v>
       </c>
       <c r="C234">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D234" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E234">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F234">
         <v>66.021699999999996</v>
@@ -12152,13 +12152,13 @@
         <v>5</v>
       </c>
       <c r="C235">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D235" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E235">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F235">
         <v>69.737899999999996</v>
@@ -12201,13 +12201,13 @@
         <v>5</v>
       </c>
       <c r="C236">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D236" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E236">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F236">
         <v>67.031400000000005</v>
@@ -12250,13 +12250,13 @@
         <v>5</v>
       </c>
       <c r="C237">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D237" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E237">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F237">
         <v>76.017099999999999</v>
@@ -12299,13 +12299,13 @@
         <v>5</v>
       </c>
       <c r="C238">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D238" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E238">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F238">
         <v>64.990200000000002</v>
@@ -12352,13 +12352,13 @@
         <v>5</v>
       </c>
       <c r="C239">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D239" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E239">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F239">
         <v>65.341200000000001</v>
@@ -12401,13 +12401,13 @@
         <v>5</v>
       </c>
       <c r="C240">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D240" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E240">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F240">
         <v>35.752699999999997</v>
@@ -12450,13 +12450,13 @@
         <v>5</v>
       </c>
       <c r="C241">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D241" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E241">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F241">
         <v>86.360799999999998</v>
@@ -12499,13 +12499,13 @@
         <v>5</v>
       </c>
       <c r="C242">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D242" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E242">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F242">
         <v>65.317300000000003</v>
@@ -12552,13 +12552,13 @@
         <v>5</v>
       </c>
       <c r="C243">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D243" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E243">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F243">
         <v>83.037300000000002</v>
@@ -12601,13 +12601,13 @@
         <v>5</v>
       </c>
       <c r="C244">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D244" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E244">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F244">
         <v>53.228200000000001</v>
@@ -12650,13 +12650,13 @@
         <v>5</v>
       </c>
       <c r="C245">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D245" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E245">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F245">
         <v>86.713999999999999</v>
@@ -12699,13 +12699,13 @@
         <v>5</v>
       </c>
       <c r="C246">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D246" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E246">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F246">
         <v>63.205599999999997</v>
